--- a/Bases_de_Dados_(2022-2023)/Brazil Copa do Nordeste_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Brazil Copa do Nordeste_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="178">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -460,6 +460,9 @@
     <t>['23', '86']</t>
   </si>
   <si>
+    <t>['49']</t>
+  </si>
+  <si>
     <t>['17']</t>
   </si>
   <si>
@@ -485,9 +488,6 @@
   </si>
   <si>
     <t>['28', '68']</t>
-  </si>
-  <si>
-    <t>['49']</t>
   </si>
   <si>
     <t>['40']</t>
@@ -909,7 +909,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK67"/>
+  <dimension ref="A1:BK68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1153,7 +1153,7 @@
         <v>93</v>
       </c>
       <c r="P2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q2">
         <v>18</v>
@@ -1344,7 +1344,7 @@
         <v>94</v>
       </c>
       <c r="P3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q3">
         <v>-1</v>
@@ -1535,7 +1535,7 @@
         <v>95</v>
       </c>
       <c r="P4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -2108,7 +2108,7 @@
         <v>98</v>
       </c>
       <c r="P7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -3254,7 +3254,7 @@
         <v>102</v>
       </c>
       <c r="P13" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3532,7 +3532,7 @@
         <v>2</v>
       </c>
       <c r="AS14">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AT14">
         <v>1.22</v>
@@ -4209,7 +4209,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q18">
         <v>10</v>
@@ -4872,7 +4872,7 @@
         <v>1.14</v>
       </c>
       <c r="AT21">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU21">
         <v>0</v>
@@ -5355,7 +5355,7 @@
         <v>110</v>
       </c>
       <c r="P24" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5737,7 +5737,7 @@
         <v>112</v>
       </c>
       <c r="P26" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q26">
         <v>6</v>
@@ -5824,7 +5824,7 @@
         <v>1.67</v>
       </c>
       <c r="AS26">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AT26">
         <v>1.67</v>
@@ -5928,7 +5928,7 @@
         <v>113</v>
       </c>
       <c r="P27" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q27">
         <v>7</v>
@@ -6310,7 +6310,7 @@
         <v>100</v>
       </c>
       <c r="P29" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -6501,7 +6501,7 @@
         <v>115</v>
       </c>
       <c r="P30" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -6591,7 +6591,7 @@
         <v>1.75</v>
       </c>
       <c r="AT30">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AU30">
         <v>1.63</v>
@@ -6883,7 +6883,7 @@
         <v>116</v>
       </c>
       <c r="P32" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7543,7 +7543,7 @@
         <v>2</v>
       </c>
       <c r="AS35">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AT35">
         <v>2.14</v>
@@ -7928,7 +7928,7 @@
         <v>1.43</v>
       </c>
       <c r="AT37">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AU37">
         <v>1.43</v>
@@ -8692,7 +8692,7 @@
         <v>0.86</v>
       </c>
       <c r="AT41">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU41">
         <v>1.79</v>
@@ -9071,7 +9071,7 @@
         <v>0.33</v>
       </c>
       <c r="AS43">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AT43">
         <v>0.71</v>
@@ -10220,7 +10220,7 @@
         <v>2.5</v>
       </c>
       <c r="AT49">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU49">
         <v>1.12</v>
@@ -10408,7 +10408,7 @@
         <v>1.75</v>
       </c>
       <c r="AS50">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AT50">
         <v>1.86</v>
@@ -11939,7 +11939,7 @@
         <v>1.43</v>
       </c>
       <c r="AT58">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AU58">
         <v>1.65</v>
@@ -12127,7 +12127,7 @@
         <v>1.14</v>
       </c>
       <c r="AS59">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AT59">
         <v>1.33</v>
@@ -13710,6 +13710,197 @@
       </c>
       <c r="BK67">
         <v>19</v>
+      </c>
+    </row>
+    <row r="68" spans="1:63">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>5119639</v>
+      </c>
+      <c r="C68" t="s">
+        <v>63</v>
+      </c>
+      <c r="D68" t="s">
+        <v>64</v>
+      </c>
+      <c r="E68" s="2">
+        <v>44999.89583333334</v>
+      </c>
+      <c r="F68">
+        <v>7</v>
+      </c>
+      <c r="G68" t="s">
+        <v>73</v>
+      </c>
+      <c r="H68" t="s">
+        <v>82</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>1</v>
+      </c>
+      <c r="M68">
+        <v>1</v>
+      </c>
+      <c r="N68">
+        <v>2</v>
+      </c>
+      <c r="O68" t="s">
+        <v>148</v>
+      </c>
+      <c r="P68" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q68">
+        <v>3</v>
+      </c>
+      <c r="R68">
+        <v>16</v>
+      </c>
+      <c r="S68">
+        <v>19</v>
+      </c>
+      <c r="T68">
+        <v>0</v>
+      </c>
+      <c r="U68">
+        <v>0</v>
+      </c>
+      <c r="V68">
+        <v>0</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>0</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>0</v>
+      </c>
+      <c r="AB68">
+        <v>0</v>
+      </c>
+      <c r="AC68">
+        <v>7.5</v>
+      </c>
+      <c r="AD68">
+        <v>4.2</v>
+      </c>
+      <c r="AE68">
+        <v>1.36</v>
+      </c>
+      <c r="AF68">
+        <v>0</v>
+      </c>
+      <c r="AG68">
+        <v>0</v>
+      </c>
+      <c r="AH68">
+        <v>0</v>
+      </c>
+      <c r="AI68">
+        <v>0</v>
+      </c>
+      <c r="AJ68">
+        <v>1.8</v>
+      </c>
+      <c r="AK68">
+        <v>1.98</v>
+      </c>
+      <c r="AL68">
+        <v>0</v>
+      </c>
+      <c r="AM68">
+        <v>0</v>
+      </c>
+      <c r="AN68">
+        <v>0</v>
+      </c>
+      <c r="AO68">
+        <v>0</v>
+      </c>
+      <c r="AP68">
+        <v>0</v>
+      </c>
+      <c r="AQ68">
+        <v>0.33</v>
+      </c>
+      <c r="AR68">
+        <v>0.83</v>
+      </c>
+      <c r="AS68">
+        <v>0.43</v>
+      </c>
+      <c r="AT68">
+        <v>0.86</v>
+      </c>
+      <c r="AU68">
+        <v>1.17</v>
+      </c>
+      <c r="AV68">
+        <v>1.41</v>
+      </c>
+      <c r="AW68">
+        <v>2.58</v>
+      </c>
+      <c r="AX68">
+        <v>0</v>
+      </c>
+      <c r="AY68">
+        <v>0</v>
+      </c>
+      <c r="AZ68">
+        <v>0</v>
+      </c>
+      <c r="BA68">
+        <v>0</v>
+      </c>
+      <c r="BB68">
+        <v>0</v>
+      </c>
+      <c r="BC68">
+        <v>0</v>
+      </c>
+      <c r="BD68">
+        <v>0</v>
+      </c>
+      <c r="BE68">
+        <v>0</v>
+      </c>
+      <c r="BF68">
+        <v>-1</v>
+      </c>
+      <c r="BG68">
+        <v>-1</v>
+      </c>
+      <c r="BH68">
+        <v>-1</v>
+      </c>
+      <c r="BI68">
+        <v>-1</v>
+      </c>
+      <c r="BJ68">
+        <v>-1</v>
+      </c>
+      <c r="BK68">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Brazil Copa do Nordeste_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Brazil Copa do Nordeste_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK68"/>
+  <dimension ref="A1:BK69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT8" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>1</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT13" t="n">
         <v>0.5</v>
@@ -3542,7 +3542,7 @@
         <v>1.33</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AU15" t="n">
         <v>2.87</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AT17" t="n">
         <v>1.57</v>
@@ -6384,7 +6384,7 @@
         <v>0.71</v>
       </c>
       <c r="AT29" t="n">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AU29" t="n">
         <v>0</v>
@@ -6584,7 +6584,7 @@
         <v>1</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT30" t="n">
         <v>0.43</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT33" t="n">
         <v>0.86</v>
@@ -7399,7 +7399,7 @@
         <v>1.86</v>
       </c>
       <c r="AT34" t="n">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AU34" t="n">
         <v>2.17</v>
@@ -9835,7 +9835,7 @@
         <v>1.86</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AU46" t="n">
         <v>1.27</v>
@@ -10441,7 +10441,7 @@
         <v>1</v>
       </c>
       <c r="AS49" t="n">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AT49" t="n">
         <v>0.86</v>
@@ -11662,7 +11662,7 @@
         <v>1.43</v>
       </c>
       <c r="AT55" t="n">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AU55" t="n">
         <v>1.48</v>
@@ -12674,7 +12674,7 @@
         <v>1.4</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT60" t="n">
         <v>1.14</v>
@@ -13489,7 +13489,7 @@
         <v>1.67</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AU64" t="n">
         <v>1.43</v>
@@ -13892,7 +13892,7 @@
         <v>1.67</v>
       </c>
       <c r="AS66" t="n">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AT66" t="n">
         <v>1.43</v>
@@ -14353,6 +14353,209 @@
       </c>
       <c r="BK68" t="n">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="n">
+        <v>5137139</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Brazil Copa do Nordeste</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>45003.72916666666</v>
+      </c>
+      <c r="F69" t="n">
+        <v>4</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Sport Recife</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Santa Cruz</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q69" t="n">
+        <v>10</v>
+      </c>
+      <c r="R69" t="n">
+        <v>1</v>
+      </c>
+      <c r="S69" t="n">
+        <v>11</v>
+      </c>
+      <c r="T69" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U69" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V69" t="n">
+        <v>7</v>
+      </c>
+      <c r="W69" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X69" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AE69" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF69" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG69" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH69" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI69" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AJ69" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK69" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL69" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM69" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN69" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AO69" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AP69" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AQ69" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR69" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS69" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AT69" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AU69" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AV69" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AW69" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AX69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF69" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG69" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH69" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI69" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ69" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK69" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Brazil Copa do Nordeste_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Brazil Copa do Nordeste_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="190">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -253,12 +253,12 @@
     <t>Sampaio Corrêa</t>
   </si>
   <si>
+    <t>Náutico</t>
+  </si>
+  <si>
     <t>Ceará</t>
   </si>
   <si>
-    <t>Náutico</t>
-  </si>
-  <si>
     <t>ABC</t>
   </si>
   <si>
@@ -343,24 +343,24 @@
     <t>['33']</t>
   </si>
   <si>
+    <t>['34', '76']</t>
+  </si>
+  <si>
     <t>['36', '70']</t>
   </si>
   <si>
-    <t>['34', '76']</t>
-  </si>
-  <si>
     <t>['3', '70']</t>
   </si>
   <si>
     <t>['60', '85']</t>
   </si>
   <si>
+    <t>['9', '22', '32', '58']</t>
+  </si>
+  <si>
     <t>['5', '13', '70']</t>
   </si>
   <si>
-    <t>['9', '22', '32', '58']</t>
-  </si>
-  <si>
     <t>['40', '55']</t>
   </si>
   <si>
@@ -385,12 +385,12 @@
     <t>['73']</t>
   </si>
   <si>
+    <t>['16']</t>
+  </si>
+  <si>
     <t>['45+2', '66', '83']</t>
   </si>
   <si>
-    <t>['16']</t>
-  </si>
-  <si>
     <t>['65']</t>
   </si>
   <si>
@@ -400,10 +400,13 @@
     <t>['87']</t>
   </si>
   <si>
+    <t>['32']</t>
+  </si>
+  <si>
     <t>['20', '30']</t>
   </si>
   <si>
-    <t>['32']</t>
+    <t>['50', '78']</t>
   </si>
   <si>
     <t>['6', '77']</t>
@@ -412,9 +415,6 @@
     <t>['18', '26', '36', '55', '59', '90+3']</t>
   </si>
   <si>
-    <t>['50', '78']</t>
-  </si>
-  <si>
     <t>['3', '19']</t>
   </si>
   <si>
@@ -436,12 +436,12 @@
     <t>['45+4']</t>
   </si>
   <si>
+    <t>['12', '25']</t>
+  </si>
+  <si>
     <t>['44', '49', '75']</t>
   </si>
   <si>
-    <t>['12', '25']</t>
-  </si>
-  <si>
     <t>['90+6']</t>
   </si>
   <si>
@@ -454,15 +454,36 @@
     <t>['90+1']</t>
   </si>
   <si>
+    <t>['23', '86']</t>
+  </si>
+  <si>
     <t>['33', '89']</t>
   </si>
   <si>
-    <t>['23', '86']</t>
-  </si>
-  <si>
     <t>['49']</t>
   </si>
   <si>
+    <t>['45', '87', '90+5']</t>
+  </si>
+  <si>
+    <t>['71', '77']</t>
+  </si>
+  <si>
+    <t>['3', '29', '90+1']</t>
+  </si>
+  <si>
+    <t>['10', '76']</t>
+  </si>
+  <si>
+    <t>['13']</t>
+  </si>
+  <si>
+    <t>['26', '43', '65']</t>
+  </si>
+  <si>
+    <t>['47', '49', '69']</t>
+  </si>
+  <si>
     <t>['17']</t>
   </si>
   <si>
@@ -493,12 +514,12 @@
     <t>['40']</t>
   </si>
   <si>
+    <t>['3', '25', '37']</t>
+  </si>
+  <si>
     <t>['18', '80']</t>
   </si>
   <si>
-    <t>['3', '25', '37']</t>
-  </si>
-  <si>
     <t>['60']</t>
   </si>
   <si>
@@ -511,18 +532,18 @@
     <t>['58']</t>
   </si>
   <si>
+    <t>['67']</t>
+  </si>
+  <si>
     <t>['48']</t>
   </si>
   <si>
-    <t>['67']</t>
+    <t>['8', '21', '38', '73', '87']</t>
   </si>
   <si>
     <t>['52', '80']</t>
   </si>
   <si>
-    <t>['8', '21', '38', '73', '87']</t>
-  </si>
-  <si>
     <t>['12', '60', '76']</t>
   </si>
   <si>
@@ -548,6 +569,21 @@
   </si>
   <si>
     <t>['71']</t>
+  </si>
+  <si>
+    <t>['51']</t>
+  </si>
+  <si>
+    <t>['33', '67']</t>
+  </si>
+  <si>
+    <t>['45+5', '47', '72']</t>
+  </si>
+  <si>
+    <t>['1', '62', '65', '87']</t>
+  </si>
+  <si>
+    <t>['78', '82']</t>
   </si>
 </sst>
 </file>
@@ -909,7 +945,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK69"/>
+  <dimension ref="A1:BK77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1153,7 +1189,7 @@
         <v>93</v>
       </c>
       <c r="P2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="Q2">
         <v>18</v>
@@ -1240,7 +1276,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT2">
         <v>0</v>
@@ -1344,7 +1380,7 @@
         <v>94</v>
       </c>
       <c r="P3" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="Q3">
         <v>-1</v>
@@ -1535,7 +1571,7 @@
         <v>95</v>
       </c>
       <c r="P4" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -1622,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT4">
         <v>0</v>
@@ -2108,7 +2144,7 @@
         <v>98</v>
       </c>
       <c r="P7" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2195,7 +2231,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT7">
         <v>1</v>
@@ -2386,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT8">
         <v>0</v>
@@ -2768,7 +2804,7 @@
         <v>3</v>
       </c>
       <c r="AS10">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT10">
         <v>1.5</v>
@@ -2830,7 +2866,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>5119649</v>
+        <v>5119648</v>
       </c>
       <c r="C11" t="s">
         <v>63</v>
@@ -2845,10 +2881,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -2875,19 +2911,19 @@
         <v>100</v>
       </c>
       <c r="Q11">
+        <v>5</v>
+      </c>
+      <c r="R11">
         <v>4</v>
       </c>
-      <c r="R11">
-        <v>3</v>
-      </c>
       <c r="S11">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="T11">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="U11">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V11">
         <v>4</v>
@@ -2911,13 +2947,13 @@
         <v>0</v>
       </c>
       <c r="AC11">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AD11">
         <v>3.1</v>
       </c>
       <c r="AE11">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -2932,16 +2968,16 @@
         <v>0</v>
       </c>
       <c r="AJ11">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="AK11">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AL11">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="AM11">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="AN11">
         <v>0</v>
@@ -2956,22 +2992,22 @@
         <v>3</v>
       </c>
       <c r="AR11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AS11">
-        <v>1.22</v>
+        <v>2</v>
       </c>
       <c r="AT11">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AU11">
-        <v>1.25</v>
+        <v>0.96</v>
       </c>
       <c r="AV11">
         <v>0</v>
       </c>
       <c r="AW11">
-        <v>1.25</v>
+        <v>0.96</v>
       </c>
       <c r="AX11">
         <v>0</v>
@@ -2989,7 +3025,7 @@
         <v>0</v>
       </c>
       <c r="BC11">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="BD11">
         <v>0</v>
@@ -2998,22 +3034,22 @@
         <v>0</v>
       </c>
       <c r="BF11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG11">
+        <v>3</v>
+      </c>
+      <c r="BH11">
+        <v>4</v>
+      </c>
+      <c r="BI11">
         <v>5</v>
       </c>
-      <c r="BH11">
+      <c r="BJ11">
+        <v>7</v>
+      </c>
+      <c r="BK11">
         <v>8</v>
-      </c>
-      <c r="BI11">
-        <v>6</v>
-      </c>
-      <c r="BJ11">
-        <v>10</v>
-      </c>
-      <c r="BK11">
-        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:63">
@@ -3021,7 +3057,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>5119648</v>
+        <v>5119649</v>
       </c>
       <c r="C12" t="s">
         <v>63</v>
@@ -3036,10 +3072,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -3066,19 +3102,19 @@
         <v>100</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S12">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="T12">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="U12">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V12">
         <v>4</v>
@@ -3102,13 +3138,13 @@
         <v>0</v>
       </c>
       <c r="AC12">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="AD12">
         <v>3.1</v>
       </c>
       <c r="AE12">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -3123,16 +3159,16 @@
         <v>0</v>
       </c>
       <c r="AJ12">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="AK12">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AL12">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="AM12">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="AN12">
         <v>0</v>
@@ -3147,22 +3183,22 @@
         <v>3</v>
       </c>
       <c r="AR12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AS12">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="AT12">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AU12">
-        <v>0.96</v>
+        <v>1.25</v>
       </c>
       <c r="AV12">
         <v>0</v>
       </c>
       <c r="AW12">
-        <v>0.96</v>
+        <v>1.25</v>
       </c>
       <c r="AX12">
         <v>0</v>
@@ -3180,7 +3216,7 @@
         <v>0</v>
       </c>
       <c r="BC12">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="BD12">
         <v>0</v>
@@ -3189,22 +3225,22 @@
         <v>0</v>
       </c>
       <c r="BF12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BH12">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BI12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BJ12">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BK12">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:63">
@@ -3254,7 +3290,7 @@
         <v>102</v>
       </c>
       <c r="P13" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3341,7 +3377,7 @@
         <v>1</v>
       </c>
       <c r="AS13">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT13">
         <v>0.5</v>
@@ -3532,10 +3568,10 @@
         <v>2</v>
       </c>
       <c r="AS14">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AT14">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -3723,10 +3759,10 @@
         <v>3</v>
       </c>
       <c r="AS15">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT15">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU15">
         <v>2.87</v>
@@ -3914,10 +3950,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT16">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4105,10 +4141,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT17">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4185,7 +4221,7 @@
         <v>76</v>
       </c>
       <c r="H18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -4209,7 +4245,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="Q18">
         <v>10</v>
@@ -4296,10 +4332,10 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT18">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4487,10 +4523,10 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT19">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -4567,7 +4603,7 @@
         <v>70</v>
       </c>
       <c r="H20" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I20">
         <v>2</v>
@@ -4678,10 +4714,10 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT20">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AU20">
         <v>1.86</v>
@@ -4869,10 +4905,10 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT21">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU21">
         <v>0</v>
@@ -5060,10 +5096,10 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT22">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU22">
         <v>2.38</v>
@@ -5122,7 +5158,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>5119620</v>
+        <v>5119619</v>
       </c>
       <c r="C23" t="s">
         <v>63</v>
@@ -5140,7 +5176,7 @@
         <v>79</v>
       </c>
       <c r="H23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -5155,106 +5191,106 @@
         <v>2</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O23" t="s">
         <v>109</v>
       </c>
       <c r="P23" t="s">
-        <v>100</v>
+        <v>161</v>
       </c>
       <c r="Q23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R23">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="S23">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="T23">
-        <v>2.38</v>
+        <v>3.25</v>
       </c>
       <c r="U23">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="V23">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="W23">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="X23">
-        <v>2.66</v>
+        <v>2.48</v>
       </c>
       <c r="Y23">
-        <v>3.09</v>
+        <v>3.1</v>
       </c>
       <c r="Z23">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="AA23">
-        <v>8.300000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="AB23">
         <v>1.04</v>
       </c>
       <c r="AC23">
-        <v>1.62</v>
+        <v>2.31</v>
       </c>
       <c r="AD23">
-        <v>3.68</v>
+        <v>3.1</v>
       </c>
       <c r="AE23">
-        <v>5.25</v>
+        <v>3.09</v>
       </c>
       <c r="AF23">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AG23">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="AH23">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AI23">
-        <v>2.75</v>
+        <v>2.35</v>
       </c>
       <c r="AJ23">
-        <v>2.08</v>
+        <v>2.19</v>
       </c>
       <c r="AK23">
-        <v>1.73</v>
+        <v>1.53</v>
       </c>
       <c r="AL23">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="AM23">
+        <v>1.77</v>
+      </c>
+      <c r="AN23">
+        <v>1.22</v>
+      </c>
+      <c r="AO23">
+        <v>1.32</v>
+      </c>
+      <c r="AP23">
         <v>1.76</v>
       </c>
-      <c r="AN23">
-        <v>1.16</v>
-      </c>
-      <c r="AO23">
-        <v>1.29</v>
-      </c>
-      <c r="AP23">
-        <v>1.96</v>
-      </c>
       <c r="AQ23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AR23">
         <v>3</v>
       </c>
       <c r="AS23">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT23">
-        <v>1.14</v>
+        <v>1.63</v>
       </c>
       <c r="AU23">
         <v>0</v>
@@ -5281,31 +5317,31 @@
         <v>0</v>
       </c>
       <c r="BC23">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="BD23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BE23">
         <v>0</v>
       </c>
       <c r="BF23">
+        <v>4</v>
+      </c>
+      <c r="BG23">
+        <v>7</v>
+      </c>
+      <c r="BH23">
+        <v>10</v>
+      </c>
+      <c r="BI23">
         <v>11</v>
       </c>
-      <c r="BG23">
-        <v>3</v>
-      </c>
-      <c r="BH23">
-        <v>6</v>
-      </c>
-      <c r="BI23">
-        <v>8</v>
-      </c>
       <c r="BJ23">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="BK23">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:63">
@@ -5313,7 +5349,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>5119619</v>
+        <v>5119620</v>
       </c>
       <c r="C24" t="s">
         <v>63</v>
@@ -5331,7 +5367,7 @@
         <v>80</v>
       </c>
       <c r="H24" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -5346,106 +5382,106 @@
         <v>2</v>
       </c>
       <c r="M24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O24" t="s">
         <v>110</v>
       </c>
       <c r="P24" t="s">
-        <v>154</v>
+        <v>100</v>
       </c>
       <c r="Q24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R24">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="S24">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="T24">
-        <v>3.25</v>
+        <v>2.38</v>
       </c>
       <c r="U24">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="V24">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="W24">
-        <v>1.52</v>
+        <v>1.44</v>
       </c>
       <c r="X24">
-        <v>2.48</v>
+        <v>2.66</v>
       </c>
       <c r="Y24">
-        <v>3.1</v>
+        <v>3.09</v>
       </c>
       <c r="Z24">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="AA24">
-        <v>8.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AB24">
         <v>1.04</v>
       </c>
       <c r="AC24">
-        <v>2.31</v>
+        <v>1.62</v>
       </c>
       <c r="AD24">
-        <v>3.1</v>
+        <v>3.68</v>
       </c>
       <c r="AE24">
-        <v>3.09</v>
+        <v>5.25</v>
       </c>
       <c r="AF24">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AG24">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AH24">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AI24">
-        <v>2.35</v>
+        <v>2.75</v>
       </c>
       <c r="AJ24">
-        <v>2.19</v>
+        <v>2.08</v>
       </c>
       <c r="AK24">
-        <v>1.53</v>
+        <v>1.73</v>
       </c>
       <c r="AL24">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="AM24">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="AN24">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AO24">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="AP24">
-        <v>1.76</v>
+        <v>1.96</v>
       </c>
       <c r="AQ24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AR24">
         <v>3</v>
       </c>
       <c r="AS24">
-        <v>1.43</v>
+        <v>2</v>
       </c>
       <c r="AT24">
-        <v>1.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU24">
         <v>0</v>
@@ -5472,31 +5508,31 @@
         <v>0</v>
       </c>
       <c r="BC24">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="BD24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE24">
         <v>0</v>
       </c>
       <c r="BF24">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="BG24">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BH24">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="BI24">
+        <v>8</v>
+      </c>
+      <c r="BJ24">
+        <v>17</v>
+      </c>
+      <c r="BK24">
         <v>11</v>
-      </c>
-      <c r="BJ24">
-        <v>14</v>
-      </c>
-      <c r="BK24">
-        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:63">
@@ -5633,10 +5669,10 @@
         <v>3</v>
       </c>
       <c r="AS25">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT25">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AU25">
         <v>0</v>
@@ -5737,7 +5773,7 @@
         <v>112</v>
       </c>
       <c r="P26" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="Q26">
         <v>6</v>
@@ -5824,10 +5860,10 @@
         <v>1.67</v>
       </c>
       <c r="AS26">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AT26">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU26">
         <v>0</v>
@@ -5886,7 +5922,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>5137157</v>
+        <v>5119621</v>
       </c>
       <c r="C27" t="s">
         <v>63</v>
@@ -5901,25 +5937,25 @@
         <v>2</v>
       </c>
       <c r="G27" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="H27" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="I27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27">
         <v>3</v>
       </c>
       <c r="L27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N27">
         <v>4</v>
@@ -5928,148 +5964,148 @@
         <v>113</v>
       </c>
       <c r="P27" t="s">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="Q27">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R27">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S27">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="T27">
-        <v>3.25</v>
+        <v>2.88</v>
       </c>
       <c r="U27">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V27">
         <v>3.75</v>
       </c>
       <c r="W27">
-        <v>1.6</v>
+        <v>1.49</v>
       </c>
       <c r="X27">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="Y27">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="Z27">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="AA27">
-        <v>11.5</v>
+        <v>9</v>
       </c>
       <c r="AB27">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="AC27">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="AD27">
         <v>2.9</v>
       </c>
       <c r="AE27">
-        <v>2.85</v>
+        <v>3.1</v>
       </c>
       <c r="AF27">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="AG27">
+        <v>7.25</v>
+      </c>
+      <c r="AH27">
+        <v>1.4</v>
+      </c>
+      <c r="AI27">
+        <v>2.7</v>
+      </c>
+      <c r="AJ27">
+        <v>2.27</v>
+      </c>
+      <c r="AK27">
+        <v>1.56</v>
+      </c>
+      <c r="AL27">
+        <v>1.93</v>
+      </c>
+      <c r="AM27">
+        <v>1.75</v>
+      </c>
+      <c r="AN27">
+        <v>1.28</v>
+      </c>
+      <c r="AO27">
+        <v>1.3</v>
+      </c>
+      <c r="AP27">
+        <v>1.5</v>
+      </c>
+      <c r="AQ27">
+        <v>0</v>
+      </c>
+      <c r="AR27">
+        <v>0</v>
+      </c>
+      <c r="AS27">
+        <v>1.38</v>
+      </c>
+      <c r="AT27">
+        <v>0.75</v>
+      </c>
+      <c r="AU27">
+        <v>0</v>
+      </c>
+      <c r="AV27">
+        <v>0</v>
+      </c>
+      <c r="AW27">
+        <v>0</v>
+      </c>
+      <c r="AX27">
+        <v>0</v>
+      </c>
+      <c r="AY27">
+        <v>0</v>
+      </c>
+      <c r="AZ27">
+        <v>0</v>
+      </c>
+      <c r="BA27">
+        <v>0</v>
+      </c>
+      <c r="BB27">
+        <v>0</v>
+      </c>
+      <c r="BC27">
+        <v>2.25</v>
+      </c>
+      <c r="BD27">
+        <v>0</v>
+      </c>
+      <c r="BE27">
+        <v>0</v>
+      </c>
+      <c r="BF27">
         <v>6</v>
       </c>
-      <c r="AH27">
-        <v>1.5</v>
-      </c>
-      <c r="AI27">
-        <v>2.43</v>
-      </c>
-      <c r="AJ27">
-        <v>2.69</v>
-      </c>
-      <c r="AK27">
-        <v>1.35</v>
-      </c>
-      <c r="AL27">
-        <v>2.2</v>
-      </c>
-      <c r="AM27">
-        <v>1.6</v>
-      </c>
-      <c r="AN27">
-        <v>1.37</v>
-      </c>
-      <c r="AO27">
-        <v>1.37</v>
-      </c>
-      <c r="AP27">
-        <v>1.51</v>
-      </c>
-      <c r="AQ27">
-        <v>1.67</v>
-      </c>
-      <c r="AR27">
-        <v>2.33</v>
-      </c>
-      <c r="AS27">
-        <v>1.22</v>
-      </c>
-      <c r="AT27">
-        <v>1.33</v>
-      </c>
-      <c r="AU27">
-        <v>1.14</v>
-      </c>
-      <c r="AV27">
-        <v>0</v>
-      </c>
-      <c r="AW27">
-        <v>1.14</v>
-      </c>
-      <c r="AX27">
-        <v>0</v>
-      </c>
-      <c r="AY27">
-        <v>0</v>
-      </c>
-      <c r="AZ27">
-        <v>0</v>
-      </c>
-      <c r="BA27">
-        <v>0</v>
-      </c>
-      <c r="BB27">
-        <v>0</v>
-      </c>
-      <c r="BC27">
-        <v>2.2</v>
-      </c>
-      <c r="BD27">
-        <v>0</v>
-      </c>
-      <c r="BE27">
-        <v>0</v>
-      </c>
-      <c r="BF27">
-        <v>7</v>
-      </c>
       <c r="BG27">
+        <v>3</v>
+      </c>
+      <c r="BH27">
         <v>4</v>
       </c>
-      <c r="BH27">
-        <v>7</v>
-      </c>
       <c r="BI27">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BJ27">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="BK27">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:63">
@@ -6077,7 +6113,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>5119621</v>
+        <v>5137157</v>
       </c>
       <c r="C28" t="s">
         <v>63</v>
@@ -6092,25 +6128,25 @@
         <v>2</v>
       </c>
       <c r="G28" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="H28" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="I28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28">
         <v>3</v>
       </c>
       <c r="L28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28">
         <v>4</v>
@@ -6119,106 +6155,106 @@
         <v>114</v>
       </c>
       <c r="P28" t="s">
-        <v>100</v>
+        <v>157</v>
       </c>
       <c r="Q28">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R28">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S28">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="T28">
-        <v>2.88</v>
+        <v>3.25</v>
       </c>
       <c r="U28">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V28">
         <v>3.75</v>
       </c>
       <c r="W28">
-        <v>1.49</v>
+        <v>1.6</v>
       </c>
       <c r="X28">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="Y28">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="Z28">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="AA28">
-        <v>9</v>
+        <v>11.5</v>
       </c>
       <c r="AB28">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="AC28">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="AD28">
         <v>2.9</v>
       </c>
       <c r="AE28">
-        <v>3.1</v>
+        <v>2.85</v>
       </c>
       <c r="AF28">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AG28">
-        <v>7.25</v>
+        <v>6</v>
       </c>
       <c r="AH28">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AI28">
-        <v>2.7</v>
+        <v>2.43</v>
       </c>
       <c r="AJ28">
-        <v>2.27</v>
+        <v>2.69</v>
       </c>
       <c r="AK28">
-        <v>1.56</v>
+        <v>1.35</v>
       </c>
       <c r="AL28">
-        <v>1.93</v>
+        <v>2.2</v>
       </c>
       <c r="AM28">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AN28">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AO28">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="AP28">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="AQ28">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AR28">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="AS28">
-        <v>1.43</v>
+        <v>1.1</v>
       </c>
       <c r="AT28">
-        <v>0.86</v>
+        <v>1.2</v>
       </c>
       <c r="AU28">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AV28">
         <v>0</v>
       </c>
       <c r="AW28">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AX28">
         <v>0</v>
@@ -6236,7 +6272,7 @@
         <v>0</v>
       </c>
       <c r="BC28">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="BD28">
         <v>0</v>
@@ -6245,22 +6281,22 @@
         <v>0</v>
       </c>
       <c r="BF28">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BG28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BH28">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BI28">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BJ28">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BK28">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:63">
@@ -6310,7 +6346,7 @@
         <v>100</v>
       </c>
       <c r="P29" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -6397,10 +6433,10 @@
         <v>3</v>
       </c>
       <c r="AS29">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AT29">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AU29">
         <v>0</v>
@@ -6501,7 +6537,7 @@
         <v>115</v>
       </c>
       <c r="P30" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -6588,10 +6624,10 @@
         <v>1</v>
       </c>
       <c r="AS30">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT30">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU30">
         <v>1.63</v>
@@ -6779,10 +6815,10 @@
         <v>2</v>
       </c>
       <c r="AS31">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AT31">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU31">
         <v>1</v>
@@ -6970,10 +7006,10 @@
         <v>1.5</v>
       </c>
       <c r="AS32">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT32">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU32">
         <v>1.31</v>
@@ -7074,7 +7110,7 @@
         <v>117</v>
       </c>
       <c r="P33" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7161,10 +7197,10 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT33">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU33">
         <v>1.88</v>
@@ -7223,7 +7259,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>5119623</v>
+        <v>5119624</v>
       </c>
       <c r="C34" t="s">
         <v>63</v>
@@ -7238,79 +7274,79 @@
         <v>3</v>
       </c>
       <c r="G34" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K34">
         <v>3</v>
       </c>
       <c r="L34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N34">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O34" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="P34" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="Q34">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="R34">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="S34">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="T34">
         <v>2.88</v>
       </c>
       <c r="U34">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V34">
         <v>3.75</v>
       </c>
       <c r="W34">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="X34">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="Y34">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="Z34">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="AA34">
-        <v>7.25</v>
+        <v>7.5</v>
       </c>
       <c r="AB34">
         <v>1.06</v>
       </c>
       <c r="AC34">
-        <v>1.92</v>
+        <v>2.25</v>
       </c>
       <c r="AD34">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AE34">
-        <v>3.85</v>
+        <v>3.1</v>
       </c>
       <c r="AF34">
         <v>1.07</v>
@@ -7319,52 +7355,52 @@
         <v>9.1</v>
       </c>
       <c r="AH34">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="AI34">
-        <v>2.94</v>
+        <v>3.05</v>
       </c>
       <c r="AJ34">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="AK34">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="AL34">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="AM34">
         <v>1.85</v>
       </c>
       <c r="AN34">
+        <v>1.28</v>
+      </c>
+      <c r="AO34">
         <v>1.3</v>
       </c>
-      <c r="AO34">
-        <v>1.28</v>
-      </c>
       <c r="AP34">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="AQ34">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="AR34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS34">
-        <v>1.86</v>
+        <v>1.13</v>
       </c>
       <c r="AT34">
-        <v>2.29</v>
+        <v>2.25</v>
       </c>
       <c r="AU34">
-        <v>2.17</v>
+        <v>2.52</v>
       </c>
       <c r="AV34">
-        <v>1.5</v>
+        <v>1.24</v>
       </c>
       <c r="AW34">
-        <v>3.67</v>
+        <v>3.76</v>
       </c>
       <c r="AX34">
         <v>0</v>
@@ -7379,34 +7415,34 @@
         <v>0</v>
       </c>
       <c r="BB34">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="BC34">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="BD34">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="BE34">
-        <v>2.43</v>
+        <v>2.65</v>
       </c>
       <c r="BF34">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BG34">
         <v>6</v>
       </c>
       <c r="BH34">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BI34">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BJ34">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="BK34">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:63">
@@ -7414,7 +7450,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>5119624</v>
+        <v>5119623</v>
       </c>
       <c r="C35" t="s">
         <v>63</v>
@@ -7429,79 +7465,79 @@
         <v>3</v>
       </c>
       <c r="G35" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H35" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K35">
         <v>3</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N35">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O35" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="P35" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="Q35">
+        <v>2</v>
+      </c>
+      <c r="R35">
+        <v>7</v>
+      </c>
+      <c r="S35">
         <v>9</v>
-      </c>
-      <c r="R35">
-        <v>3</v>
-      </c>
-      <c r="S35">
-        <v>12</v>
       </c>
       <c r="T35">
         <v>2.88</v>
       </c>
       <c r="U35">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V35">
         <v>3.75</v>
       </c>
       <c r="W35">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="X35">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="Y35">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="Z35">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="AA35">
-        <v>7.5</v>
+        <v>7.25</v>
       </c>
       <c r="AB35">
         <v>1.06</v>
       </c>
       <c r="AC35">
-        <v>2.25</v>
+        <v>1.92</v>
       </c>
       <c r="AD35">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AE35">
-        <v>3.1</v>
+        <v>3.85</v>
       </c>
       <c r="AF35">
         <v>1.07</v>
@@ -7510,52 +7546,52 @@
         <v>9.1</v>
       </c>
       <c r="AH35">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="AI35">
-        <v>3.05</v>
+        <v>2.94</v>
       </c>
       <c r="AJ35">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="AK35">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="AL35">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="AM35">
         <v>1.85</v>
       </c>
       <c r="AN35">
+        <v>1.3</v>
+      </c>
+      <c r="AO35">
         <v>1.28</v>
       </c>
-      <c r="AO35">
-        <v>1.3</v>
-      </c>
       <c r="AP35">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="AQ35">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="AR35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS35">
-        <v>0.86</v>
+        <v>2</v>
       </c>
       <c r="AT35">
-        <v>2.14</v>
+        <v>2.38</v>
       </c>
       <c r="AU35">
-        <v>2.52</v>
+        <v>2.17</v>
       </c>
       <c r="AV35">
-        <v>1.24</v>
+        <v>1.5</v>
       </c>
       <c r="AW35">
-        <v>3.76</v>
+        <v>3.67</v>
       </c>
       <c r="AX35">
         <v>0</v>
@@ -7570,34 +7606,34 @@
         <v>0</v>
       </c>
       <c r="BB35">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="BC35">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="BD35">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="BE35">
-        <v>2.65</v>
+        <v>2.43</v>
       </c>
       <c r="BF35">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BG35">
         <v>6</v>
       </c>
       <c r="BH35">
+        <v>5</v>
+      </c>
+      <c r="BI35">
         <v>10</v>
       </c>
-      <c r="BI35">
-        <v>7</v>
-      </c>
       <c r="BJ35">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="BK35">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:63">
@@ -7647,7 +7683,7 @@
         <v>119</v>
       </c>
       <c r="P36" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="Q36">
         <v>5</v>
@@ -7734,10 +7770,10 @@
         <v>1.75</v>
       </c>
       <c r="AS36">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT36">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU36">
         <v>1.57</v>
@@ -7811,7 +7847,7 @@
         <v>3</v>
       </c>
       <c r="G37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s">
         <v>73</v>
@@ -7925,10 +7961,10 @@
         <v>1</v>
       </c>
       <c r="AS37">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT37">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU37">
         <v>1.43</v>
@@ -8116,10 +8152,10 @@
         <v>1.5</v>
       </c>
       <c r="AS38">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT38">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU38">
         <v>1.64</v>
@@ -8196,7 +8232,7 @@
         <v>77</v>
       </c>
       <c r="H39" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -8307,10 +8343,10 @@
         <v>2</v>
       </c>
       <c r="AS39">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT39">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AU39">
         <v>1.43</v>
@@ -8369,7 +8405,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>5137140</v>
+        <v>5119630</v>
       </c>
       <c r="C40" t="s">
         <v>63</v>
@@ -8384,25 +8420,25 @@
         <v>4</v>
       </c>
       <c r="G40" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H40" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="I40">
         <v>1</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N40">
         <v>3</v>
@@ -8411,106 +8447,106 @@
         <v>123</v>
       </c>
       <c r="P40" t="s">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="Q40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S40">
         <v>5</v>
       </c>
       <c r="T40">
-        <v>1.91</v>
+        <v>6</v>
       </c>
       <c r="U40">
         <v>2.2</v>
       </c>
       <c r="V40">
-        <v>8.5</v>
+        <v>2.05</v>
       </c>
       <c r="W40">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="X40">
-        <v>2.54</v>
+        <v>2.8</v>
       </c>
       <c r="Y40">
-        <v>3.14</v>
+        <v>2.89</v>
       </c>
       <c r="Z40">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="AA40">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="AB40">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AC40">
-        <v>1.64</v>
+        <v>7</v>
       </c>
       <c r="AD40">
+        <v>3.88</v>
+      </c>
+      <c r="AE40">
+        <v>1.47</v>
+      </c>
+      <c r="AF40">
+        <v>1.04</v>
+      </c>
+      <c r="AG40">
+        <v>10.75</v>
+      </c>
+      <c r="AH40">
+        <v>1.28</v>
+      </c>
+      <c r="AI40">
         <v>3.3</v>
       </c>
-      <c r="AE40">
-        <v>5.6</v>
-      </c>
-      <c r="AF40">
-        <v>1.06</v>
-      </c>
-      <c r="AG40">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="AH40">
-        <v>1.27</v>
-      </c>
-      <c r="AI40">
-        <v>2.9</v>
-      </c>
       <c r="AJ40">
-        <v>2.01</v>
+        <v>1.94</v>
       </c>
       <c r="AK40">
+        <v>1.86</v>
+      </c>
+      <c r="AL40">
+        <v>2.1</v>
+      </c>
+      <c r="AM40">
+        <v>1.66</v>
+      </c>
+      <c r="AN40">
+        <v>2.4</v>
+      </c>
+      <c r="AO40">
+        <v>1.23</v>
+      </c>
+      <c r="AP40">
+        <v>1.1</v>
+      </c>
+      <c r="AQ40">
+        <v>0</v>
+      </c>
+      <c r="AR40">
+        <v>0.33</v>
+      </c>
+      <c r="AS40">
+        <v>0.75</v>
+      </c>
+      <c r="AT40">
+        <v>1.13</v>
+      </c>
+      <c r="AU40">
         <v>1.79</v>
       </c>
-      <c r="AL40">
-        <v>2.45</v>
-      </c>
-      <c r="AM40">
-        <v>1.5</v>
-      </c>
-      <c r="AN40">
-        <v>1.07</v>
-      </c>
-      <c r="AO40">
-        <v>1.19</v>
-      </c>
-      <c r="AP40">
-        <v>2.9</v>
-      </c>
-      <c r="AQ40">
-        <v>2.25</v>
-      </c>
-      <c r="AR40">
-        <v>1.8</v>
-      </c>
-      <c r="AS40">
-        <v>2.14</v>
-      </c>
-      <c r="AT40">
-        <v>1.22</v>
-      </c>
-      <c r="AU40">
-        <v>2.4</v>
-      </c>
       <c r="AV40">
-        <v>1.82</v>
+        <v>1.58</v>
       </c>
       <c r="AW40">
-        <v>4.22</v>
+        <v>3.37</v>
       </c>
       <c r="AX40">
         <v>0</v>
@@ -8528,31 +8564,31 @@
         <v>0</v>
       </c>
       <c r="BC40">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="BD40">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="BE40">
         <v>0</v>
       </c>
       <c r="BF40">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BG40">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="BH40">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="BI40">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BJ40">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="BK40">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:63">
@@ -8560,7 +8596,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>5119630</v>
+        <v>5137140</v>
       </c>
       <c r="C41" t="s">
         <v>63</v>
@@ -8575,25 +8611,25 @@
         <v>4</v>
       </c>
       <c r="G41" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H41" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
       <c r="J41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N41">
         <v>3</v>
@@ -8602,148 +8638,148 @@
         <v>124</v>
       </c>
       <c r="P41" t="s">
-        <v>162</v>
+        <v>100</v>
       </c>
       <c r="Q41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S41">
         <v>5</v>
       </c>
       <c r="T41">
-        <v>6</v>
+        <v>1.91</v>
       </c>
       <c r="U41">
         <v>2.2</v>
       </c>
       <c r="V41">
-        <v>2.05</v>
+        <v>8.5</v>
       </c>
       <c r="W41">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="X41">
-        <v>2.8</v>
+        <v>2.54</v>
       </c>
       <c r="Y41">
-        <v>2.89</v>
+        <v>3.14</v>
       </c>
       <c r="Z41">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AA41">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="AB41">
+        <v>1.05</v>
+      </c>
+      <c r="AC41">
+        <v>1.64</v>
+      </c>
+      <c r="AD41">
+        <v>3.3</v>
+      </c>
+      <c r="AE41">
+        <v>5.6</v>
+      </c>
+      <c r="AF41">
         <v>1.06</v>
       </c>
-      <c r="AC41">
-        <v>7</v>
-      </c>
-      <c r="AD41">
-        <v>3.88</v>
-      </c>
-      <c r="AE41">
-        <v>1.47</v>
-      </c>
-      <c r="AF41">
-        <v>1.04</v>
-      </c>
       <c r="AG41">
-        <v>10.75</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="AH41">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="AI41">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="AJ41">
-        <v>1.94</v>
+        <v>2.01</v>
       </c>
       <c r="AK41">
-        <v>1.86</v>
+        <v>1.79</v>
       </c>
       <c r="AL41">
+        <v>2.45</v>
+      </c>
+      <c r="AM41">
+        <v>1.5</v>
+      </c>
+      <c r="AN41">
+        <v>1.07</v>
+      </c>
+      <c r="AO41">
+        <v>1.19</v>
+      </c>
+      <c r="AP41">
+        <v>2.9</v>
+      </c>
+      <c r="AQ41">
+        <v>2.25</v>
+      </c>
+      <c r="AR41">
+        <v>1.8</v>
+      </c>
+      <c r="AS41">
+        <v>2.25</v>
+      </c>
+      <c r="AT41">
+        <v>1.1</v>
+      </c>
+      <c r="AU41">
+        <v>2.4</v>
+      </c>
+      <c r="AV41">
+        <v>1.82</v>
+      </c>
+      <c r="AW41">
+        <v>4.22</v>
+      </c>
+      <c r="AX41">
+        <v>0</v>
+      </c>
+      <c r="AY41">
+        <v>0</v>
+      </c>
+      <c r="AZ41">
+        <v>0</v>
+      </c>
+      <c r="BA41">
+        <v>0</v>
+      </c>
+      <c r="BB41">
+        <v>0</v>
+      </c>
+      <c r="BC41">
         <v>2.1</v>
       </c>
-      <c r="AM41">
-        <v>1.66</v>
-      </c>
-      <c r="AN41">
-        <v>2.4</v>
-      </c>
-      <c r="AO41">
-        <v>1.23</v>
-      </c>
-      <c r="AP41">
-        <v>1.1</v>
-      </c>
-      <c r="AQ41">
-        <v>0</v>
-      </c>
-      <c r="AR41">
-        <v>0.33</v>
-      </c>
-      <c r="AS41">
-        <v>0.86</v>
-      </c>
-      <c r="AT41">
-        <v>0.86</v>
-      </c>
-      <c r="AU41">
-        <v>1.79</v>
-      </c>
-      <c r="AV41">
-        <v>1.58</v>
-      </c>
-      <c r="AW41">
-        <v>3.37</v>
-      </c>
-      <c r="AX41">
-        <v>0</v>
-      </c>
-      <c r="AY41">
-        <v>0</v>
-      </c>
-      <c r="AZ41">
-        <v>0</v>
-      </c>
-      <c r="BA41">
-        <v>0</v>
-      </c>
-      <c r="BB41">
-        <v>0</v>
-      </c>
-      <c r="BC41">
-        <v>2</v>
-      </c>
       <c r="BD41">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="BE41">
         <v>0</v>
       </c>
       <c r="BF41">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BG41">
+        <v>3</v>
+      </c>
+      <c r="BH41">
         <v>9</v>
       </c>
-      <c r="BH41">
-        <v>3</v>
-      </c>
       <c r="BI41">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BJ41">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="BK41">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:63">
@@ -8751,7 +8787,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>5137141</v>
+        <v>5119627</v>
       </c>
       <c r="C42" t="s">
         <v>63</v>
@@ -8766,133 +8802,133 @@
         <v>4</v>
       </c>
       <c r="G42" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H42" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N42">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O42" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="P42" t="s">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="Q42">
         <v>5</v>
       </c>
       <c r="R42">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S42">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T42">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="U42">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V42">
         <v>4.75</v>
       </c>
       <c r="W42">
-        <v>1.41</v>
+        <v>1.54</v>
       </c>
       <c r="X42">
-        <v>2.7</v>
+        <v>2.36</v>
       </c>
       <c r="Y42">
-        <v>2.94</v>
+        <v>3.15</v>
       </c>
       <c r="Z42">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="AA42">
         <v>7.5</v>
       </c>
       <c r="AB42">
+        <v>1.06</v>
+      </c>
+      <c r="AC42">
+        <v>1.85</v>
+      </c>
+      <c r="AD42">
+        <v>3.2</v>
+      </c>
+      <c r="AE42">
+        <v>4</v>
+      </c>
+      <c r="AF42">
         <v>1.07</v>
       </c>
-      <c r="AC42">
-        <v>1.73</v>
-      </c>
-      <c r="AD42">
-        <v>3.3</v>
-      </c>
-      <c r="AE42">
-        <v>4.33</v>
-      </c>
-      <c r="AF42">
-        <v>1.06</v>
-      </c>
       <c r="AG42">
-        <v>10.25</v>
+        <v>8.4</v>
       </c>
       <c r="AH42">
-        <v>1.31</v>
+        <v>1.38</v>
       </c>
       <c r="AI42">
-        <v>3.04</v>
+        <v>2.79</v>
       </c>
       <c r="AJ42">
+        <v>2.35</v>
+      </c>
+      <c r="AK42">
+        <v>1.57</v>
+      </c>
+      <c r="AL42">
         <v>2.1</v>
       </c>
-      <c r="AK42">
-        <v>1.7</v>
-      </c>
-      <c r="AL42">
-        <v>1.95</v>
-      </c>
       <c r="AM42">
-        <v>1.78</v>
+        <v>1.65</v>
       </c>
       <c r="AN42">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AO42">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="AP42">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ42">
-        <v>1.4</v>
+        <v>0.67</v>
       </c>
       <c r="AR42">
-        <v>1.5</v>
+        <v>0.33</v>
       </c>
       <c r="AS42">
-        <v>1.67</v>
+        <v>0.38</v>
       </c>
       <c r="AT42">
-        <v>1.43</v>
+        <v>1</v>
       </c>
       <c r="AU42">
-        <v>1.59</v>
+        <v>0.53</v>
       </c>
       <c r="AV42">
-        <v>0.73</v>
+        <v>0.7</v>
       </c>
       <c r="AW42">
-        <v>2.32</v>
+        <v>1.23</v>
       </c>
       <c r="AX42">
         <v>0</v>
@@ -8910,7 +8946,7 @@
         <v>0</v>
       </c>
       <c r="BC42">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="BD42">
         <v>0</v>
@@ -8919,22 +8955,22 @@
         <v>0</v>
       </c>
       <c r="BF42">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BG42">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BH42">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BI42">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BJ42">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BK42">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:63">
@@ -8942,7 +8978,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>5119627</v>
+        <v>5137141</v>
       </c>
       <c r="C43" t="s">
         <v>63</v>
@@ -8957,133 +8993,133 @@
         <v>4</v>
       </c>
       <c r="G43" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H43" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
       <c r="J43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N43">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O43" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="P43" t="s">
-        <v>163</v>
+        <v>100</v>
       </c>
       <c r="Q43">
         <v>5</v>
       </c>
       <c r="R43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S43">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T43">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="U43">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V43">
         <v>4.75</v>
       </c>
       <c r="W43">
-        <v>1.54</v>
+        <v>1.41</v>
       </c>
       <c r="X43">
-        <v>2.36</v>
+        <v>2.7</v>
       </c>
       <c r="Y43">
-        <v>3.15</v>
+        <v>2.94</v>
       </c>
       <c r="Z43">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="AA43">
         <v>7.5</v>
       </c>
       <c r="AB43">
+        <v>1.07</v>
+      </c>
+      <c r="AC43">
+        <v>1.73</v>
+      </c>
+      <c r="AD43">
+        <v>3.3</v>
+      </c>
+      <c r="AE43">
+        <v>4.33</v>
+      </c>
+      <c r="AF43">
         <v>1.06</v>
       </c>
-      <c r="AC43">
-        <v>1.85</v>
-      </c>
-      <c r="AD43">
-        <v>3.2</v>
-      </c>
-      <c r="AE43">
-        <v>4</v>
-      </c>
-      <c r="AF43">
-        <v>1.07</v>
-      </c>
       <c r="AG43">
-        <v>8.4</v>
+        <v>10.25</v>
       </c>
       <c r="AH43">
+        <v>1.31</v>
+      </c>
+      <c r="AI43">
+        <v>3.04</v>
+      </c>
+      <c r="AJ43">
+        <v>2.1</v>
+      </c>
+      <c r="AK43">
+        <v>1.7</v>
+      </c>
+      <c r="AL43">
+        <v>1.95</v>
+      </c>
+      <c r="AM43">
+        <v>1.78</v>
+      </c>
+      <c r="AN43">
+        <v>1.18</v>
+      </c>
+      <c r="AO43">
+        <v>1.26</v>
+      </c>
+      <c r="AP43">
+        <v>1.9</v>
+      </c>
+      <c r="AQ43">
+        <v>1.4</v>
+      </c>
+      <c r="AR43">
+        <v>1.5</v>
+      </c>
+      <c r="AS43">
+        <v>1.5</v>
+      </c>
+      <c r="AT43">
         <v>1.38</v>
       </c>
-      <c r="AI43">
-        <v>2.79</v>
-      </c>
-      <c r="AJ43">
-        <v>2.35</v>
-      </c>
-      <c r="AK43">
-        <v>1.57</v>
-      </c>
-      <c r="AL43">
-        <v>2.1</v>
-      </c>
-      <c r="AM43">
-        <v>1.65</v>
-      </c>
-      <c r="AN43">
-        <v>1.17</v>
-      </c>
-      <c r="AO43">
-        <v>1.3</v>
-      </c>
-      <c r="AP43">
-        <v>2</v>
-      </c>
-      <c r="AQ43">
-        <v>0.67</v>
-      </c>
-      <c r="AR43">
-        <v>0.33</v>
-      </c>
-      <c r="AS43">
-        <v>0.43</v>
-      </c>
-      <c r="AT43">
-        <v>0.71</v>
-      </c>
       <c r="AU43">
-        <v>0.53</v>
+        <v>1.59</v>
       </c>
       <c r="AV43">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AW43">
-        <v>1.23</v>
+        <v>2.32</v>
       </c>
       <c r="AX43">
         <v>0</v>
@@ -9101,7 +9137,7 @@
         <v>0</v>
       </c>
       <c r="BC43">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="BD43">
         <v>0</v>
@@ -9110,22 +9146,22 @@
         <v>0</v>
       </c>
       <c r="BF43">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BG43">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BH43">
+        <v>3</v>
+      </c>
+      <c r="BI43">
+        <v>3</v>
+      </c>
+      <c r="BJ43">
         <v>8</v>
       </c>
-      <c r="BI43">
-        <v>7</v>
-      </c>
-      <c r="BJ43">
-        <v>12</v>
-      </c>
       <c r="BK43">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:63">
@@ -9175,7 +9211,7 @@
         <v>126</v>
       </c>
       <c r="P44" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -9262,10 +9298,10 @@
         <v>2</v>
       </c>
       <c r="AS44">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT44">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AU44">
         <v>2.68</v>
@@ -9342,7 +9378,7 @@
         <v>78</v>
       </c>
       <c r="H45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -9453,10 +9489,10 @@
         <v>2.33</v>
       </c>
       <c r="AS45">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT45">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU45">
         <v>1.09</v>
@@ -9515,7 +9551,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>5137143</v>
+        <v>5137144</v>
       </c>
       <c r="C46" t="s">
         <v>63</v>
@@ -9530,133 +9566,133 @@
         <v>5</v>
       </c>
       <c r="G46" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H46" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J46">
         <v>0</v>
       </c>
       <c r="K46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M46">
         <v>1</v>
       </c>
       <c r="N46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O46" t="s">
         <v>128</v>
       </c>
       <c r="P46" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="Q46">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R46">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S46">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="T46">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="U46">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V46">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="W46">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="X46">
-        <v>2.4</v>
+        <v>2.22</v>
       </c>
       <c r="Y46">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="Z46">
         <v>1.28</v>
       </c>
       <c r="AA46">
-        <v>7.75</v>
+        <v>9.4</v>
       </c>
       <c r="AB46">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="AC46">
-        <v>1.96</v>
+        <v>1.74</v>
       </c>
       <c r="AD46">
-        <v>2.91</v>
+        <v>3.04</v>
       </c>
       <c r="AE46">
-        <v>4.25</v>
+        <v>5.5</v>
       </c>
       <c r="AF46">
         <v>1.08</v>
       </c>
       <c r="AG46">
-        <v>7.85</v>
+        <v>5.9</v>
       </c>
       <c r="AH46">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="AI46">
-        <v>2.66</v>
+        <v>2.5</v>
       </c>
       <c r="AJ46">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AK46">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AL46">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AM46">
-        <v>1.68</v>
+        <v>1.81</v>
       </c>
       <c r="AN46">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AO46">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AP46">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="AQ46">
         <v>1.5</v>
       </c>
       <c r="AR46">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="AS46">
-        <v>1.86</v>
+        <v>1.13</v>
       </c>
       <c r="AT46">
-        <v>1.67</v>
+        <v>1.1</v>
       </c>
       <c r="AU46">
-        <v>1.27</v>
+        <v>1.97</v>
       </c>
       <c r="AV46">
-        <v>1.07</v>
+        <v>1.5</v>
       </c>
       <c r="AW46">
-        <v>2.34</v>
+        <v>3.47</v>
       </c>
       <c r="AX46">
         <v>0</v>
@@ -9674,7 +9710,7 @@
         <v>0</v>
       </c>
       <c r="BC46">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="BD46">
         <v>0</v>
@@ -9683,22 +9719,22 @@
         <v>0</v>
       </c>
       <c r="BF46">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BG46">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BH46">
+        <v>9</v>
+      </c>
+      <c r="BI46">
+        <v>4</v>
+      </c>
+      <c r="BJ46">
         <v>15</v>
       </c>
-      <c r="BI46">
-        <v>2</v>
-      </c>
-      <c r="BJ46">
-        <v>22</v>
-      </c>
       <c r="BK46">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:63">
@@ -9706,7 +9742,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>5137144</v>
+        <v>5137143</v>
       </c>
       <c r="C47" t="s">
         <v>63</v>
@@ -9721,133 +9757,133 @@
         <v>5</v>
       </c>
       <c r="G47" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H47" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J47">
         <v>0</v>
       </c>
       <c r="K47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M47">
         <v>1</v>
       </c>
       <c r="N47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O47" t="s">
         <v>129</v>
       </c>
       <c r="P47" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="Q47">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R47">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S47">
+        <v>12</v>
+      </c>
+      <c r="T47">
+        <v>2.25</v>
+      </c>
+      <c r="U47">
+        <v>2.1</v>
+      </c>
+      <c r="V47">
         <v>5</v>
       </c>
-      <c r="T47">
+      <c r="W47">
+        <v>1.5</v>
+      </c>
+      <c r="X47">
         <v>2.4</v>
       </c>
-      <c r="U47">
-        <v>2.05</v>
-      </c>
-      <c r="V47">
-        <v>4.5</v>
-      </c>
-      <c r="W47">
-        <v>1.59</v>
-      </c>
-      <c r="X47">
-        <v>2.22</v>
-      </c>
       <c r="Y47">
-        <v>3.34</v>
+        <v>3.3</v>
       </c>
       <c r="Z47">
         <v>1.28</v>
       </c>
       <c r="AA47">
-        <v>9.4</v>
+        <v>7.75</v>
       </c>
       <c r="AB47">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="AC47">
-        <v>1.74</v>
+        <v>1.96</v>
       </c>
       <c r="AD47">
-        <v>3.04</v>
+        <v>2.91</v>
       </c>
       <c r="AE47">
-        <v>5.5</v>
+        <v>4.25</v>
       </c>
       <c r="AF47">
         <v>1.08</v>
       </c>
       <c r="AG47">
-        <v>5.9</v>
+        <v>7.85</v>
       </c>
       <c r="AH47">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="AI47">
-        <v>2.5</v>
+        <v>2.66</v>
       </c>
       <c r="AJ47">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="AK47">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="AL47">
+        <v>2.05</v>
+      </c>
+      <c r="AM47">
+        <v>1.68</v>
+      </c>
+      <c r="AN47">
+        <v>1.18</v>
+      </c>
+      <c r="AO47">
+        <v>1.3</v>
+      </c>
+      <c r="AP47">
         <v>1.95</v>
-      </c>
-      <c r="AM47">
-        <v>1.81</v>
-      </c>
-      <c r="AN47">
-        <v>1.11</v>
-      </c>
-      <c r="AO47">
-        <v>1.33</v>
-      </c>
-      <c r="AP47">
-        <v>1.96</v>
       </c>
       <c r="AQ47">
         <v>1.5</v>
       </c>
       <c r="AR47">
+        <v>2.2</v>
+      </c>
+      <c r="AS47">
+        <v>1.63</v>
+      </c>
+      <c r="AT47">
         <v>1.5</v>
       </c>
-      <c r="AS47">
-        <v>1.14</v>
-      </c>
-      <c r="AT47">
-        <v>1.22</v>
-      </c>
       <c r="AU47">
-        <v>1.97</v>
+        <v>1.27</v>
       </c>
       <c r="AV47">
-        <v>1.5</v>
+        <v>1.07</v>
       </c>
       <c r="AW47">
-        <v>3.47</v>
+        <v>2.34</v>
       </c>
       <c r="AX47">
         <v>0</v>
@@ -9865,7 +9901,7 @@
         <v>0</v>
       </c>
       <c r="BC47">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="BD47">
         <v>0</v>
@@ -9874,22 +9910,22 @@
         <v>0</v>
       </c>
       <c r="BF47">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BG47">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BH47">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BI47">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BJ47">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="BK47">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:63">
@@ -9897,7 +9933,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>5137145</v>
+        <v>5119631</v>
       </c>
       <c r="C48" t="s">
         <v>63</v>
@@ -9912,133 +9948,133 @@
         <v>5</v>
       </c>
       <c r="G48" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L48">
         <v>2</v>
       </c>
       <c r="M48">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N48">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O48" t="s">
         <v>130</v>
       </c>
       <c r="P48" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="Q48">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="R48">
         <v>7</v>
       </c>
       <c r="S48">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="T48">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U48">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="V48">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="W48">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="X48">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="Y48">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="Z48">
-        <v>1.33</v>
+        <v>1.55</v>
       </c>
       <c r="AA48">
-        <v>8</v>
+        <v>4.9</v>
       </c>
       <c r="AB48">
-        <v>1.06</v>
+        <v>1.14</v>
       </c>
       <c r="AC48">
-        <v>2.14</v>
+        <v>3.28</v>
       </c>
       <c r="AD48">
-        <v>3.48</v>
+        <v>3.68</v>
       </c>
       <c r="AE48">
-        <v>2.98</v>
+        <v>1.95</v>
       </c>
       <c r="AF48">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="AG48">
-        <v>10.5</v>
+        <v>16.75</v>
       </c>
       <c r="AH48">
-        <v>1.33</v>
+        <v>1.18</v>
       </c>
       <c r="AI48">
-        <v>3.05</v>
+        <v>4.3</v>
       </c>
       <c r="AJ48">
-        <v>2.01</v>
+        <v>1.6</v>
       </c>
       <c r="AK48">
-        <v>1.72</v>
+        <v>2.2</v>
       </c>
       <c r="AL48">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="AM48">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="AN48">
-        <v>1.41</v>
+        <v>2.16</v>
       </c>
       <c r="AO48">
-        <v>1.32</v>
+        <v>1.19</v>
       </c>
       <c r="AP48">
-        <v>1.52</v>
+        <v>1.15</v>
       </c>
       <c r="AQ48">
-        <v>1.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR48">
         <v>1.75</v>
       </c>
       <c r="AS48">
-        <v>1.67</v>
+        <v>0.38</v>
       </c>
       <c r="AT48">
-        <v>1.57</v>
+        <v>2</v>
       </c>
       <c r="AU48">
-        <v>1.53</v>
+        <v>1.01</v>
       </c>
       <c r="AV48">
-        <v>1.24</v>
+        <v>1.51</v>
       </c>
       <c r="AW48">
-        <v>2.77</v>
+        <v>2.52</v>
       </c>
       <c r="AX48">
         <v>0</v>
@@ -10056,31 +10092,31 @@
         <v>0</v>
       </c>
       <c r="BC48">
-        <v>2.38</v>
+        <v>1.83</v>
       </c>
       <c r="BD48">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="BE48">
         <v>0</v>
       </c>
       <c r="BF48">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BG48">
+        <v>15</v>
+      </c>
+      <c r="BH48">
         <v>7</v>
       </c>
-      <c r="BH48">
-        <v>0</v>
-      </c>
       <c r="BI48">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BJ48">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="BK48">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" spans="1:63">
@@ -10088,7 +10124,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>5119632</v>
+        <v>5137145</v>
       </c>
       <c r="C49" t="s">
         <v>63</v>
@@ -10103,175 +10139,175 @@
         <v>5</v>
       </c>
       <c r="G49" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J49">
         <v>0</v>
       </c>
       <c r="K49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L49">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N49">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O49" t="s">
         <v>131</v>
       </c>
       <c r="P49" t="s">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="Q49">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="R49">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="S49">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="T49">
         <v>3</v>
       </c>
       <c r="U49">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V49">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="W49">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="X49">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="Y49">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="Z49">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="AA49">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB49">
         <v>1.06</v>
       </c>
       <c r="AC49">
-        <v>2.28</v>
+        <v>2.14</v>
       </c>
       <c r="AD49">
-        <v>3.14</v>
+        <v>3.48</v>
       </c>
       <c r="AE49">
-        <v>3.04</v>
+        <v>2.98</v>
       </c>
       <c r="AF49">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="AG49">
+        <v>10.5</v>
+      </c>
+      <c r="AH49">
+        <v>1.33</v>
+      </c>
+      <c r="AI49">
+        <v>3.05</v>
+      </c>
+      <c r="AJ49">
+        <v>2.01</v>
+      </c>
+      <c r="AK49">
+        <v>1.72</v>
+      </c>
+      <c r="AL49">
+        <v>1.8</v>
+      </c>
+      <c r="AM49">
+        <v>1.88</v>
+      </c>
+      <c r="AN49">
+        <v>1.41</v>
+      </c>
+      <c r="AO49">
+        <v>1.32</v>
+      </c>
+      <c r="AP49">
+        <v>1.52</v>
+      </c>
+      <c r="AQ49">
+        <v>1.33</v>
+      </c>
+      <c r="AR49">
+        <v>1.75</v>
+      </c>
+      <c r="AS49">
+        <v>1.5</v>
+      </c>
+      <c r="AT49">
+        <v>1.75</v>
+      </c>
+      <c r="AU49">
+        <v>1.53</v>
+      </c>
+      <c r="AV49">
+        <v>1.24</v>
+      </c>
+      <c r="AW49">
+        <v>2.77</v>
+      </c>
+      <c r="AX49">
+        <v>0</v>
+      </c>
+      <c r="AY49">
+        <v>0</v>
+      </c>
+      <c r="AZ49">
+        <v>0</v>
+      </c>
+      <c r="BA49">
+        <v>0</v>
+      </c>
+      <c r="BB49">
+        <v>0</v>
+      </c>
+      <c r="BC49">
+        <v>2.38</v>
+      </c>
+      <c r="BD49">
+        <v>0</v>
+      </c>
+      <c r="BE49">
+        <v>0</v>
+      </c>
+      <c r="BF49">
+        <v>6</v>
+      </c>
+      <c r="BG49">
         <v>7</v>
       </c>
-      <c r="AH49">
-        <v>1.35</v>
-      </c>
-      <c r="AI49">
-        <v>2.9</v>
-      </c>
-      <c r="AJ49">
-        <v>2.2</v>
-      </c>
-      <c r="AK49">
-        <v>1.6</v>
-      </c>
-      <c r="AL49">
-        <v>1.85</v>
-      </c>
-      <c r="AM49">
-        <v>1.85</v>
-      </c>
-      <c r="AN49">
-        <v>1.3</v>
-      </c>
-      <c r="AO49">
-        <v>1.37</v>
-      </c>
-      <c r="AP49">
-        <v>1.37</v>
-      </c>
-      <c r="AQ49">
-        <v>2</v>
-      </c>
-      <c r="AR49">
-        <v>1</v>
-      </c>
-      <c r="AS49">
-        <v>2.29</v>
-      </c>
-      <c r="AT49">
-        <v>0.86</v>
-      </c>
-      <c r="AU49">
-        <v>1.12</v>
-      </c>
-      <c r="AV49">
-        <v>1.68</v>
-      </c>
-      <c r="AW49">
-        <v>2.8</v>
-      </c>
-      <c r="AX49">
-        <v>0</v>
-      </c>
-      <c r="AY49">
-        <v>0</v>
-      </c>
-      <c r="AZ49">
-        <v>0</v>
-      </c>
-      <c r="BA49">
-        <v>0</v>
-      </c>
-      <c r="BB49">
-        <v>0</v>
-      </c>
-      <c r="BC49">
-        <v>1.91</v>
-      </c>
-      <c r="BD49">
-        <v>2</v>
-      </c>
-      <c r="BE49">
-        <v>0</v>
-      </c>
-      <c r="BF49">
-        <v>16</v>
-      </c>
-      <c r="BG49">
-        <v>2</v>
-      </c>
       <c r="BH49">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BI49">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BJ49">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="BK49">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:63">
@@ -10279,7 +10315,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>5119631</v>
+        <v>5119632</v>
       </c>
       <c r="C50" t="s">
         <v>63</v>
@@ -10294,133 +10330,133 @@
         <v>5</v>
       </c>
       <c r="G50" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H50" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J50">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K50">
         <v>3</v>
       </c>
       <c r="L50">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M50">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N50">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O50" t="s">
         <v>132</v>
       </c>
       <c r="P50" t="s">
-        <v>168</v>
+        <v>100</v>
       </c>
       <c r="Q50">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R50">
+        <v>2</v>
+      </c>
+      <c r="S50">
+        <v>6</v>
+      </c>
+      <c r="T50">
+        <v>3</v>
+      </c>
+      <c r="U50">
+        <v>2</v>
+      </c>
+      <c r="V50">
+        <v>3.6</v>
+      </c>
+      <c r="W50">
+        <v>1.5</v>
+      </c>
+      <c r="X50">
+        <v>2.4</v>
+      </c>
+      <c r="Y50">
+        <v>3.15</v>
+      </c>
+      <c r="Z50">
+        <v>1.31</v>
+      </c>
+      <c r="AA50">
+        <v>8.5</v>
+      </c>
+      <c r="AB50">
+        <v>1.06</v>
+      </c>
+      <c r="AC50">
+        <v>2.28</v>
+      </c>
+      <c r="AD50">
+        <v>3.14</v>
+      </c>
+      <c r="AE50">
+        <v>3.04</v>
+      </c>
+      <c r="AF50">
+        <v>1.07</v>
+      </c>
+      <c r="AG50">
         <v>7</v>
       </c>
-      <c r="S50">
-        <v>10</v>
-      </c>
-      <c r="T50">
-        <v>5</v>
-      </c>
-      <c r="U50">
+      <c r="AH50">
+        <v>1.35</v>
+      </c>
+      <c r="AI50">
+        <v>2.9</v>
+      </c>
+      <c r="AJ50">
         <v>2.2</v>
       </c>
-      <c r="V50">
-        <v>2.2</v>
-      </c>
-      <c r="W50">
-        <v>1.25</v>
-      </c>
-      <c r="X50">
-        <v>3.6</v>
-      </c>
-      <c r="Y50">
-        <v>2.3</v>
-      </c>
-      <c r="Z50">
-        <v>1.55</v>
-      </c>
-      <c r="AA50">
-        <v>4.9</v>
-      </c>
-      <c r="AB50">
-        <v>1.14</v>
-      </c>
-      <c r="AC50">
-        <v>3.28</v>
-      </c>
-      <c r="AD50">
-        <v>3.68</v>
-      </c>
-      <c r="AE50">
-        <v>1.95</v>
-      </c>
-      <c r="AF50">
-        <v>1.02</v>
-      </c>
-      <c r="AG50">
-        <v>16.75</v>
-      </c>
-      <c r="AH50">
-        <v>1.18</v>
-      </c>
-      <c r="AI50">
-        <v>4.3</v>
-      </c>
-      <c r="AJ50">
+      <c r="AK50">
         <v>1.6</v>
       </c>
-      <c r="AK50">
-        <v>2.2</v>
-      </c>
       <c r="AL50">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="AM50">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="AN50">
-        <v>2.16</v>
+        <v>1.3</v>
       </c>
       <c r="AO50">
-        <v>1.19</v>
+        <v>1.37</v>
       </c>
       <c r="AP50">
-        <v>1.15</v>
+        <v>1.37</v>
       </c>
       <c r="AQ50">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="AR50">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="AS50">
-        <v>0.43</v>
+        <v>2.38</v>
       </c>
       <c r="AT50">
-        <v>1.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU50">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="AV50">
-        <v>1.51</v>
+        <v>1.68</v>
       </c>
       <c r="AW50">
-        <v>2.52</v>
+        <v>2.8</v>
       </c>
       <c r="AX50">
         <v>0</v>
@@ -10438,31 +10474,31 @@
         <v>0</v>
       </c>
       <c r="BC50">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="BD50">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="BE50">
         <v>0</v>
       </c>
       <c r="BF50">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="BG50">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="BH50">
         <v>7</v>
       </c>
       <c r="BI50">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="BJ50">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="BK50">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:63">
@@ -10488,7 +10524,7 @@
         <v>65</v>
       </c>
       <c r="H51" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I51">
         <v>2</v>
@@ -10512,7 +10548,7 @@
         <v>133</v>
       </c>
       <c r="P51" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="Q51">
         <v>7</v>
@@ -10599,10 +10635,10 @@
         <v>1.75</v>
       </c>
       <c r="AS51">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT51">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU51">
         <v>2.34</v>
@@ -10703,7 +10739,7 @@
         <v>134</v>
       </c>
       <c r="P52" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="Q52">
         <v>8</v>
@@ -10790,10 +10826,10 @@
         <v>1</v>
       </c>
       <c r="AS52">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT52">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU52">
         <v>1.62</v>
@@ -10870,7 +10906,7 @@
         <v>74</v>
       </c>
       <c r="H53" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I53">
         <v>2</v>
@@ -10894,7 +10930,7 @@
         <v>135</v>
       </c>
       <c r="P53" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="Q53">
         <v>4</v>
@@ -10981,10 +11017,10 @@
         <v>2</v>
       </c>
       <c r="AS53">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT53">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU53">
         <v>2.24</v>
@@ -11043,7 +11079,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>5137147</v>
+        <v>5119636</v>
       </c>
       <c r="C54" t="s">
         <v>63</v>
@@ -11058,10 +11094,10 @@
         <v>6</v>
       </c>
       <c r="G54" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="H54" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -11076,115 +11112,115 @@
         <v>0</v>
       </c>
       <c r="M54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O54" t="s">
         <v>100</v>
       </c>
       <c r="P54" t="s">
-        <v>100</v>
+        <v>179</v>
       </c>
       <c r="Q54">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R54">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S54">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="T54">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="U54">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="V54">
-        <v>3.15</v>
+        <v>3.01</v>
       </c>
       <c r="W54">
-        <v>1.58</v>
+        <v>1.51</v>
       </c>
       <c r="X54">
-        <v>2.25</v>
+        <v>2.39</v>
       </c>
       <c r="Y54">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="Z54">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
       <c r="AA54">
         <v>8.25</v>
       </c>
       <c r="AB54">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="AC54">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="AD54">
         <v>2.88</v>
       </c>
       <c r="AE54">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="AF54">
-        <v>1.1</v>
+        <v>1.03</v>
       </c>
       <c r="AG54">
-        <v>7.1</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AH54">
-        <v>1.48</v>
+        <v>1.33</v>
       </c>
       <c r="AI54">
-        <v>2.48</v>
+        <v>2.85</v>
       </c>
       <c r="AJ54">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="AK54">
-        <v>1.48</v>
+        <v>1.65</v>
       </c>
       <c r="AL54">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AM54">
-        <v>1.6</v>
+        <v>1.93</v>
       </c>
       <c r="AN54">
-        <v>1.55</v>
+        <v>1.47</v>
       </c>
       <c r="AO54">
-        <v>1.38</v>
+        <v>1.28</v>
       </c>
       <c r="AP54">
         <v>1.3</v>
       </c>
       <c r="AQ54">
-        <v>1.43</v>
+        <v>1.67</v>
       </c>
       <c r="AR54">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="AS54">
-        <v>1.22</v>
+        <v>1.63</v>
       </c>
       <c r="AT54">
-        <v>1.86</v>
+        <v>2.38</v>
       </c>
       <c r="AU54">
-        <v>1.29</v>
+        <v>1.48</v>
       </c>
       <c r="AV54">
-        <v>1.56</v>
+        <v>1.71</v>
       </c>
       <c r="AW54">
-        <v>2.85</v>
+        <v>3.19</v>
       </c>
       <c r="AX54">
         <v>0</v>
@@ -11202,7 +11238,7 @@
         <v>0</v>
       </c>
       <c r="BC54">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="BD54">
         <v>0</v>
@@ -11214,19 +11250,19 @@
         <v>3</v>
       </c>
       <c r="BG54">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="BH54">
+        <v>8</v>
+      </c>
+      <c r="BI54">
+        <v>8</v>
+      </c>
+      <c r="BJ54">
         <v>11</v>
       </c>
-      <c r="BI54">
-        <v>14</v>
-      </c>
-      <c r="BJ54">
-        <v>14</v>
-      </c>
       <c r="BK54">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:63">
@@ -11234,7 +11270,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>5119636</v>
+        <v>5137149</v>
       </c>
       <c r="C55" t="s">
         <v>63</v>
@@ -11249,175 +11285,175 @@
         <v>6</v>
       </c>
       <c r="G55" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H55" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N55">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O55" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="P55" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="Q55">
+        <v>3</v>
+      </c>
+      <c r="R55">
+        <v>2</v>
+      </c>
+      <c r="S55">
+        <v>5</v>
+      </c>
+      <c r="T55">
+        <v>3.6</v>
+      </c>
+      <c r="U55">
+        <v>1.9</v>
+      </c>
+      <c r="V55">
+        <v>3.25</v>
+      </c>
+      <c r="W55">
+        <v>1.55</v>
+      </c>
+      <c r="X55">
+        <v>2.35</v>
+      </c>
+      <c r="Y55">
+        <v>3.4</v>
+      </c>
+      <c r="Z55">
+        <v>1.27</v>
+      </c>
+      <c r="AA55">
+        <v>8</v>
+      </c>
+      <c r="AB55">
+        <v>1.05</v>
+      </c>
+      <c r="AC55">
+        <v>2.45</v>
+      </c>
+      <c r="AD55">
+        <v>2.8</v>
+      </c>
+      <c r="AE55">
+        <v>2.88</v>
+      </c>
+      <c r="AF55">
+        <v>1.1</v>
+      </c>
+      <c r="AG55">
+        <v>7.05</v>
+      </c>
+      <c r="AH55">
+        <v>1.44</v>
+      </c>
+      <c r="AI55">
+        <v>2.59</v>
+      </c>
+      <c r="AJ55">
+        <v>2.4</v>
+      </c>
+      <c r="AK55">
+        <v>1.53</v>
+      </c>
+      <c r="AL55">
+        <v>2</v>
+      </c>
+      <c r="AM55">
+        <v>1.72</v>
+      </c>
+      <c r="AN55">
+        <v>1.45</v>
+      </c>
+      <c r="AO55">
+        <v>1.38</v>
+      </c>
+      <c r="AP55">
+        <v>1.38</v>
+      </c>
+      <c r="AQ55">
+        <v>0.8</v>
+      </c>
+      <c r="AR55">
+        <v>1.29</v>
+      </c>
+      <c r="AS55">
+        <v>1</v>
+      </c>
+      <c r="AT55">
+        <v>1.5</v>
+      </c>
+      <c r="AU55">
+        <v>0.88</v>
+      </c>
+      <c r="AV55">
+        <v>1.1</v>
+      </c>
+      <c r="AW55">
+        <v>1.98</v>
+      </c>
+      <c r="AX55">
+        <v>0</v>
+      </c>
+      <c r="AY55">
+        <v>0</v>
+      </c>
+      <c r="AZ55">
+        <v>0</v>
+      </c>
+      <c r="BA55">
+        <v>0</v>
+      </c>
+      <c r="BB55">
+        <v>0</v>
+      </c>
+      <c r="BC55">
+        <v>2</v>
+      </c>
+      <c r="BD55">
+        <v>0</v>
+      </c>
+      <c r="BE55">
+        <v>0</v>
+      </c>
+      <c r="BF55">
         <v>6</v>
       </c>
-      <c r="R55">
+      <c r="BG55">
+        <v>9</v>
+      </c>
+      <c r="BH55">
+        <v>10</v>
+      </c>
+      <c r="BI55">
         <v>5</v>
       </c>
-      <c r="S55">
-        <v>11</v>
-      </c>
-      <c r="T55">
-        <v>4.2</v>
-      </c>
-      <c r="U55">
-        <v>1.87</v>
-      </c>
-      <c r="V55">
-        <v>3.01</v>
-      </c>
-      <c r="W55">
-        <v>1.51</v>
-      </c>
-      <c r="X55">
-        <v>2.39</v>
-      </c>
-      <c r="Y55">
-        <v>3.1</v>
-      </c>
-      <c r="Z55">
-        <v>1.32</v>
-      </c>
-      <c r="AA55">
-        <v>8.25</v>
-      </c>
-      <c r="AB55">
-        <v>1.06</v>
-      </c>
-      <c r="AC55">
-        <v>3.1</v>
-      </c>
-      <c r="AD55">
-        <v>2.88</v>
-      </c>
-      <c r="AE55">
-        <v>2.25</v>
-      </c>
-      <c r="AF55">
-        <v>1.03</v>
-      </c>
-      <c r="AG55">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="AH55">
-        <v>1.33</v>
-      </c>
-      <c r="AI55">
-        <v>2.85</v>
-      </c>
-      <c r="AJ55">
-        <v>2.2</v>
-      </c>
-      <c r="AK55">
-        <v>1.65</v>
-      </c>
-      <c r="AL55">
-        <v>1.83</v>
-      </c>
-      <c r="AM55">
-        <v>1.93</v>
-      </c>
-      <c r="AN55">
-        <v>1.47</v>
-      </c>
-      <c r="AO55">
-        <v>1.28</v>
-      </c>
-      <c r="AP55">
-        <v>1.3</v>
-      </c>
-      <c r="AQ55">
-        <v>1.67</v>
-      </c>
-      <c r="AR55">
-        <v>2.25</v>
-      </c>
-      <c r="AS55">
-        <v>1.43</v>
-      </c>
-      <c r="AT55">
-        <v>2.29</v>
-      </c>
-      <c r="AU55">
-        <v>1.48</v>
-      </c>
-      <c r="AV55">
-        <v>1.71</v>
-      </c>
-      <c r="AW55">
-        <v>3.19</v>
-      </c>
-      <c r="AX55">
-        <v>0</v>
-      </c>
-      <c r="AY55">
-        <v>0</v>
-      </c>
-      <c r="AZ55">
-        <v>0</v>
-      </c>
-      <c r="BA55">
-        <v>0</v>
-      </c>
-      <c r="BB55">
-        <v>0</v>
-      </c>
-      <c r="BC55">
-        <v>2.1</v>
-      </c>
-      <c r="BD55">
-        <v>0</v>
-      </c>
-      <c r="BE55">
-        <v>0</v>
-      </c>
-      <c r="BF55">
-        <v>3</v>
-      </c>
-      <c r="BG55">
-        <v>10</v>
-      </c>
-      <c r="BH55">
-        <v>8</v>
-      </c>
-      <c r="BI55">
-        <v>8</v>
-      </c>
       <c r="BJ55">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="BK55">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:63">
@@ -11425,7 +11461,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>5137149</v>
+        <v>5137147</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -11440,133 +11476,133 @@
         <v>6</v>
       </c>
       <c r="G56" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="H56" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="I56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M56">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N56">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O56" t="s">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="P56" t="s">
-        <v>173</v>
+        <v>100</v>
       </c>
       <c r="Q56">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R56">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S56">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="T56">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="U56">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="V56">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="W56">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="X56">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="Y56">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Z56">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AA56">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AB56">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AC56">
-        <v>2.45</v>
+        <v>2.88</v>
       </c>
       <c r="AD56">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="AE56">
-        <v>2.88</v>
+        <v>2.4</v>
       </c>
       <c r="AF56">
         <v>1.1</v>
       </c>
       <c r="AG56">
-        <v>7.05</v>
+        <v>7.1</v>
       </c>
       <c r="AH56">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="AI56">
-        <v>2.59</v>
+        <v>2.48</v>
       </c>
       <c r="AJ56">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="AK56">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="AL56">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AM56">
-        <v>1.72</v>
+        <v>1.6</v>
       </c>
       <c r="AN56">
-        <v>1.45</v>
+        <v>1.55</v>
       </c>
       <c r="AO56">
         <v>1.38</v>
       </c>
       <c r="AP56">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="AQ56">
-        <v>0.8</v>
+        <v>1.43</v>
       </c>
       <c r="AR56">
+        <v>1.8</v>
+      </c>
+      <c r="AS56">
+        <v>1.1</v>
+      </c>
+      <c r="AT56">
+        <v>1.63</v>
+      </c>
+      <c r="AU56">
         <v>1.29</v>
       </c>
-      <c r="AS56">
-        <v>0.71</v>
-      </c>
-      <c r="AT56">
-        <v>1.67</v>
-      </c>
-      <c r="AU56">
-        <v>0.88</v>
-      </c>
       <c r="AV56">
-        <v>1.1</v>
+        <v>1.56</v>
       </c>
       <c r="AW56">
-        <v>1.98</v>
+        <v>2.85</v>
       </c>
       <c r="AX56">
         <v>0</v>
@@ -11584,7 +11620,7 @@
         <v>0</v>
       </c>
       <c r="BC56">
-        <v>2</v>
+        <v>2.38</v>
       </c>
       <c r="BD56">
         <v>0</v>
@@ -11593,22 +11629,22 @@
         <v>0</v>
       </c>
       <c r="BF56">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BG56">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="BH56">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BI56">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="BJ56">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BK56">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:63">
@@ -11745,10 +11781,10 @@
         <v>0.6</v>
       </c>
       <c r="AS57">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT57">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU57">
         <v>1.55</v>
@@ -11849,7 +11885,7 @@
         <v>138</v>
       </c>
       <c r="P58" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="Q58">
         <v>11</v>
@@ -11936,10 +11972,10 @@
         <v>0.4</v>
       </c>
       <c r="AS58">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT58">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU58">
         <v>1.65</v>
@@ -12040,7 +12076,7 @@
         <v>139</v>
       </c>
       <c r="P59" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="Q59">
         <v>7</v>
@@ -12127,10 +12163,10 @@
         <v>1.14</v>
       </c>
       <c r="AS59">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AT59">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU59">
         <v>2.56</v>
@@ -12189,7 +12225,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>5137148</v>
+        <v>5119637</v>
       </c>
       <c r="C60" t="s">
         <v>63</v>
@@ -12204,133 +12240,133 @@
         <v>6</v>
       </c>
       <c r="G60" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H60" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J60">
         <v>0</v>
       </c>
       <c r="K60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N60">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O60" t="s">
         <v>140</v>
       </c>
       <c r="P60" t="s">
-        <v>166</v>
+        <v>100</v>
       </c>
       <c r="Q60">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R60">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S60">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="T60">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U60">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V60">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="W60">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="X60">
-        <v>2.41</v>
+        <v>2.4</v>
       </c>
       <c r="Y60">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="Z60">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="AA60">
-        <v>7.75</v>
+        <v>8</v>
       </c>
       <c r="AB60">
         <v>1.05</v>
       </c>
       <c r="AC60">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="AD60">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="AE60">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AF60">
         <v>1.08</v>
       </c>
       <c r="AG60">
-        <v>8.199999999999999</v>
+        <v>7.9</v>
       </c>
       <c r="AH60">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="AI60">
-        <v>2.71</v>
+        <v>2.65</v>
       </c>
       <c r="AJ60">
-        <v>2.26</v>
+        <v>2.31</v>
       </c>
       <c r="AK60">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="AL60">
         <v>2</v>
       </c>
       <c r="AM60">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="AN60">
-        <v>1.32</v>
+        <v>1.48</v>
       </c>
       <c r="AO60">
         <v>1.35</v>
       </c>
       <c r="AP60">
-        <v>1.54</v>
+        <v>1.38</v>
       </c>
       <c r="AQ60">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR60">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="AS60">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AT60">
-        <v>1.14</v>
+        <v>2.25</v>
       </c>
       <c r="AU60">
-        <v>1.87</v>
+        <v>1.77</v>
       </c>
       <c r="AV60">
-        <v>1.17</v>
+        <v>1.56</v>
       </c>
       <c r="AW60">
-        <v>3.04</v>
+        <v>3.33</v>
       </c>
       <c r="AX60">
         <v>0</v>
@@ -12342,37 +12378,37 @@
         <v>0</v>
       </c>
       <c r="BA60">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="BB60">
-        <v>1.52</v>
+        <v>1.33</v>
       </c>
       <c r="BC60">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="BD60">
-        <v>2.55</v>
+        <v>2</v>
       </c>
       <c r="BE60">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="BF60">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BG60">
+        <v>6</v>
+      </c>
+      <c r="BH60">
+        <v>6</v>
+      </c>
+      <c r="BI60">
+        <v>6</v>
+      </c>
+      <c r="BJ60">
         <v>10</v>
       </c>
-      <c r="BH60">
-        <v>5</v>
-      </c>
-      <c r="BI60">
-        <v>9</v>
-      </c>
-      <c r="BJ60">
+      <c r="BK60">
         <v>12</v>
-      </c>
-      <c r="BK60">
-        <v>19</v>
       </c>
     </row>
     <row r="61" spans="1:63">
@@ -12380,7 +12416,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>5119637</v>
+        <v>5137148</v>
       </c>
       <c r="C61" t="s">
         <v>63</v>
@@ -12395,133 +12431,133 @@
         <v>6</v>
       </c>
       <c r="G61" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="H61" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J61">
         <v>0</v>
       </c>
       <c r="K61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N61">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O61" t="s">
         <v>141</v>
       </c>
       <c r="P61" t="s">
-        <v>100</v>
+        <v>172</v>
       </c>
       <c r="Q61">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R61">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S61">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T61">
+        <v>3</v>
+      </c>
+      <c r="U61">
+        <v>2</v>
+      </c>
+      <c r="V61">
+        <v>3.6</v>
+      </c>
+      <c r="W61">
+        <v>1.47</v>
+      </c>
+      <c r="X61">
+        <v>2.41</v>
+      </c>
+      <c r="Y61">
         <v>3.25</v>
       </c>
-      <c r="U61">
-        <v>1.95</v>
-      </c>
-      <c r="V61">
-        <v>3.4</v>
-      </c>
-      <c r="W61">
-        <v>1.51</v>
-      </c>
-      <c r="X61">
-        <v>2.4</v>
-      </c>
-      <c r="Y61">
-        <v>3.3</v>
-      </c>
       <c r="Z61">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="AA61">
-        <v>8</v>
+        <v>7.75</v>
       </c>
       <c r="AB61">
         <v>1.05</v>
       </c>
       <c r="AC61">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="AD61">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="AE61">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AF61">
         <v>1.08</v>
       </c>
       <c r="AG61">
-        <v>7.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AH61">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="AI61">
-        <v>2.65</v>
+        <v>2.71</v>
       </c>
       <c r="AJ61">
-        <v>2.31</v>
+        <v>2.26</v>
       </c>
       <c r="AK61">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="AL61">
         <v>2</v>
       </c>
       <c r="AM61">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="AN61">
-        <v>1.48</v>
+        <v>1.32</v>
       </c>
       <c r="AO61">
         <v>1.35</v>
       </c>
       <c r="AP61">
-        <v>1.38</v>
+        <v>1.54</v>
       </c>
       <c r="AQ61">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR61">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="AS61">
-        <v>1.86</v>
+        <v>1.5</v>
       </c>
       <c r="AT61">
-        <v>2.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU61">
-        <v>1.77</v>
+        <v>1.87</v>
       </c>
       <c r="AV61">
-        <v>1.56</v>
+        <v>1.17</v>
       </c>
       <c r="AW61">
-        <v>3.33</v>
+        <v>3.04</v>
       </c>
       <c r="AX61">
         <v>0</v>
@@ -12533,37 +12569,37 @@
         <v>0</v>
       </c>
       <c r="BA61">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="BB61">
-        <v>1.33</v>
+        <v>1.52</v>
       </c>
       <c r="BC61">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="BD61">
-        <v>2</v>
+        <v>2.55</v>
       </c>
       <c r="BE61">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="BF61">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BG61">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BH61">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BI61">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BJ61">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BK61">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62" spans="1:63">
@@ -12700,10 +12736,10 @@
         <v>1.38</v>
       </c>
       <c r="AS62">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT62">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU62">
         <v>1.79</v>
@@ -12891,10 +12927,10 @@
         <v>1.83</v>
       </c>
       <c r="AS63">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT63">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AU63">
         <v>1.64</v>
@@ -12995,7 +13031,7 @@
         <v>144</v>
       </c>
       <c r="P64" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="Q64">
         <v>9</v>
@@ -13082,10 +13118,10 @@
         <v>2</v>
       </c>
       <c r="AS64">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT64">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU64">
         <v>1.43</v>
@@ -13186,7 +13222,7 @@
         <v>145</v>
       </c>
       <c r="P65" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="Q65">
         <v>7</v>
@@ -13273,10 +13309,10 @@
         <v>0.67</v>
       </c>
       <c r="AS65">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT65">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU65">
         <v>2.02</v>
@@ -13335,7 +13371,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>5119640</v>
+        <v>5137150</v>
       </c>
       <c r="C66" t="s">
         <v>63</v>
@@ -13350,10 +13386,10 @@
         <v>7</v>
       </c>
       <c r="G66" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="H66" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I66">
         <v>1</v>
@@ -13368,157 +13404,157 @@
         <v>2</v>
       </c>
       <c r="M66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N66">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O66" t="s">
         <v>146</v>
       </c>
       <c r="P66" t="s">
-        <v>166</v>
+        <v>100</v>
       </c>
       <c r="Q66">
+        <v>1</v>
+      </c>
+      <c r="R66">
+        <v>6</v>
+      </c>
+      <c r="S66">
+        <v>7</v>
+      </c>
+      <c r="T66">
+        <v>3.4</v>
+      </c>
+      <c r="U66">
+        <v>2.1</v>
+      </c>
+      <c r="V66">
+        <v>3</v>
+      </c>
+      <c r="W66">
+        <v>1.42</v>
+      </c>
+      <c r="X66">
+        <v>2.65</v>
+      </c>
+      <c r="Y66">
+        <v>2.85</v>
+      </c>
+      <c r="Z66">
+        <v>1.37</v>
+      </c>
+      <c r="AA66">
+        <v>7</v>
+      </c>
+      <c r="AB66">
+        <v>1.07</v>
+      </c>
+      <c r="AC66">
+        <v>3.1</v>
+      </c>
+      <c r="AD66">
+        <v>3.25</v>
+      </c>
+      <c r="AE66">
+        <v>2.15</v>
+      </c>
+      <c r="AF66">
+        <v>1.04</v>
+      </c>
+      <c r="AG66">
+        <v>9.5</v>
+      </c>
+      <c r="AH66">
+        <v>1.3</v>
+      </c>
+      <c r="AI66">
+        <v>3.2</v>
+      </c>
+      <c r="AJ66">
+        <v>1.99</v>
+      </c>
+      <c r="AK66">
+        <v>1.82</v>
+      </c>
+      <c r="AL66">
+        <v>1.74</v>
+      </c>
+      <c r="AM66">
+        <v>2.04</v>
+      </c>
+      <c r="AN66">
+        <v>1.66</v>
+      </c>
+      <c r="AO66">
+        <v>1.28</v>
+      </c>
+      <c r="AP66">
+        <v>1.29</v>
+      </c>
+      <c r="AQ66">
+        <v>1.13</v>
+      </c>
+      <c r="AR66">
+        <v>2.17</v>
+      </c>
+      <c r="AS66">
+        <v>1.2</v>
+      </c>
+      <c r="AT66">
+        <v>2</v>
+      </c>
+      <c r="AU66">
+        <v>2.29</v>
+      </c>
+      <c r="AV66">
+        <v>2.08</v>
+      </c>
+      <c r="AW66">
+        <v>4.37</v>
+      </c>
+      <c r="AX66">
+        <v>0</v>
+      </c>
+      <c r="AY66">
+        <v>0</v>
+      </c>
+      <c r="AZ66">
+        <v>0</v>
+      </c>
+      <c r="BA66">
+        <v>0</v>
+      </c>
+      <c r="BB66">
+        <v>1.33</v>
+      </c>
+      <c r="BC66">
+        <v>2</v>
+      </c>
+      <c r="BD66">
+        <v>2.02</v>
+      </c>
+      <c r="BE66">
+        <v>2.65</v>
+      </c>
+      <c r="BF66">
+        <v>7</v>
+      </c>
+      <c r="BG66">
         <v>5</v>
       </c>
-      <c r="R66">
+      <c r="BH66">
         <v>5</v>
       </c>
-      <c r="S66">
-        <v>10</v>
-      </c>
-      <c r="T66">
-        <v>1.83</v>
-      </c>
-      <c r="U66">
-        <v>2.3</v>
-      </c>
-      <c r="V66">
-        <v>7.5</v>
-      </c>
-      <c r="W66">
-        <v>1.39</v>
-      </c>
-      <c r="X66">
-        <v>2.86</v>
-      </c>
-      <c r="Y66">
-        <v>2.84</v>
-      </c>
-      <c r="Z66">
-        <v>1.39</v>
-      </c>
-      <c r="AA66">
-        <v>6.6</v>
-      </c>
-      <c r="AB66">
-        <v>1.08</v>
-      </c>
-      <c r="AC66">
-        <v>1.36</v>
-      </c>
-      <c r="AD66">
-        <v>4.33</v>
-      </c>
-      <c r="AE66">
-        <v>7</v>
-      </c>
-      <c r="AF66">
-        <v>1.03</v>
-      </c>
-      <c r="AG66">
-        <v>9.75</v>
-      </c>
-      <c r="AH66">
-        <v>1.26</v>
-      </c>
-      <c r="AI66">
-        <v>3.3</v>
-      </c>
-      <c r="AJ66">
-        <v>1.85</v>
-      </c>
-      <c r="AK66">
-        <v>1.89</v>
-      </c>
-      <c r="AL66">
-        <v>2.25</v>
-      </c>
-      <c r="AM66">
-        <v>1.55</v>
-      </c>
-      <c r="AN66">
-        <v>1.07</v>
-      </c>
-      <c r="AO66">
-        <v>1.2</v>
-      </c>
-      <c r="AP66">
-        <v>2.7</v>
-      </c>
-      <c r="AQ66">
-        <v>2.4</v>
-      </c>
-      <c r="AR66">
-        <v>1.67</v>
-      </c>
-      <c r="AS66">
-        <v>2.29</v>
-      </c>
-      <c r="AT66">
-        <v>1.43</v>
-      </c>
-      <c r="AU66">
-        <v>2.07</v>
-      </c>
-      <c r="AV66">
-        <v>0.82</v>
-      </c>
-      <c r="AW66">
-        <v>2.89</v>
-      </c>
-      <c r="AX66">
-        <v>0</v>
-      </c>
-      <c r="AY66">
-        <v>0</v>
-      </c>
-      <c r="AZ66">
-        <v>0</v>
-      </c>
-      <c r="BA66">
-        <v>0</v>
-      </c>
-      <c r="BB66">
-        <v>0</v>
-      </c>
-      <c r="BC66">
-        <v>2</v>
-      </c>
-      <c r="BD66">
-        <v>0</v>
-      </c>
-      <c r="BE66">
-        <v>0</v>
-      </c>
-      <c r="BF66">
-        <v>6</v>
-      </c>
-      <c r="BG66">
-        <v>4</v>
-      </c>
-      <c r="BH66">
-        <v>8</v>
-      </c>
       <c r="BI66">
+        <v>14</v>
+      </c>
+      <c r="BJ66">
         <v>12</v>
       </c>
-      <c r="BJ66">
-        <v>14</v>
-      </c>
       <c r="BK66">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67" spans="1:63">
@@ -13526,7 +13562,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>5137150</v>
+        <v>5119640</v>
       </c>
       <c r="C67" t="s">
         <v>63</v>
@@ -13541,10 +13577,10 @@
         <v>7</v>
       </c>
       <c r="G67" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="H67" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I67">
         <v>1</v>
@@ -13559,157 +13595,157 @@
         <v>2</v>
       </c>
       <c r="M67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N67">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O67" t="s">
         <v>147</v>
       </c>
       <c r="P67" t="s">
-        <v>100</v>
+        <v>172</v>
       </c>
       <c r="Q67">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R67">
+        <v>5</v>
+      </c>
+      <c r="S67">
+        <v>10</v>
+      </c>
+      <c r="T67">
+        <v>1.83</v>
+      </c>
+      <c r="U67">
+        <v>2.3</v>
+      </c>
+      <c r="V67">
+        <v>7.5</v>
+      </c>
+      <c r="W67">
+        <v>1.39</v>
+      </c>
+      <c r="X67">
+        <v>2.86</v>
+      </c>
+      <c r="Y67">
+        <v>2.84</v>
+      </c>
+      <c r="Z67">
+        <v>1.39</v>
+      </c>
+      <c r="AA67">
+        <v>6.6</v>
+      </c>
+      <c r="AB67">
+        <v>1.08</v>
+      </c>
+      <c r="AC67">
+        <v>1.36</v>
+      </c>
+      <c r="AD67">
+        <v>4.33</v>
+      </c>
+      <c r="AE67">
+        <v>7</v>
+      </c>
+      <c r="AF67">
+        <v>1.03</v>
+      </c>
+      <c r="AG67">
+        <v>9.75</v>
+      </c>
+      <c r="AH67">
+        <v>1.26</v>
+      </c>
+      <c r="AI67">
+        <v>3.3</v>
+      </c>
+      <c r="AJ67">
+        <v>1.85</v>
+      </c>
+      <c r="AK67">
+        <v>1.89</v>
+      </c>
+      <c r="AL67">
+        <v>2.25</v>
+      </c>
+      <c r="AM67">
+        <v>1.55</v>
+      </c>
+      <c r="AN67">
+        <v>1.07</v>
+      </c>
+      <c r="AO67">
+        <v>1.2</v>
+      </c>
+      <c r="AP67">
+        <v>2.7</v>
+      </c>
+      <c r="AQ67">
+        <v>2.4</v>
+      </c>
+      <c r="AR67">
+        <v>1.67</v>
+      </c>
+      <c r="AS67">
+        <v>2.38</v>
+      </c>
+      <c r="AT67">
+        <v>1.38</v>
+      </c>
+      <c r="AU67">
+        <v>2.07</v>
+      </c>
+      <c r="AV67">
+        <v>0.82</v>
+      </c>
+      <c r="AW67">
+        <v>2.89</v>
+      </c>
+      <c r="AX67">
+        <v>0</v>
+      </c>
+      <c r="AY67">
+        <v>0</v>
+      </c>
+      <c r="AZ67">
+        <v>0</v>
+      </c>
+      <c r="BA67">
+        <v>0</v>
+      </c>
+      <c r="BB67">
+        <v>0</v>
+      </c>
+      <c r="BC67">
+        <v>2</v>
+      </c>
+      <c r="BD67">
+        <v>0</v>
+      </c>
+      <c r="BE67">
+        <v>0</v>
+      </c>
+      <c r="BF67">
         <v>6</v>
       </c>
-      <c r="S67">
-        <v>7</v>
-      </c>
-      <c r="T67">
-        <v>3.4</v>
-      </c>
-      <c r="U67">
-        <v>2.1</v>
-      </c>
-      <c r="V67">
-        <v>3</v>
-      </c>
-      <c r="W67">
-        <v>1.42</v>
-      </c>
-      <c r="X67">
-        <v>2.65</v>
-      </c>
-      <c r="Y67">
-        <v>2.85</v>
-      </c>
-      <c r="Z67">
-        <v>1.37</v>
-      </c>
-      <c r="AA67">
-        <v>7</v>
-      </c>
-      <c r="AB67">
-        <v>1.07</v>
-      </c>
-      <c r="AC67">
-        <v>3.1</v>
-      </c>
-      <c r="AD67">
-        <v>3.25</v>
-      </c>
-      <c r="AE67">
-        <v>2.15</v>
-      </c>
-      <c r="AF67">
-        <v>1.04</v>
-      </c>
-      <c r="AG67">
-        <v>9.5</v>
-      </c>
-      <c r="AH67">
-        <v>1.3</v>
-      </c>
-      <c r="AI67">
-        <v>3.2</v>
-      </c>
-      <c r="AJ67">
-        <v>1.99</v>
-      </c>
-      <c r="AK67">
-        <v>1.82</v>
-      </c>
-      <c r="AL67">
-        <v>1.74</v>
-      </c>
-      <c r="AM67">
-        <v>2.04</v>
-      </c>
-      <c r="AN67">
-        <v>1.66</v>
-      </c>
-      <c r="AO67">
-        <v>1.28</v>
-      </c>
-      <c r="AP67">
-        <v>1.29</v>
-      </c>
-      <c r="AQ67">
-        <v>1.13</v>
-      </c>
-      <c r="AR67">
-        <v>2.17</v>
-      </c>
-      <c r="AS67">
-        <v>1.33</v>
-      </c>
-      <c r="AT67">
-        <v>1.86</v>
-      </c>
-      <c r="AU67">
-        <v>2.29</v>
-      </c>
-      <c r="AV67">
-        <v>2.08</v>
-      </c>
-      <c r="AW67">
-        <v>4.37</v>
-      </c>
-      <c r="AX67">
-        <v>0</v>
-      </c>
-      <c r="AY67">
-        <v>0</v>
-      </c>
-      <c r="AZ67">
-        <v>0</v>
-      </c>
-      <c r="BA67">
-        <v>0</v>
-      </c>
-      <c r="BB67">
-        <v>1.33</v>
-      </c>
-      <c r="BC67">
-        <v>2</v>
-      </c>
-      <c r="BD67">
-        <v>2.02</v>
-      </c>
-      <c r="BE67">
-        <v>2.65</v>
-      </c>
-      <c r="BF67">
-        <v>7</v>
-      </c>
       <c r="BG67">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BH67">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BI67">
+        <v>12</v>
+      </c>
+      <c r="BJ67">
         <v>14</v>
       </c>
-      <c r="BJ67">
-        <v>12</v>
-      </c>
       <c r="BK67">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" spans="1:63">
@@ -13846,10 +13882,10 @@
         <v>0.83</v>
       </c>
       <c r="AS68">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AT68">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU68">
         <v>1.17</v>
@@ -14037,10 +14073,10 @@
         <v>1.75</v>
       </c>
       <c r="AS69">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT69">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU69">
         <v>1.96</v>
@@ -14092,6 +14128,1534 @@
       </c>
       <c r="BK69">
         <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:63">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>5119647</v>
+      </c>
+      <c r="C70" t="s">
+        <v>63</v>
+      </c>
+      <c r="D70" t="s">
+        <v>64</v>
+      </c>
+      <c r="E70" s="2">
+        <v>45007.89583333334</v>
+      </c>
+      <c r="F70">
+        <v>8</v>
+      </c>
+      <c r="G70" t="s">
+        <v>80</v>
+      </c>
+      <c r="H70" t="s">
+        <v>76</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>1</v>
+      </c>
+      <c r="L70">
+        <v>3</v>
+      </c>
+      <c r="M70">
+        <v>1</v>
+      </c>
+      <c r="N70">
+        <v>4</v>
+      </c>
+      <c r="O70" t="s">
+        <v>149</v>
+      </c>
+      <c r="P70" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q70">
+        <v>10</v>
+      </c>
+      <c r="R70">
+        <v>0</v>
+      </c>
+      <c r="S70">
+        <v>10</v>
+      </c>
+      <c r="T70">
+        <v>1.67</v>
+      </c>
+      <c r="U70">
+        <v>2.5</v>
+      </c>
+      <c r="V70">
+        <v>9.5</v>
+      </c>
+      <c r="W70">
+        <v>1.29</v>
+      </c>
+      <c r="X70">
+        <v>3.32</v>
+      </c>
+      <c r="Y70">
+        <v>2.38</v>
+      </c>
+      <c r="Z70">
+        <v>1.52</v>
+      </c>
+      <c r="AA70">
+        <v>5.25</v>
+      </c>
+      <c r="AB70">
+        <v>1.11</v>
+      </c>
+      <c r="AC70">
+        <v>1.18</v>
+      </c>
+      <c r="AD70">
+        <v>5.85</v>
+      </c>
+      <c r="AE70">
+        <v>9.380000000000001</v>
+      </c>
+      <c r="AF70">
+        <v>1.02</v>
+      </c>
+      <c r="AG70">
+        <v>16.75</v>
+      </c>
+      <c r="AH70">
+        <v>1.17</v>
+      </c>
+      <c r="AI70">
+        <v>4.2</v>
+      </c>
+      <c r="AJ70">
+        <v>1.6</v>
+      </c>
+      <c r="AK70">
+        <v>2.14</v>
+      </c>
+      <c r="AL70">
+        <v>2.35</v>
+      </c>
+      <c r="AM70">
+        <v>1.5</v>
+      </c>
+      <c r="AN70">
+        <v>1</v>
+      </c>
+      <c r="AO70">
+        <v>1.07</v>
+      </c>
+      <c r="AP70">
+        <v>4.55</v>
+      </c>
+      <c r="AQ70">
+        <v>1.86</v>
+      </c>
+      <c r="AR70">
+        <v>0.86</v>
+      </c>
+      <c r="AS70">
+        <v>2</v>
+      </c>
+      <c r="AT70">
+        <v>0.75</v>
+      </c>
+      <c r="AU70">
+        <v>1.64</v>
+      </c>
+      <c r="AV70">
+        <v>1.44</v>
+      </c>
+      <c r="AW70">
+        <v>3.08</v>
+      </c>
+      <c r="AX70">
+        <v>0</v>
+      </c>
+      <c r="AY70">
+        <v>0</v>
+      </c>
+      <c r="AZ70">
+        <v>0</v>
+      </c>
+      <c r="BA70">
+        <v>0</v>
+      </c>
+      <c r="BB70">
+        <v>0</v>
+      </c>
+      <c r="BC70">
+        <v>1.44</v>
+      </c>
+      <c r="BD70">
+        <v>1.8</v>
+      </c>
+      <c r="BE70">
+        <v>2.25</v>
+      </c>
+      <c r="BF70">
+        <v>10</v>
+      </c>
+      <c r="BG70">
+        <v>3</v>
+      </c>
+      <c r="BH70">
+        <v>13</v>
+      </c>
+      <c r="BI70">
+        <v>3</v>
+      </c>
+      <c r="BJ70">
+        <v>23</v>
+      </c>
+      <c r="BK70">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:63">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>5119646</v>
+      </c>
+      <c r="C71" t="s">
+        <v>63</v>
+      </c>
+      <c r="D71" t="s">
+        <v>64</v>
+      </c>
+      <c r="E71" s="2">
+        <v>45007.89583333334</v>
+      </c>
+      <c r="F71">
+        <v>8</v>
+      </c>
+      <c r="G71" t="s">
+        <v>83</v>
+      </c>
+      <c r="H71" t="s">
+        <v>78</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
+      <c r="L71">
+        <v>2</v>
+      </c>
+      <c r="M71">
+        <v>2</v>
+      </c>
+      <c r="N71">
+        <v>4</v>
+      </c>
+      <c r="O71" t="s">
+        <v>150</v>
+      </c>
+      <c r="P71" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q71">
+        <v>4</v>
+      </c>
+      <c r="R71">
+        <v>3</v>
+      </c>
+      <c r="S71">
+        <v>7</v>
+      </c>
+      <c r="T71">
+        <v>2.2</v>
+      </c>
+      <c r="U71">
+        <v>2.1</v>
+      </c>
+      <c r="V71">
+        <v>5.5</v>
+      </c>
+      <c r="W71">
+        <v>1.48</v>
+      </c>
+      <c r="X71">
+        <v>2.59</v>
+      </c>
+      <c r="Y71">
+        <v>3.19</v>
+      </c>
+      <c r="Z71">
+        <v>1.32</v>
+      </c>
+      <c r="AA71">
+        <v>7.25</v>
+      </c>
+      <c r="AB71">
+        <v>1.06</v>
+      </c>
+      <c r="AC71">
+        <v>1.5</v>
+      </c>
+      <c r="AD71">
+        <v>3.7</v>
+      </c>
+      <c r="AE71">
+        <v>5.32</v>
+      </c>
+      <c r="AF71">
+        <v>1.02</v>
+      </c>
+      <c r="AG71">
+        <v>8</v>
+      </c>
+      <c r="AH71">
+        <v>1.32</v>
+      </c>
+      <c r="AI71">
+        <v>2.8</v>
+      </c>
+      <c r="AJ71">
+        <v>1.98</v>
+      </c>
+      <c r="AK71">
+        <v>1.7</v>
+      </c>
+      <c r="AL71">
+        <v>2.05</v>
+      </c>
+      <c r="AM71">
+        <v>1.62</v>
+      </c>
+      <c r="AN71">
+        <v>1.17</v>
+      </c>
+      <c r="AO71">
+        <v>1.28</v>
+      </c>
+      <c r="AP71">
+        <v>2</v>
+      </c>
+      <c r="AQ71">
+        <v>1.43</v>
+      </c>
+      <c r="AR71">
+        <v>1.14</v>
+      </c>
+      <c r="AS71">
+        <v>1.38</v>
+      </c>
+      <c r="AT71">
+        <v>1.13</v>
+      </c>
+      <c r="AU71">
+        <v>1.88</v>
+      </c>
+      <c r="AV71">
+        <v>1.6</v>
+      </c>
+      <c r="AW71">
+        <v>3.48</v>
+      </c>
+      <c r="AX71">
+        <v>0</v>
+      </c>
+      <c r="AY71">
+        <v>0</v>
+      </c>
+      <c r="AZ71">
+        <v>0</v>
+      </c>
+      <c r="BA71">
+        <v>0</v>
+      </c>
+      <c r="BB71">
+        <v>1.46</v>
+      </c>
+      <c r="BC71">
+        <v>2.38</v>
+      </c>
+      <c r="BD71">
+        <v>2.38</v>
+      </c>
+      <c r="BE71">
+        <v>3.25</v>
+      </c>
+      <c r="BF71">
+        <v>4</v>
+      </c>
+      <c r="BG71">
+        <v>3</v>
+      </c>
+      <c r="BH71">
+        <v>1</v>
+      </c>
+      <c r="BI71">
+        <v>5</v>
+      </c>
+      <c r="BJ71">
+        <v>5</v>
+      </c>
+      <c r="BK71">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:63">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>5119645</v>
+      </c>
+      <c r="C72" t="s">
+        <v>63</v>
+      </c>
+      <c r="D72" t="s">
+        <v>64</v>
+      </c>
+      <c r="E72" s="2">
+        <v>45007.89583333334</v>
+      </c>
+      <c r="F72">
+        <v>8</v>
+      </c>
+      <c r="G72" t="s">
+        <v>82</v>
+      </c>
+      <c r="H72" t="s">
+        <v>77</v>
+      </c>
+      <c r="I72">
+        <v>2</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>2</v>
+      </c>
+      <c r="L72">
+        <v>3</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>3</v>
+      </c>
+      <c r="O72" t="s">
+        <v>151</v>
+      </c>
+      <c r="P72" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q72">
+        <v>4</v>
+      </c>
+      <c r="R72">
+        <v>4</v>
+      </c>
+      <c r="S72">
+        <v>8</v>
+      </c>
+      <c r="T72">
+        <v>3.2</v>
+      </c>
+      <c r="U72">
+        <v>2.05</v>
+      </c>
+      <c r="V72">
+        <v>3.25</v>
+      </c>
+      <c r="W72">
+        <v>1.43</v>
+      </c>
+      <c r="X72">
+        <v>2.62</v>
+      </c>
+      <c r="Y72">
+        <v>2.99</v>
+      </c>
+      <c r="Z72">
+        <v>1.34</v>
+      </c>
+      <c r="AA72">
+        <v>7</v>
+      </c>
+      <c r="AB72">
+        <v>1.07</v>
+      </c>
+      <c r="AC72">
+        <v>2.5</v>
+      </c>
+      <c r="AD72">
+        <v>3.25</v>
+      </c>
+      <c r="AE72">
+        <v>2.4</v>
+      </c>
+      <c r="AF72">
+        <v>1.06</v>
+      </c>
+      <c r="AG72">
+        <v>9.9</v>
+      </c>
+      <c r="AH72">
+        <v>1.34</v>
+      </c>
+      <c r="AI72">
+        <v>3</v>
+      </c>
+      <c r="AJ72">
+        <v>1.98</v>
+      </c>
+      <c r="AK72">
+        <v>1.7</v>
+      </c>
+      <c r="AL72">
+        <v>1.81</v>
+      </c>
+      <c r="AM72">
+        <v>1.95</v>
+      </c>
+      <c r="AN72">
+        <v>1.44</v>
+      </c>
+      <c r="AO72">
+        <v>1.31</v>
+      </c>
+      <c r="AP72">
+        <v>1.43</v>
+      </c>
+      <c r="AQ72">
+        <v>0.86</v>
+      </c>
+      <c r="AR72">
+        <v>1.86</v>
+      </c>
+      <c r="AS72">
+        <v>1.13</v>
+      </c>
+      <c r="AT72">
+        <v>1.63</v>
+      </c>
+      <c r="AU72">
+        <v>2.32</v>
+      </c>
+      <c r="AV72">
+        <v>1.64</v>
+      </c>
+      <c r="AW72">
+        <v>3.96</v>
+      </c>
+      <c r="AX72">
+        <v>0</v>
+      </c>
+      <c r="AY72">
+        <v>0</v>
+      </c>
+      <c r="AZ72">
+        <v>0</v>
+      </c>
+      <c r="BA72">
+        <v>0</v>
+      </c>
+      <c r="BB72">
+        <v>1.41</v>
+      </c>
+      <c r="BC72">
+        <v>2.1</v>
+      </c>
+      <c r="BD72">
+        <v>2.23</v>
+      </c>
+      <c r="BE72">
+        <v>3</v>
+      </c>
+      <c r="BF72">
+        <v>9</v>
+      </c>
+      <c r="BG72">
+        <v>2</v>
+      </c>
+      <c r="BH72">
+        <v>8</v>
+      </c>
+      <c r="BI72">
+        <v>2</v>
+      </c>
+      <c r="BJ72">
+        <v>17</v>
+      </c>
+      <c r="BK72">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:63">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>5137152</v>
+      </c>
+      <c r="C73" t="s">
+        <v>63</v>
+      </c>
+      <c r="D73" t="s">
+        <v>64</v>
+      </c>
+      <c r="E73" s="2">
+        <v>45007.89583333334</v>
+      </c>
+      <c r="F73">
+        <v>8</v>
+      </c>
+      <c r="G73" t="s">
+        <v>84</v>
+      </c>
+      <c r="H73" t="s">
+        <v>65</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+      <c r="L73">
+        <v>2</v>
+      </c>
+      <c r="M73">
+        <v>1</v>
+      </c>
+      <c r="N73">
+        <v>3</v>
+      </c>
+      <c r="O73" t="s">
+        <v>152</v>
+      </c>
+      <c r="P73" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q73">
+        <v>1</v>
+      </c>
+      <c r="R73">
+        <v>3</v>
+      </c>
+      <c r="S73">
+        <v>4</v>
+      </c>
+      <c r="T73">
+        <v>3.05</v>
+      </c>
+      <c r="U73">
+        <v>2.06</v>
+      </c>
+      <c r="V73">
+        <v>3.25</v>
+      </c>
+      <c r="W73">
+        <v>1.42</v>
+      </c>
+      <c r="X73">
+        <v>2.75</v>
+      </c>
+      <c r="Y73">
+        <v>3</v>
+      </c>
+      <c r="Z73">
+        <v>1.33</v>
+      </c>
+      <c r="AA73">
+        <v>7.3</v>
+      </c>
+      <c r="AB73">
+        <v>1.07</v>
+      </c>
+      <c r="AC73">
+        <v>2.35</v>
+      </c>
+      <c r="AD73">
+        <v>3.25</v>
+      </c>
+      <c r="AE73">
+        <v>2.55</v>
+      </c>
+      <c r="AF73">
+        <v>1.05</v>
+      </c>
+      <c r="AG73">
+        <v>10.25</v>
+      </c>
+      <c r="AH73">
+        <v>1.3</v>
+      </c>
+      <c r="AI73">
+        <v>3.2</v>
+      </c>
+      <c r="AJ73">
+        <v>1.98</v>
+      </c>
+      <c r="AK73">
+        <v>1.7</v>
+      </c>
+      <c r="AL73">
+        <v>1.89</v>
+      </c>
+      <c r="AM73">
+        <v>1.89</v>
+      </c>
+      <c r="AN73">
+        <v>1.32</v>
+      </c>
+      <c r="AO73">
+        <v>1.35</v>
+      </c>
+      <c r="AP73">
+        <v>1.37</v>
+      </c>
+      <c r="AQ73">
+        <v>0.71</v>
+      </c>
+      <c r="AR73">
+        <v>1.33</v>
+      </c>
+      <c r="AS73">
+        <v>1</v>
+      </c>
+      <c r="AT73">
+        <v>1.2</v>
+      </c>
+      <c r="AU73">
+        <v>1.25</v>
+      </c>
+      <c r="AV73">
+        <v>1.35</v>
+      </c>
+      <c r="AW73">
+        <v>2.6</v>
+      </c>
+      <c r="AX73">
+        <v>0</v>
+      </c>
+      <c r="AY73">
+        <v>0</v>
+      </c>
+      <c r="AZ73">
+        <v>0</v>
+      </c>
+      <c r="BA73">
+        <v>0</v>
+      </c>
+      <c r="BB73">
+        <v>1.49</v>
+      </c>
+      <c r="BC73">
+        <v>2.38</v>
+      </c>
+      <c r="BD73">
+        <v>2.45</v>
+      </c>
+      <c r="BE73">
+        <v>3.35</v>
+      </c>
+      <c r="BF73">
+        <v>7</v>
+      </c>
+      <c r="BG73">
+        <v>6</v>
+      </c>
+      <c r="BH73">
+        <v>2</v>
+      </c>
+      <c r="BI73">
+        <v>6</v>
+      </c>
+      <c r="BJ73">
+        <v>9</v>
+      </c>
+      <c r="BK73">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:63">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>5137153</v>
+      </c>
+      <c r="C74" t="s">
+        <v>63</v>
+      </c>
+      <c r="D74" t="s">
+        <v>64</v>
+      </c>
+      <c r="E74" s="2">
+        <v>45007.89583333334</v>
+      </c>
+      <c r="F74">
+        <v>8</v>
+      </c>
+      <c r="G74" t="s">
+        <v>67</v>
+      </c>
+      <c r="H74" t="s">
+        <v>75</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74">
+        <v>2</v>
+      </c>
+      <c r="L74">
+        <v>1</v>
+      </c>
+      <c r="M74">
+        <v>3</v>
+      </c>
+      <c r="N74">
+        <v>4</v>
+      </c>
+      <c r="O74" t="s">
+        <v>153</v>
+      </c>
+      <c r="P74" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q74">
+        <v>7</v>
+      </c>
+      <c r="R74">
+        <v>12</v>
+      </c>
+      <c r="S74">
+        <v>19</v>
+      </c>
+      <c r="T74">
+        <v>7.6</v>
+      </c>
+      <c r="U74">
+        <v>2.11</v>
+      </c>
+      <c r="V74">
+        <v>2</v>
+      </c>
+      <c r="W74">
+        <v>1.46</v>
+      </c>
+      <c r="X74">
+        <v>2.53</v>
+      </c>
+      <c r="Y74">
+        <v>3.15</v>
+      </c>
+      <c r="Z74">
+        <v>1.31</v>
+      </c>
+      <c r="AA74">
+        <v>9</v>
+      </c>
+      <c r="AB74">
+        <v>1.05</v>
+      </c>
+      <c r="AC74">
+        <v>4.77</v>
+      </c>
+      <c r="AD74">
+        <v>3.7</v>
+      </c>
+      <c r="AE74">
+        <v>1.55</v>
+      </c>
+      <c r="AF74">
+        <v>1.07</v>
+      </c>
+      <c r="AG74">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="AH74">
+        <v>1.36</v>
+      </c>
+      <c r="AI74">
+        <v>2.78</v>
+      </c>
+      <c r="AJ74">
+        <v>2.04</v>
+      </c>
+      <c r="AK74">
+        <v>1.66</v>
+      </c>
+      <c r="AL74">
+        <v>2.38</v>
+      </c>
+      <c r="AM74">
+        <v>1.49</v>
+      </c>
+      <c r="AN74">
+        <v>2.21</v>
+      </c>
+      <c r="AO74">
+        <v>1.24</v>
+      </c>
+      <c r="AP74">
+        <v>1.1</v>
+      </c>
+      <c r="AQ74">
+        <v>1.22</v>
+      </c>
+      <c r="AR74">
+        <v>2.29</v>
+      </c>
+      <c r="AS74">
+        <v>1.1</v>
+      </c>
+      <c r="AT74">
+        <v>2.38</v>
+      </c>
+      <c r="AU74">
+        <v>1.36</v>
+      </c>
+      <c r="AV74">
+        <v>1.91</v>
+      </c>
+      <c r="AW74">
+        <v>3.27</v>
+      </c>
+      <c r="AX74">
+        <v>0</v>
+      </c>
+      <c r="AY74">
+        <v>0</v>
+      </c>
+      <c r="AZ74">
+        <v>0</v>
+      </c>
+      <c r="BA74">
+        <v>0</v>
+      </c>
+      <c r="BB74">
+        <v>1.3</v>
+      </c>
+      <c r="BC74">
+        <v>1.83</v>
+      </c>
+      <c r="BD74">
+        <v>1.95</v>
+      </c>
+      <c r="BE74">
+        <v>2.5</v>
+      </c>
+      <c r="BF74">
+        <v>5</v>
+      </c>
+      <c r="BG74">
+        <v>9</v>
+      </c>
+      <c r="BH74">
+        <v>7</v>
+      </c>
+      <c r="BI74">
+        <v>11</v>
+      </c>
+      <c r="BJ74">
+        <v>12</v>
+      </c>
+      <c r="BK74">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="1:63">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>5137154</v>
+      </c>
+      <c r="C75" t="s">
+        <v>63</v>
+      </c>
+      <c r="D75" t="s">
+        <v>64</v>
+      </c>
+      <c r="E75" s="2">
+        <v>45007.89583333334</v>
+      </c>
+      <c r="F75">
+        <v>8</v>
+      </c>
+      <c r="G75" t="s">
+        <v>71</v>
+      </c>
+      <c r="H75" t="s">
+        <v>74</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+      <c r="K75">
+        <v>1</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>4</v>
+      </c>
+      <c r="N75">
+        <v>4</v>
+      </c>
+      <c r="O75" t="s">
+        <v>100</v>
+      </c>
+      <c r="P75" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q75">
+        <v>6</v>
+      </c>
+      <c r="R75">
+        <v>4</v>
+      </c>
+      <c r="S75">
+        <v>10</v>
+      </c>
+      <c r="T75">
+        <v>5</v>
+      </c>
+      <c r="U75">
+        <v>2.2</v>
+      </c>
+      <c r="V75">
+        <v>2.2</v>
+      </c>
+      <c r="W75">
+        <v>1.43</v>
+      </c>
+      <c r="X75">
+        <v>2.61</v>
+      </c>
+      <c r="Y75">
+        <v>3.15</v>
+      </c>
+      <c r="Z75">
+        <v>1.34</v>
+      </c>
+      <c r="AA75">
+        <v>7.9</v>
+      </c>
+      <c r="AB75">
+        <v>1.05</v>
+      </c>
+      <c r="AC75">
+        <v>4.94</v>
+      </c>
+      <c r="AD75">
+        <v>3.45</v>
+      </c>
+      <c r="AE75">
+        <v>1.58</v>
+      </c>
+      <c r="AF75">
+        <v>1.05</v>
+      </c>
+      <c r="AG75">
+        <v>8.75</v>
+      </c>
+      <c r="AH75">
+        <v>1.31</v>
+      </c>
+      <c r="AI75">
+        <v>2.85</v>
+      </c>
+      <c r="AJ75">
+        <v>2.05</v>
+      </c>
+      <c r="AK75">
+        <v>1.65</v>
+      </c>
+      <c r="AL75">
+        <v>1.86</v>
+      </c>
+      <c r="AM75">
+        <v>1.76</v>
+      </c>
+      <c r="AN75">
+        <v>2.05</v>
+      </c>
+      <c r="AO75">
+        <v>1.29</v>
+      </c>
+      <c r="AP75">
+        <v>1.16</v>
+      </c>
+      <c r="AQ75">
+        <v>1.67</v>
+      </c>
+      <c r="AR75">
+        <v>2.14</v>
+      </c>
+      <c r="AS75">
+        <v>1.5</v>
+      </c>
+      <c r="AT75">
+        <v>2.25</v>
+      </c>
+      <c r="AU75">
+        <v>1.82</v>
+      </c>
+      <c r="AV75">
+        <v>1.7</v>
+      </c>
+      <c r="AW75">
+        <v>3.52</v>
+      </c>
+      <c r="AX75">
+        <v>0</v>
+      </c>
+      <c r="AY75">
+        <v>0</v>
+      </c>
+      <c r="AZ75">
+        <v>0</v>
+      </c>
+      <c r="BA75">
+        <v>0</v>
+      </c>
+      <c r="BB75">
+        <v>1.33</v>
+      </c>
+      <c r="BC75">
+        <v>2</v>
+      </c>
+      <c r="BD75">
+        <v>2.02</v>
+      </c>
+      <c r="BE75">
+        <v>2.65</v>
+      </c>
+      <c r="BF75">
+        <v>6</v>
+      </c>
+      <c r="BG75">
+        <v>8</v>
+      </c>
+      <c r="BH75">
+        <v>5</v>
+      </c>
+      <c r="BI75">
+        <v>7</v>
+      </c>
+      <c r="BJ75">
+        <v>11</v>
+      </c>
+      <c r="BK75">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:63">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>5137155</v>
+      </c>
+      <c r="C76" t="s">
+        <v>63</v>
+      </c>
+      <c r="D76" t="s">
+        <v>64</v>
+      </c>
+      <c r="E76" s="2">
+        <v>45007.89583333334</v>
+      </c>
+      <c r="F76">
+        <v>8</v>
+      </c>
+      <c r="G76" t="s">
+        <v>79</v>
+      </c>
+      <c r="H76" t="s">
+        <v>70</v>
+      </c>
+      <c r="I76">
+        <v>2</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>2</v>
+      </c>
+      <c r="L76">
+        <v>3</v>
+      </c>
+      <c r="M76">
+        <v>2</v>
+      </c>
+      <c r="N76">
+        <v>5</v>
+      </c>
+      <c r="O76" t="s">
+        <v>154</v>
+      </c>
+      <c r="P76" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q76">
+        <v>4</v>
+      </c>
+      <c r="R76">
+        <v>7</v>
+      </c>
+      <c r="S76">
+        <v>11</v>
+      </c>
+      <c r="T76">
+        <v>2.4</v>
+      </c>
+      <c r="U76">
+        <v>2.1</v>
+      </c>
+      <c r="V76">
+        <v>4.75</v>
+      </c>
+      <c r="W76">
+        <v>1.4</v>
+      </c>
+      <c r="X76">
+        <v>2.73</v>
+      </c>
+      <c r="Y76">
+        <v>2.9</v>
+      </c>
+      <c r="Z76">
+        <v>1.36</v>
+      </c>
+      <c r="AA76">
+        <v>8</v>
+      </c>
+      <c r="AB76">
+        <v>1.06</v>
+      </c>
+      <c r="AC76">
+        <v>1.55</v>
+      </c>
+      <c r="AD76">
+        <v>3.8</v>
+      </c>
+      <c r="AE76">
+        <v>4.62</v>
+      </c>
+      <c r="AF76">
+        <v>1.04</v>
+      </c>
+      <c r="AG76">
+        <v>8.5</v>
+      </c>
+      <c r="AH76">
+        <v>1.3</v>
+      </c>
+      <c r="AI76">
+        <v>3.08</v>
+      </c>
+      <c r="AJ76">
+        <v>1.83</v>
+      </c>
+      <c r="AK76">
+        <v>1.83</v>
+      </c>
+      <c r="AL76">
+        <v>1.85</v>
+      </c>
+      <c r="AM76">
+        <v>1.81</v>
+      </c>
+      <c r="AN76">
+        <v>1.14</v>
+      </c>
+      <c r="AO76">
+        <v>1.24</v>
+      </c>
+      <c r="AP76">
+        <v>2.07</v>
+      </c>
+      <c r="AQ76">
+        <v>1.43</v>
+      </c>
+      <c r="AR76">
+        <v>1.67</v>
+      </c>
+      <c r="AS76">
+        <v>1.63</v>
+      </c>
+      <c r="AT76">
+        <v>1.5</v>
+      </c>
+      <c r="AU76">
+        <v>1.46</v>
+      </c>
+      <c r="AV76">
+        <v>1.31</v>
+      </c>
+      <c r="AW76">
+        <v>2.77</v>
+      </c>
+      <c r="AX76">
+        <v>0</v>
+      </c>
+      <c r="AY76">
+        <v>0</v>
+      </c>
+      <c r="AZ76">
+        <v>0</v>
+      </c>
+      <c r="BA76">
+        <v>0</v>
+      </c>
+      <c r="BB76">
+        <v>1.37</v>
+      </c>
+      <c r="BC76">
+        <v>2.1</v>
+      </c>
+      <c r="BD76">
+        <v>1.49</v>
+      </c>
+      <c r="BE76">
+        <v>1.8</v>
+      </c>
+      <c r="BF76">
+        <v>11</v>
+      </c>
+      <c r="BG76">
+        <v>6</v>
+      </c>
+      <c r="BH76">
+        <v>5</v>
+      </c>
+      <c r="BI76">
+        <v>7</v>
+      </c>
+      <c r="BJ76">
+        <v>16</v>
+      </c>
+      <c r="BK76">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:63">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>5119644</v>
+      </c>
+      <c r="C77" t="s">
+        <v>63</v>
+      </c>
+      <c r="D77" t="s">
+        <v>64</v>
+      </c>
+      <c r="E77" s="2">
+        <v>45007.89583333334</v>
+      </c>
+      <c r="F77">
+        <v>8</v>
+      </c>
+      <c r="G77" t="s">
+        <v>81</v>
+      </c>
+      <c r="H77" t="s">
+        <v>73</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>3</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>3</v>
+      </c>
+      <c r="O77" t="s">
+        <v>155</v>
+      </c>
+      <c r="P77" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q77">
+        <v>6</v>
+      </c>
+      <c r="R77">
+        <v>5</v>
+      </c>
+      <c r="S77">
+        <v>11</v>
+      </c>
+      <c r="T77">
+        <v>1.5</v>
+      </c>
+      <c r="U77">
+        <v>2.75</v>
+      </c>
+      <c r="V77">
+        <v>13</v>
+      </c>
+      <c r="W77">
+        <v>1.27</v>
+      </c>
+      <c r="X77">
+        <v>3.42</v>
+      </c>
+      <c r="Y77">
+        <v>2.32</v>
+      </c>
+      <c r="Z77">
+        <v>1.54</v>
+      </c>
+      <c r="AA77">
+        <v>5.25</v>
+      </c>
+      <c r="AB77">
+        <v>1.13</v>
+      </c>
+      <c r="AC77">
+        <v>1.2</v>
+      </c>
+      <c r="AD77">
+        <v>5.7</v>
+      </c>
+      <c r="AE77">
+        <v>8.6</v>
+      </c>
+      <c r="AF77">
+        <v>1.01</v>
+      </c>
+      <c r="AG77">
+        <v>17</v>
+      </c>
+      <c r="AH77">
+        <v>1.16</v>
+      </c>
+      <c r="AI77">
+        <v>4.4</v>
+      </c>
+      <c r="AJ77">
+        <v>1.57</v>
+      </c>
+      <c r="AK77">
+        <v>2.19</v>
+      </c>
+      <c r="AL77">
+        <v>2.88</v>
+      </c>
+      <c r="AM77">
+        <v>1.34</v>
+      </c>
+      <c r="AN77">
+        <v>1.02</v>
+      </c>
+      <c r="AO77">
+        <v>1.11</v>
+      </c>
+      <c r="AP77">
+        <v>3.52</v>
+      </c>
+      <c r="AQ77">
+        <v>1.57</v>
+      </c>
+      <c r="AR77">
+        <v>0.43</v>
+      </c>
+      <c r="AS77">
+        <v>1.75</v>
+      </c>
+      <c r="AT77">
+        <v>0.38</v>
+      </c>
+      <c r="AU77">
+        <v>1.56</v>
+      </c>
+      <c r="AV77">
+        <v>1.27</v>
+      </c>
+      <c r="AW77">
+        <v>2.83</v>
+      </c>
+      <c r="AX77">
+        <v>0</v>
+      </c>
+      <c r="AY77">
+        <v>0</v>
+      </c>
+      <c r="AZ77">
+        <v>0</v>
+      </c>
+      <c r="BA77">
+        <v>0</v>
+      </c>
+      <c r="BB77">
+        <v>0</v>
+      </c>
+      <c r="BC77">
+        <v>2</v>
+      </c>
+      <c r="BD77">
+        <v>0</v>
+      </c>
+      <c r="BE77">
+        <v>0</v>
+      </c>
+      <c r="BF77">
+        <v>4</v>
+      </c>
+      <c r="BG77">
+        <v>5</v>
+      </c>
+      <c r="BH77">
+        <v>6</v>
+      </c>
+      <c r="BI77">
+        <v>11</v>
+      </c>
+      <c r="BJ77">
+        <v>10</v>
+      </c>
+      <c r="BK77">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Brazil Copa do Nordeste_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Brazil Copa do Nordeste_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="191">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -482,6 +482,9 @@
   </si>
   <si>
     <t>['47', '49', '69']</t>
+  </si>
+  <si>
+    <t>['5', '7', '43', '72']</t>
   </si>
   <si>
     <t>['17']</t>
@@ -945,7 +948,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK77"/>
+  <dimension ref="A1:BK78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1189,7 +1192,7 @@
         <v>93</v>
       </c>
       <c r="P2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q2">
         <v>18</v>
@@ -1380,7 +1383,7 @@
         <v>94</v>
       </c>
       <c r="P3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q3">
         <v>-1</v>
@@ -1571,7 +1574,7 @@
         <v>95</v>
       </c>
       <c r="P4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -2144,7 +2147,7 @@
         <v>98</v>
       </c>
       <c r="P7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2231,7 +2234,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT7">
         <v>1</v>
@@ -2998,7 +3001,7 @@
         <v>2</v>
       </c>
       <c r="AT11">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU11">
         <v>0.96</v>
@@ -3290,7 +3293,7 @@
         <v>102</v>
       </c>
       <c r="P13" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3950,7 +3953,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT16">
         <v>1</v>
@@ -4245,7 +4248,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q18">
         <v>10</v>
@@ -4714,7 +4717,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT20">
         <v>2</v>
@@ -5096,7 +5099,7 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT22">
         <v>1.38</v>
@@ -5200,7 +5203,7 @@
         <v>109</v>
       </c>
       <c r="P23" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5672,7 +5675,7 @@
         <v>1.75</v>
       </c>
       <c r="AT25">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AU25">
         <v>0</v>
@@ -5773,7 +5776,7 @@
         <v>112</v>
       </c>
       <c r="P26" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q26">
         <v>6</v>
@@ -5863,7 +5866,7 @@
         <v>1.13</v>
       </c>
       <c r="AT26">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU26">
         <v>0</v>
@@ -6155,7 +6158,7 @@
         <v>114</v>
       </c>
       <c r="P28" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6346,7 +6349,7 @@
         <v>100</v>
       </c>
       <c r="P29" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -6537,7 +6540,7 @@
         <v>115</v>
       </c>
       <c r="P30" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -7009,7 +7012,7 @@
         <v>1.1</v>
       </c>
       <c r="AT32">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU32">
         <v>1.31</v>
@@ -7110,7 +7113,7 @@
         <v>117</v>
       </c>
       <c r="P33" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7301,7 +7304,7 @@
         <v>100</v>
       </c>
       <c r="P34" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q34">
         <v>9</v>
@@ -7391,7 +7394,7 @@
         <v>1.13</v>
       </c>
       <c r="AT34">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AU34">
         <v>2.52</v>
@@ -7492,7 +7495,7 @@
         <v>118</v>
       </c>
       <c r="P35" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q35">
         <v>2</v>
@@ -7683,7 +7686,7 @@
         <v>119</v>
       </c>
       <c r="P36" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q36">
         <v>5</v>
@@ -8447,7 +8450,7 @@
         <v>123</v>
       </c>
       <c r="P40" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q40">
         <v>1</v>
@@ -8725,7 +8728,7 @@
         <v>1.8</v>
       </c>
       <c r="AS41">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT41">
         <v>1.1</v>
@@ -8829,7 +8832,7 @@
         <v>125</v>
       </c>
       <c r="P42" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q42">
         <v>5</v>
@@ -9107,7 +9110,7 @@
         <v>1.5</v>
       </c>
       <c r="AS43">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT43">
         <v>1.38</v>
@@ -9211,7 +9214,7 @@
         <v>126</v>
       </c>
       <c r="P44" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -9593,7 +9596,7 @@
         <v>128</v>
       </c>
       <c r="P46" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q46">
         <v>1</v>
@@ -9784,7 +9787,7 @@
         <v>129</v>
       </c>
       <c r="P47" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -9975,7 +9978,7 @@
         <v>130</v>
       </c>
       <c r="P48" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -10166,7 +10169,7 @@
         <v>131</v>
       </c>
       <c r="P49" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q49">
         <v>10</v>
@@ -10253,7 +10256,7 @@
         <v>1.75</v>
       </c>
       <c r="AS49">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT49">
         <v>1.75</v>
@@ -10548,7 +10551,7 @@
         <v>133</v>
       </c>
       <c r="P51" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q51">
         <v>7</v>
@@ -10739,7 +10742,7 @@
         <v>134</v>
       </c>
       <c r="P52" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q52">
         <v>8</v>
@@ -10930,7 +10933,7 @@
         <v>135</v>
       </c>
       <c r="P53" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q53">
         <v>4</v>
@@ -11017,7 +11020,7 @@
         <v>2</v>
       </c>
       <c r="AS53">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT53">
         <v>1.63</v>
@@ -11121,7 +11124,7 @@
         <v>100</v>
       </c>
       <c r="P54" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q54">
         <v>6</v>
@@ -11312,7 +11315,7 @@
         <v>136</v>
       </c>
       <c r="P55" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -11402,7 +11405,7 @@
         <v>1</v>
       </c>
       <c r="AT55">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU55">
         <v>0.88</v>
@@ -11885,7 +11888,7 @@
         <v>138</v>
       </c>
       <c r="P58" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q58">
         <v>11</v>
@@ -12076,7 +12079,7 @@
         <v>139</v>
       </c>
       <c r="P59" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q59">
         <v>7</v>
@@ -12357,7 +12360,7 @@
         <v>2</v>
       </c>
       <c r="AT60">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AU60">
         <v>1.77</v>
@@ -12458,7 +12461,7 @@
         <v>141</v>
       </c>
       <c r="P61" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13031,7 +13034,7 @@
         <v>144</v>
       </c>
       <c r="P64" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q64">
         <v>9</v>
@@ -13118,7 +13121,7 @@
         <v>2</v>
       </c>
       <c r="AS64">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT64">
         <v>1.5</v>
@@ -13222,7 +13225,7 @@
         <v>145</v>
       </c>
       <c r="P65" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q65">
         <v>7</v>
@@ -13604,7 +13607,7 @@
         <v>147</v>
       </c>
       <c r="P67" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q67">
         <v>5</v>
@@ -14177,7 +14180,7 @@
         <v>149</v>
       </c>
       <c r="P70" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q70">
         <v>10</v>
@@ -14368,7 +14371,7 @@
         <v>150</v>
       </c>
       <c r="P71" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -14941,7 +14944,7 @@
         <v>153</v>
       </c>
       <c r="P74" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q74">
         <v>7</v>
@@ -15132,7 +15135,7 @@
         <v>100</v>
       </c>
       <c r="P75" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q75">
         <v>6</v>
@@ -15222,7 +15225,7 @@
         <v>1.5</v>
       </c>
       <c r="AT75">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AU75">
         <v>1.82</v>
@@ -15323,7 +15326,7 @@
         <v>154</v>
       </c>
       <c r="P76" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -15413,7 +15416,7 @@
         <v>1.63</v>
       </c>
       <c r="AT76">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU76">
         <v>1.46</v>
@@ -15656,6 +15659,197 @@
       </c>
       <c r="BK77">
         <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="1:63">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>5701887</v>
+      </c>
+      <c r="C78" t="s">
+        <v>63</v>
+      </c>
+      <c r="D78" t="s">
+        <v>64</v>
+      </c>
+      <c r="E78" s="2">
+        <v>45010.6875</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78" t="s">
+        <v>74</v>
+      </c>
+      <c r="H78" t="s">
+        <v>70</v>
+      </c>
+      <c r="I78">
+        <v>3</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>3</v>
+      </c>
+      <c r="L78">
+        <v>4</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>4</v>
+      </c>
+      <c r="O78" t="s">
+        <v>156</v>
+      </c>
+      <c r="P78" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q78">
+        <v>4</v>
+      </c>
+      <c r="R78">
+        <v>3</v>
+      </c>
+      <c r="S78">
+        <v>7</v>
+      </c>
+      <c r="T78">
+        <v>1.73</v>
+      </c>
+      <c r="U78">
+        <v>2.3</v>
+      </c>
+      <c r="V78">
+        <v>9</v>
+      </c>
+      <c r="W78">
+        <v>1.38</v>
+      </c>
+      <c r="X78">
+        <v>2.85</v>
+      </c>
+      <c r="Y78">
+        <v>2.75</v>
+      </c>
+      <c r="Z78">
+        <v>1.4</v>
+      </c>
+      <c r="AA78">
+        <v>6.25</v>
+      </c>
+      <c r="AB78">
+        <v>1.09</v>
+      </c>
+      <c r="AC78">
+        <v>1.3</v>
+      </c>
+      <c r="AD78">
+        <v>4.5</v>
+      </c>
+      <c r="AE78">
+        <v>11</v>
+      </c>
+      <c r="AF78">
+        <v>1.03</v>
+      </c>
+      <c r="AG78">
+        <v>12.25</v>
+      </c>
+      <c r="AH78">
+        <v>1.28</v>
+      </c>
+      <c r="AI78">
+        <v>3.35</v>
+      </c>
+      <c r="AJ78">
+        <v>1.81</v>
+      </c>
+      <c r="AK78">
+        <v>2.01</v>
+      </c>
+      <c r="AL78">
+        <v>2.45</v>
+      </c>
+      <c r="AM78">
+        <v>1.5</v>
+      </c>
+      <c r="AN78">
+        <v>1.05</v>
+      </c>
+      <c r="AO78">
+        <v>1.11</v>
+      </c>
+      <c r="AP78">
+        <v>3.6</v>
+      </c>
+      <c r="AQ78">
+        <v>2.25</v>
+      </c>
+      <c r="AR78">
+        <v>1.5</v>
+      </c>
+      <c r="AS78">
+        <v>2.33</v>
+      </c>
+      <c r="AT78">
+        <v>1.36</v>
+      </c>
+      <c r="AU78">
+        <v>2.17</v>
+      </c>
+      <c r="AV78">
+        <v>1.35</v>
+      </c>
+      <c r="AW78">
+        <v>3.52</v>
+      </c>
+      <c r="AX78">
+        <v>0</v>
+      </c>
+      <c r="AY78">
+        <v>0</v>
+      </c>
+      <c r="AZ78">
+        <v>0</v>
+      </c>
+      <c r="BA78">
+        <v>0</v>
+      </c>
+      <c r="BB78">
+        <v>0</v>
+      </c>
+      <c r="BC78">
+        <v>0</v>
+      </c>
+      <c r="BD78">
+        <v>0</v>
+      </c>
+      <c r="BE78">
+        <v>0</v>
+      </c>
+      <c r="BF78">
+        <v>10</v>
+      </c>
+      <c r="BG78">
+        <v>5</v>
+      </c>
+      <c r="BH78">
+        <v>8</v>
+      </c>
+      <c r="BI78">
+        <v>9</v>
+      </c>
+      <c r="BJ78">
+        <v>18</v>
+      </c>
+      <c r="BK78">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Brazil Copa do Nordeste_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Brazil Copa do Nordeste_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="194">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -253,12 +253,12 @@
     <t>Sampaio Corrêa</t>
   </si>
   <si>
+    <t>Ceará</t>
+  </si>
+  <si>
     <t>Náutico</t>
   </si>
   <si>
-    <t>Ceará</t>
-  </si>
-  <si>
     <t>ABC</t>
   </si>
   <si>
@@ -325,12 +325,12 @@
     <t>['31', '55']</t>
   </si>
   <si>
+    <t>['45+3', '65']</t>
+  </si>
+  <si>
     <t>['66']</t>
   </si>
   <si>
-    <t>['45+3', '65']</t>
-  </si>
-  <si>
     <t>['49', '88']</t>
   </si>
   <si>
@@ -343,12 +343,12 @@
     <t>['33']</t>
   </si>
   <si>
+    <t>['36', '70']</t>
+  </si>
+  <si>
     <t>['34', '76']</t>
   </si>
   <si>
-    <t>['36', '70']</t>
-  </si>
-  <si>
     <t>['3', '70']</t>
   </si>
   <si>
@@ -376,12 +376,12 @@
     <t>['71', '83']</t>
   </si>
   <si>
+    <t>['26', '61']</t>
+  </si>
+  <si>
     <t>['22', '45+4']</t>
   </si>
   <si>
-    <t>['26', '61']</t>
-  </si>
-  <si>
     <t>['73']</t>
   </si>
   <si>
@@ -400,21 +400,21 @@
     <t>['87']</t>
   </si>
   <si>
+    <t>['20', '30']</t>
+  </si>
+  <si>
     <t>['32']</t>
   </si>
   <si>
-    <t>['20', '30']</t>
+    <t>['6', '77']</t>
+  </si>
+  <si>
+    <t>['18', '26', '36', '55', '59', '90+3']</t>
   </si>
   <si>
     <t>['50', '78']</t>
   </si>
   <si>
-    <t>['6', '77']</t>
-  </si>
-  <si>
-    <t>['18', '26', '36', '55', '59', '90+3']</t>
-  </si>
-  <si>
     <t>['3', '19']</t>
   </si>
   <si>
@@ -430,12 +430,12 @@
     <t>['16', '19', '28']</t>
   </si>
   <si>
+    <t>['45+4']</t>
+  </si>
+  <si>
     <t>['31', '71', '82']</t>
   </si>
   <si>
-    <t>['45+4']</t>
-  </si>
-  <si>
     <t>['12', '25']</t>
   </si>
   <si>
@@ -454,15 +454,24 @@
     <t>['90+1']</t>
   </si>
   <si>
+    <t>['33', '89']</t>
+  </si>
+  <si>
     <t>['23', '86']</t>
   </si>
   <si>
-    <t>['33', '89']</t>
-  </si>
-  <si>
     <t>['49']</t>
   </si>
   <si>
+    <t>['26', '43', '65']</t>
+  </si>
+  <si>
+    <t>['47', '49', '69']</t>
+  </si>
+  <si>
+    <t>['10', '76']</t>
+  </si>
+  <si>
     <t>['45', '87', '90+5']</t>
   </si>
   <si>
@@ -472,21 +481,21 @@
     <t>['3', '29', '90+1']</t>
   </si>
   <si>
-    <t>['10', '76']</t>
-  </si>
-  <si>
     <t>['13']</t>
   </si>
   <si>
-    <t>['26', '43', '65']</t>
-  </si>
-  <si>
-    <t>['47', '49', '69']</t>
-  </si>
-  <si>
     <t>['5', '7', '43', '72']</t>
   </si>
   <si>
+    <t>['14', '45+4', '78']</t>
+  </si>
+  <si>
+    <t>['33', '59', '78', '88']</t>
+  </si>
+  <si>
+    <t>['17', '45+3', '90+1']</t>
+  </si>
+  <si>
     <t>['17']</t>
   </si>
   <si>
@@ -517,12 +526,12 @@
     <t>['40']</t>
   </si>
   <si>
+    <t>['18', '80']</t>
+  </si>
+  <si>
     <t>['3', '25', '37']</t>
   </si>
   <si>
-    <t>['18', '80']</t>
-  </si>
-  <si>
     <t>['60']</t>
   </si>
   <si>
@@ -535,18 +544,18 @@
     <t>['58']</t>
   </si>
   <si>
+    <t>['48']</t>
+  </si>
+  <si>
     <t>['67']</t>
   </si>
   <si>
-    <t>['48']</t>
+    <t>['52', '80']</t>
   </si>
   <si>
     <t>['8', '21', '38', '73', '87']</t>
   </si>
   <si>
-    <t>['52', '80']</t>
-  </si>
-  <si>
     <t>['12', '60', '76']</t>
   </si>
   <si>
@@ -562,18 +571,24 @@
     <t>['17', '73', '85']</t>
   </si>
   <si>
+    <t>['9']</t>
+  </si>
+  <si>
     <t>['29']</t>
   </si>
   <si>
-    <t>['9']</t>
-  </si>
-  <si>
     <t>['14']</t>
   </si>
   <si>
     <t>['71']</t>
   </si>
   <si>
+    <t>['78', '82']</t>
+  </si>
+  <si>
+    <t>['1', '62', '65', '87']</t>
+  </si>
+  <si>
     <t>['51']</t>
   </si>
   <si>
@@ -581,12 +596,6 @@
   </si>
   <si>
     <t>['45+5', '47', '72']</t>
-  </si>
-  <si>
-    <t>['1', '62', '65', '87']</t>
-  </si>
-  <si>
-    <t>['78', '82']</t>
   </si>
 </sst>
 </file>
@@ -948,7 +957,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK78"/>
+  <dimension ref="A1:BK81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1192,7 +1201,7 @@
         <v>93</v>
       </c>
       <c r="P2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q2">
         <v>18</v>
@@ -1383,7 +1392,7 @@
         <v>94</v>
       </c>
       <c r="P3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q3">
         <v>-1</v>
@@ -1574,7 +1583,7 @@
         <v>95</v>
       </c>
       <c r="P4" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -2147,7 +2156,7 @@
         <v>98</v>
       </c>
       <c r="P7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2678,7 +2687,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>5119650</v>
+        <v>5119649</v>
       </c>
       <c r="C10" t="s">
         <v>63</v>
@@ -2693,53 +2702,53 @@
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P10" t="s">
         <v>100</v>
       </c>
       <c r="Q10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R10">
+        <v>3</v>
+      </c>
+      <c r="S10">
+        <v>7</v>
+      </c>
+      <c r="T10">
+        <v>2.88</v>
+      </c>
+      <c r="U10">
+        <v>1.95</v>
+      </c>
+      <c r="V10">
         <v>4</v>
       </c>
-      <c r="S10">
-        <v>10</v>
-      </c>
-      <c r="T10">
-        <v>2.5</v>
-      </c>
-      <c r="U10">
-        <v>2</v>
-      </c>
-      <c r="V10">
-        <v>4.75</v>
-      </c>
       <c r="W10">
         <v>0</v>
       </c>
@@ -2759,13 +2768,13 @@
         <v>0</v>
       </c>
       <c r="AC10">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="AD10">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="AE10">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -2786,10 +2795,10 @@
         <v>1.57</v>
       </c>
       <c r="AL10">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="AM10">
-        <v>1.65</v>
+        <v>1.78</v>
       </c>
       <c r="AN10">
         <v>0</v>
@@ -2807,19 +2816,19 @@
         <v>3</v>
       </c>
       <c r="AS10">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="AT10">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AU10">
-        <v>3.77</v>
+        <v>1.25</v>
       </c>
       <c r="AV10">
         <v>0</v>
       </c>
       <c r="AW10">
-        <v>3.77</v>
+        <v>1.25</v>
       </c>
       <c r="AX10">
         <v>0</v>
@@ -2846,22 +2855,22 @@
         <v>0</v>
       </c>
       <c r="BF10">
+        <v>2</v>
+      </c>
+      <c r="BG10">
+        <v>5</v>
+      </c>
+      <c r="BH10">
         <v>8</v>
       </c>
-      <c r="BG10">
-        <v>2</v>
-      </c>
-      <c r="BH10">
+      <c r="BI10">
+        <v>6</v>
+      </c>
+      <c r="BJ10">
+        <v>10</v>
+      </c>
+      <c r="BK10">
         <v>11</v>
-      </c>
-      <c r="BI10">
-        <v>5</v>
-      </c>
-      <c r="BJ10">
-        <v>19</v>
-      </c>
-      <c r="BK10">
-        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:63">
@@ -3060,7 +3069,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>5119649</v>
+        <v>5119650</v>
       </c>
       <c r="C12" t="s">
         <v>63</v>
@@ -3075,79 +3084,79 @@
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P12" t="s">
         <v>100</v>
       </c>
       <c r="Q12">
+        <v>6</v>
+      </c>
+      <c r="R12">
         <v>4</v>
       </c>
-      <c r="R12">
-        <v>3</v>
-      </c>
       <c r="S12">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="T12">
-        <v>2.88</v>
+        <v>2.5</v>
       </c>
       <c r="U12">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V12">
+        <v>4.75</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>1.8</v>
+      </c>
+      <c r="AD12">
+        <v>3.3</v>
+      </c>
+      <c r="AE12">
         <v>4</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
-      <c r="AC12">
-        <v>2.15</v>
-      </c>
-      <c r="AD12">
-        <v>3.1</v>
-      </c>
-      <c r="AE12">
-        <v>3.1</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -3168,10 +3177,10 @@
         <v>1.57</v>
       </c>
       <c r="AL12">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="AM12">
-        <v>1.78</v>
+        <v>1.65</v>
       </c>
       <c r="AN12">
         <v>0</v>
@@ -3189,19 +3198,19 @@
         <v>3</v>
       </c>
       <c r="AS12">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="AT12">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AU12">
-        <v>1.25</v>
+        <v>3.77</v>
       </c>
       <c r="AV12">
         <v>0</v>
       </c>
       <c r="AW12">
-        <v>1.25</v>
+        <v>3.77</v>
       </c>
       <c r="AX12">
         <v>0</v>
@@ -3228,22 +3237,22 @@
         <v>0</v>
       </c>
       <c r="BF12">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BG12">
+        <v>2</v>
+      </c>
+      <c r="BH12">
+        <v>11</v>
+      </c>
+      <c r="BI12">
         <v>5</v>
       </c>
-      <c r="BH12">
-        <v>8</v>
-      </c>
-      <c r="BI12">
-        <v>6</v>
-      </c>
       <c r="BJ12">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="BK12">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:63">
@@ -3293,7 +3302,7 @@
         <v>102</v>
       </c>
       <c r="P13" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3633,7 +3642,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>5137156</v>
+        <v>5119613</v>
       </c>
       <c r="C15" t="s">
         <v>63</v>
@@ -3648,25 +3657,25 @@
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="H15" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>2</v>
@@ -3675,106 +3684,106 @@
         <v>103</v>
       </c>
       <c r="P15" t="s">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="Q15">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="R15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S15">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="T15">
-        <v>2.3</v>
+        <v>1.67</v>
       </c>
       <c r="U15">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="V15">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="W15">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="X15">
-        <v>2.65</v>
+        <v>2.88</v>
       </c>
       <c r="Y15">
-        <v>3.04</v>
+        <v>2.8</v>
       </c>
       <c r="Z15">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="AA15">
-        <v>7.1</v>
+        <v>6.7</v>
       </c>
       <c r="AB15">
         <v>1.07</v>
       </c>
       <c r="AC15">
-        <v>1.92</v>
+        <v>1.27</v>
       </c>
       <c r="AD15">
-        <v>3.35</v>
+        <v>4.7</v>
       </c>
       <c r="AE15">
-        <v>3.55</v>
+        <v>9.6</v>
       </c>
       <c r="AF15">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AG15">
-        <v>8.300000000000001</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AH15">
-        <v>1.34</v>
+        <v>1.25</v>
       </c>
       <c r="AI15">
-        <v>2.88</v>
+        <v>3.6</v>
       </c>
       <c r="AJ15">
-        <v>1.96</v>
+        <v>1.85</v>
       </c>
       <c r="AK15">
-        <v>1.68</v>
+        <v>1.78</v>
       </c>
       <c r="AL15">
-        <v>1.99</v>
+        <v>2.8</v>
       </c>
       <c r="AM15">
-        <v>1.73</v>
+        <v>1.38</v>
       </c>
       <c r="AN15">
-        <v>1.23</v>
+        <v>1.01</v>
       </c>
       <c r="AO15">
-        <v>1.25</v>
+        <v>1.13</v>
       </c>
       <c r="AP15">
-        <v>1.79</v>
+        <v>3.5</v>
       </c>
       <c r="AQ15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AR15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT15">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU15">
-        <v>2.87</v>
+        <v>0</v>
       </c>
       <c r="AV15">
         <v>0</v>
       </c>
       <c r="AW15">
-        <v>2.87</v>
+        <v>0</v>
       </c>
       <c r="AX15">
         <v>0</v>
@@ -3789,34 +3798,34 @@
         <v>0</v>
       </c>
       <c r="BB15">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="BC15">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="BD15">
-        <v>1.91</v>
+        <v>2.12</v>
       </c>
       <c r="BE15">
-        <v>2.5</v>
+        <v>2.85</v>
       </c>
       <c r="BF15">
+        <v>9</v>
+      </c>
+      <c r="BG15">
+        <v>2</v>
+      </c>
+      <c r="BH15">
         <v>8</v>
       </c>
-      <c r="BG15">
-        <v>3</v>
-      </c>
-      <c r="BH15">
-        <v>12</v>
-      </c>
       <c r="BI15">
+        <v>3</v>
+      </c>
+      <c r="BJ15">
+        <v>17</v>
+      </c>
+      <c r="BK15">
         <v>5</v>
-      </c>
-      <c r="BJ15">
-        <v>20</v>
-      </c>
-      <c r="BK15">
-        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:63">
@@ -3824,7 +3833,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>5119613</v>
+        <v>5137156</v>
       </c>
       <c r="C16" t="s">
         <v>63</v>
@@ -3839,25 +3848,25 @@
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="H16" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16">
         <v>2</v>
@@ -3866,106 +3875,106 @@
         <v>104</v>
       </c>
       <c r="P16" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
       <c r="Q16">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="R16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S16">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="T16">
-        <v>1.67</v>
+        <v>2.3</v>
       </c>
       <c r="U16">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="V16">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="W16">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="X16">
-        <v>2.88</v>
+        <v>2.65</v>
       </c>
       <c r="Y16">
-        <v>2.8</v>
+        <v>3.04</v>
       </c>
       <c r="Z16">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="AA16">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="AB16">
         <v>1.07</v>
       </c>
       <c r="AC16">
-        <v>1.27</v>
+        <v>1.92</v>
       </c>
       <c r="AD16">
-        <v>4.7</v>
+        <v>3.35</v>
       </c>
       <c r="AE16">
-        <v>9.6</v>
+        <v>3.55</v>
       </c>
       <c r="AF16">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AG16">
-        <v>9.300000000000001</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AH16">
+        <v>1.34</v>
+      </c>
+      <c r="AI16">
+        <v>2.88</v>
+      </c>
+      <c r="AJ16">
+        <v>1.96</v>
+      </c>
+      <c r="AK16">
+        <v>1.68</v>
+      </c>
+      <c r="AL16">
+        <v>1.99</v>
+      </c>
+      <c r="AM16">
+        <v>1.73</v>
+      </c>
+      <c r="AN16">
+        <v>1.23</v>
+      </c>
+      <c r="AO16">
         <v>1.25</v>
       </c>
-      <c r="AI16">
-        <v>3.6</v>
-      </c>
-      <c r="AJ16">
-        <v>1.85</v>
-      </c>
-      <c r="AK16">
-        <v>1.78</v>
-      </c>
-      <c r="AL16">
-        <v>2.8</v>
-      </c>
-      <c r="AM16">
-        <v>1.38</v>
-      </c>
-      <c r="AN16">
-        <v>1.01</v>
-      </c>
-      <c r="AO16">
-        <v>1.13</v>
-      </c>
       <c r="AP16">
-        <v>3.5</v>
+        <v>1.79</v>
       </c>
       <c r="AQ16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AR16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS16">
-        <v>2.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT16">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AU16">
-        <v>0</v>
+        <v>2.87</v>
       </c>
       <c r="AV16">
         <v>0</v>
       </c>
       <c r="AW16">
-        <v>0</v>
+        <v>2.87</v>
       </c>
       <c r="AX16">
         <v>0</v>
@@ -3980,34 +3989,34 @@
         <v>0</v>
       </c>
       <c r="BB16">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="BC16">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="BD16">
-        <v>2.12</v>
+        <v>1.91</v>
       </c>
       <c r="BE16">
-        <v>2.85</v>
+        <v>2.5</v>
       </c>
       <c r="BF16">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BG16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BH16">
+        <v>12</v>
+      </c>
+      <c r="BI16">
+        <v>5</v>
+      </c>
+      <c r="BJ16">
+        <v>20</v>
+      </c>
+      <c r="BK16">
         <v>8</v>
-      </c>
-      <c r="BI16">
-        <v>3</v>
-      </c>
-      <c r="BJ16">
-        <v>17</v>
-      </c>
-      <c r="BK16">
-        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:63">
@@ -4144,10 +4153,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT17">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4224,7 +4233,7 @@
         <v>76</v>
       </c>
       <c r="H18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -4248,7 +4257,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q18">
         <v>10</v>
@@ -4338,7 +4347,7 @@
         <v>0.75</v>
       </c>
       <c r="AT18">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4526,10 +4535,10 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT19">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -4606,7 +4615,7 @@
         <v>70</v>
       </c>
       <c r="H20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I20">
         <v>2</v>
@@ -4720,7 +4729,7 @@
         <v>1.36</v>
       </c>
       <c r="AT20">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AU20">
         <v>1.86</v>
@@ -5102,7 +5111,7 @@
         <v>2.33</v>
       </c>
       <c r="AT22">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU22">
         <v>2.38</v>
@@ -5161,7 +5170,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>5119619</v>
+        <v>5119620</v>
       </c>
       <c r="C23" t="s">
         <v>63</v>
@@ -5179,7 +5188,7 @@
         <v>79</v>
       </c>
       <c r="H23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -5194,106 +5203,106 @@
         <v>2</v>
       </c>
       <c r="M23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O23" t="s">
         <v>109</v>
       </c>
       <c r="P23" t="s">
-        <v>162</v>
+        <v>100</v>
       </c>
       <c r="Q23">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R23">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="S23">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="T23">
-        <v>3.25</v>
+        <v>2.38</v>
       </c>
       <c r="U23">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="V23">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="W23">
-        <v>1.52</v>
+        <v>1.44</v>
       </c>
       <c r="X23">
-        <v>2.48</v>
+        <v>2.66</v>
       </c>
       <c r="Y23">
-        <v>3.1</v>
+        <v>3.09</v>
       </c>
       <c r="Z23">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="AA23">
-        <v>8.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AB23">
         <v>1.04</v>
       </c>
       <c r="AC23">
-        <v>2.31</v>
+        <v>1.62</v>
       </c>
       <c r="AD23">
-        <v>3.1</v>
+        <v>3.68</v>
       </c>
       <c r="AE23">
-        <v>3.09</v>
+        <v>5.25</v>
       </c>
       <c r="AF23">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AG23">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AH23">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AI23">
-        <v>2.35</v>
+        <v>2.75</v>
       </c>
       <c r="AJ23">
-        <v>2.19</v>
+        <v>2.08</v>
       </c>
       <c r="AK23">
-        <v>1.53</v>
+        <v>1.73</v>
       </c>
       <c r="AL23">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="AM23">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="AN23">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AO23">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="AP23">
-        <v>1.76</v>
+        <v>1.96</v>
       </c>
       <c r="AQ23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AR23">
         <v>3</v>
       </c>
       <c r="AS23">
-        <v>1.63</v>
+        <v>2.11</v>
       </c>
       <c r="AT23">
-        <v>1.63</v>
+        <v>1.13</v>
       </c>
       <c r="AU23">
         <v>0</v>
@@ -5320,31 +5329,31 @@
         <v>0</v>
       </c>
       <c r="BC23">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="BD23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE23">
         <v>0</v>
       </c>
       <c r="BF23">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="BG23">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BH23">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="BI23">
+        <v>8</v>
+      </c>
+      <c r="BJ23">
+        <v>17</v>
+      </c>
+      <c r="BK23">
         <v>11</v>
-      </c>
-      <c r="BJ23">
-        <v>14</v>
-      </c>
-      <c r="BK23">
-        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:63">
@@ -5352,7 +5361,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>5119620</v>
+        <v>5119619</v>
       </c>
       <c r="C24" t="s">
         <v>63</v>
@@ -5370,7 +5379,7 @@
         <v>80</v>
       </c>
       <c r="H24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -5385,106 +5394,106 @@
         <v>2</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O24" t="s">
         <v>110</v>
       </c>
       <c r="P24" t="s">
-        <v>100</v>
+        <v>165</v>
       </c>
       <c r="Q24">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R24">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="S24">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="T24">
-        <v>2.38</v>
+        <v>3.25</v>
       </c>
       <c r="U24">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="V24">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="W24">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="X24">
-        <v>2.66</v>
+        <v>2.48</v>
       </c>
       <c r="Y24">
-        <v>3.09</v>
+        <v>3.1</v>
       </c>
       <c r="Z24">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="AA24">
-        <v>8.300000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="AB24">
         <v>1.04</v>
       </c>
       <c r="AC24">
-        <v>1.62</v>
+        <v>2.31</v>
       </c>
       <c r="AD24">
-        <v>3.68</v>
+        <v>3.1</v>
       </c>
       <c r="AE24">
-        <v>5.25</v>
+        <v>3.09</v>
       </c>
       <c r="AF24">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AG24">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="AH24">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AI24">
-        <v>2.75</v>
+        <v>2.35</v>
       </c>
       <c r="AJ24">
-        <v>2.08</v>
+        <v>2.19</v>
       </c>
       <c r="AK24">
-        <v>1.73</v>
+        <v>1.53</v>
       </c>
       <c r="AL24">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="AM24">
+        <v>1.77</v>
+      </c>
+      <c r="AN24">
+        <v>1.22</v>
+      </c>
+      <c r="AO24">
+        <v>1.32</v>
+      </c>
+      <c r="AP24">
         <v>1.76</v>
       </c>
-      <c r="AN24">
-        <v>1.16</v>
-      </c>
-      <c r="AO24">
-        <v>1.29</v>
-      </c>
-      <c r="AP24">
-        <v>1.96</v>
-      </c>
       <c r="AQ24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AR24">
         <v>3</v>
       </c>
       <c r="AS24">
-        <v>2</v>
+        <v>1.44</v>
       </c>
       <c r="AT24">
-        <v>1.13</v>
+        <v>1.44</v>
       </c>
       <c r="AU24">
         <v>0</v>
@@ -5511,31 +5520,31 @@
         <v>0</v>
       </c>
       <c r="BC24">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="BD24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BE24">
         <v>0</v>
       </c>
       <c r="BF24">
+        <v>4</v>
+      </c>
+      <c r="BG24">
+        <v>7</v>
+      </c>
+      <c r="BH24">
+        <v>10</v>
+      </c>
+      <c r="BI24">
         <v>11</v>
       </c>
-      <c r="BG24">
-        <v>3</v>
-      </c>
-      <c r="BH24">
-        <v>6</v>
-      </c>
-      <c r="BI24">
-        <v>8</v>
-      </c>
       <c r="BJ24">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="BK24">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:63">
@@ -5672,7 +5681,7 @@
         <v>3</v>
       </c>
       <c r="AS25">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT25">
         <v>2.33</v>
@@ -5776,7 +5785,7 @@
         <v>112</v>
       </c>
       <c r="P26" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q26">
         <v>6</v>
@@ -6054,7 +6063,7 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT27">
         <v>0.75</v>
@@ -6158,7 +6167,7 @@
         <v>114</v>
       </c>
       <c r="P28" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6349,7 +6358,7 @@
         <v>100</v>
       </c>
       <c r="P29" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -6439,7 +6448,7 @@
         <v>1</v>
       </c>
       <c r="AT29">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AU29">
         <v>0</v>
@@ -6540,7 +6549,7 @@
         <v>115</v>
       </c>
       <c r="P30" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -6821,7 +6830,7 @@
         <v>1</v>
       </c>
       <c r="AT31">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU31">
         <v>1</v>
@@ -7113,7 +7122,7 @@
         <v>117</v>
       </c>
       <c r="P33" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7262,7 +7271,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>5119624</v>
+        <v>5119623</v>
       </c>
       <c r="C34" t="s">
         <v>63</v>
@@ -7277,79 +7286,79 @@
         <v>3</v>
       </c>
       <c r="G34" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H34" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K34">
         <v>3</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N34">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O34" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="P34" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q34">
+        <v>2</v>
+      </c>
+      <c r="R34">
+        <v>7</v>
+      </c>
+      <c r="S34">
         <v>9</v>
-      </c>
-      <c r="R34">
-        <v>3</v>
-      </c>
-      <c r="S34">
-        <v>12</v>
       </c>
       <c r="T34">
         <v>2.88</v>
       </c>
       <c r="U34">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V34">
         <v>3.75</v>
       </c>
       <c r="W34">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="X34">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="Y34">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="Z34">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="AA34">
-        <v>7.5</v>
+        <v>7.25</v>
       </c>
       <c r="AB34">
         <v>1.06</v>
       </c>
       <c r="AC34">
-        <v>2.25</v>
+        <v>1.92</v>
       </c>
       <c r="AD34">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AE34">
-        <v>3.1</v>
+        <v>3.85</v>
       </c>
       <c r="AF34">
         <v>1.07</v>
@@ -7358,52 +7367,52 @@
         <v>9.1</v>
       </c>
       <c r="AH34">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="AI34">
-        <v>3.05</v>
+        <v>2.94</v>
       </c>
       <c r="AJ34">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="AK34">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="AL34">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="AM34">
         <v>1.85</v>
       </c>
       <c r="AN34">
+        <v>1.3</v>
+      </c>
+      <c r="AO34">
         <v>1.28</v>
       </c>
-      <c r="AO34">
-        <v>1.3</v>
-      </c>
       <c r="AP34">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="AQ34">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="AR34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS34">
-        <v>1.13</v>
+        <v>2.11</v>
       </c>
       <c r="AT34">
-        <v>2.33</v>
+        <v>2.44</v>
       </c>
       <c r="AU34">
-        <v>2.52</v>
+        <v>2.17</v>
       </c>
       <c r="AV34">
-        <v>1.24</v>
+        <v>1.5</v>
       </c>
       <c r="AW34">
-        <v>3.76</v>
+        <v>3.67</v>
       </c>
       <c r="AX34">
         <v>0</v>
@@ -7418,34 +7427,34 @@
         <v>0</v>
       </c>
       <c r="BB34">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="BC34">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="BD34">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="BE34">
-        <v>2.65</v>
+        <v>2.43</v>
       </c>
       <c r="BF34">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BG34">
         <v>6</v>
       </c>
       <c r="BH34">
+        <v>5</v>
+      </c>
+      <c r="BI34">
         <v>10</v>
       </c>
-      <c r="BI34">
-        <v>7</v>
-      </c>
       <c r="BJ34">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="BK34">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:63">
@@ -7453,7 +7462,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>5119623</v>
+        <v>5119624</v>
       </c>
       <c r="C35" t="s">
         <v>63</v>
@@ -7468,79 +7477,79 @@
         <v>3</v>
       </c>
       <c r="G35" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K35">
         <v>3</v>
       </c>
       <c r="L35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N35">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O35" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="P35" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q35">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="R35">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="S35">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="T35">
         <v>2.88</v>
       </c>
       <c r="U35">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V35">
         <v>3.75</v>
       </c>
       <c r="W35">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="X35">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="Y35">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="Z35">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="AA35">
-        <v>7.25</v>
+        <v>7.5</v>
       </c>
       <c r="AB35">
         <v>1.06</v>
       </c>
       <c r="AC35">
-        <v>1.92</v>
+        <v>2.25</v>
       </c>
       <c r="AD35">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AE35">
-        <v>3.85</v>
+        <v>3.1</v>
       </c>
       <c r="AF35">
         <v>1.07</v>
@@ -7549,52 +7558,52 @@
         <v>9.1</v>
       </c>
       <c r="AH35">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="AI35">
-        <v>2.94</v>
+        <v>3.05</v>
       </c>
       <c r="AJ35">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="AK35">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="AL35">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="AM35">
         <v>1.85</v>
       </c>
       <c r="AN35">
+        <v>1.28</v>
+      </c>
+      <c r="AO35">
         <v>1.3</v>
       </c>
-      <c r="AO35">
-        <v>1.28</v>
-      </c>
       <c r="AP35">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="AQ35">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="AR35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS35">
-        <v>2</v>
+        <v>1.13</v>
       </c>
       <c r="AT35">
-        <v>2.38</v>
+        <v>2.33</v>
       </c>
       <c r="AU35">
-        <v>2.17</v>
+        <v>2.52</v>
       </c>
       <c r="AV35">
-        <v>1.5</v>
+        <v>1.24</v>
       </c>
       <c r="AW35">
-        <v>3.67</v>
+        <v>3.76</v>
       </c>
       <c r="AX35">
         <v>0</v>
@@ -7609,34 +7618,34 @@
         <v>0</v>
       </c>
       <c r="BB35">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="BC35">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="BD35">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="BE35">
-        <v>2.43</v>
+        <v>2.65</v>
       </c>
       <c r="BF35">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BG35">
         <v>6</v>
       </c>
       <c r="BH35">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BI35">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BJ35">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="BK35">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:63">
@@ -7686,7 +7695,7 @@
         <v>119</v>
       </c>
       <c r="P36" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q36">
         <v>5</v>
@@ -7773,7 +7782,7 @@
         <v>1.75</v>
       </c>
       <c r="AS36">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT36">
         <v>1.2</v>
@@ -7835,7 +7844,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>5119622</v>
+        <v>5119626</v>
       </c>
       <c r="C37" t="s">
         <v>63</v>
@@ -7850,19 +7859,19 @@
         <v>3</v>
       </c>
       <c r="G37" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H37" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J37">
         <v>0</v>
       </c>
       <c r="K37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L37">
         <v>2</v>
@@ -7880,121 +7889,121 @@
         <v>100</v>
       </c>
       <c r="Q37">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R37">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S37">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="T37">
-        <v>2.26</v>
+        <v>2.73</v>
       </c>
       <c r="U37">
-        <v>2.09</v>
+        <v>1.95</v>
       </c>
       <c r="V37">
-        <v>5.1</v>
+        <v>4.2</v>
       </c>
       <c r="W37">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
       <c r="X37">
-        <v>2.69</v>
+        <v>2.47</v>
       </c>
       <c r="Y37">
-        <v>2.9</v>
+        <v>3.28</v>
       </c>
       <c r="Z37">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="AA37">
-        <v>7.4</v>
+        <v>8.5</v>
       </c>
       <c r="AB37">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="AC37">
-        <v>1.67</v>
+        <v>2.25</v>
       </c>
       <c r="AD37">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="AE37">
-        <v>4.5</v>
+        <v>2.88</v>
       </c>
       <c r="AF37">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="AG37">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AH37">
+        <v>1.4</v>
+      </c>
+      <c r="AI37">
+        <v>2.64</v>
+      </c>
+      <c r="AJ37">
+        <v>2.35</v>
+      </c>
+      <c r="AK37">
+        <v>1.57</v>
+      </c>
+      <c r="AL37">
+        <v>1.95</v>
+      </c>
+      <c r="AM37">
+        <v>1.72</v>
+      </c>
+      <c r="AN37">
+        <v>1.27</v>
+      </c>
+      <c r="AO37">
+        <v>1.3</v>
+      </c>
+      <c r="AP37">
+        <v>1.65</v>
+      </c>
+      <c r="AQ37">
+        <v>1.5</v>
+      </c>
+      <c r="AR37">
+        <v>1.5</v>
+      </c>
+      <c r="AS37">
+        <v>1.89</v>
+      </c>
+      <c r="AT37">
+        <v>1.13</v>
+      </c>
+      <c r="AU37">
+        <v>1.64</v>
+      </c>
+      <c r="AV37">
         <v>1.31</v>
       </c>
-      <c r="AI37">
-        <v>3.04</v>
-      </c>
-      <c r="AJ37">
-        <v>2</v>
-      </c>
-      <c r="AK37">
-        <v>1.8</v>
-      </c>
-      <c r="AL37">
+      <c r="AW37">
+        <v>2.95</v>
+      </c>
+      <c r="AX37">
+        <v>0</v>
+      </c>
+      <c r="AY37">
+        <v>0</v>
+      </c>
+      <c r="AZ37">
+        <v>0</v>
+      </c>
+      <c r="BA37">
+        <v>0</v>
+      </c>
+      <c r="BB37">
+        <v>0</v>
+      </c>
+      <c r="BC37">
         <v>1.9</v>
-      </c>
-      <c r="AM37">
-        <v>1.77</v>
-      </c>
-      <c r="AN37">
-        <v>1.15</v>
-      </c>
-      <c r="AO37">
-        <v>1.25</v>
-      </c>
-      <c r="AP37">
-        <v>2.02</v>
-      </c>
-      <c r="AQ37">
-        <v>2</v>
-      </c>
-      <c r="AR37">
-        <v>1</v>
-      </c>
-      <c r="AS37">
-        <v>1.63</v>
-      </c>
-      <c r="AT37">
-        <v>0.38</v>
-      </c>
-      <c r="AU37">
-        <v>1.43</v>
-      </c>
-      <c r="AV37">
-        <v>1.39</v>
-      </c>
-      <c r="AW37">
-        <v>2.82</v>
-      </c>
-      <c r="AX37">
-        <v>0</v>
-      </c>
-      <c r="AY37">
-        <v>0</v>
-      </c>
-      <c r="AZ37">
-        <v>0</v>
-      </c>
-      <c r="BA37">
-        <v>0</v>
-      </c>
-      <c r="BB37">
-        <v>0</v>
-      </c>
-      <c r="BC37">
-        <v>1.95</v>
       </c>
       <c r="BD37">
         <v>0</v>
@@ -8006,19 +8015,19 @@
         <v>5</v>
       </c>
       <c r="BG37">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BH37">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BI37">
         <v>6</v>
       </c>
       <c r="BJ37">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BK37">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:63">
@@ -8026,7 +8035,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>5119626</v>
+        <v>5119622</v>
       </c>
       <c r="C38" t="s">
         <v>63</v>
@@ -8041,19 +8050,19 @@
         <v>3</v>
       </c>
       <c r="G38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H38" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J38">
         <v>0</v>
       </c>
       <c r="K38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L38">
         <v>2</v>
@@ -8071,121 +8080,121 @@
         <v>100</v>
       </c>
       <c r="Q38">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R38">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S38">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="T38">
-        <v>2.73</v>
+        <v>2.26</v>
       </c>
       <c r="U38">
+        <v>2.09</v>
+      </c>
+      <c r="V38">
+        <v>5.1</v>
+      </c>
+      <c r="W38">
+        <v>1.41</v>
+      </c>
+      <c r="X38">
+        <v>2.69</v>
+      </c>
+      <c r="Y38">
+        <v>2.9</v>
+      </c>
+      <c r="Z38">
+        <v>1.36</v>
+      </c>
+      <c r="AA38">
+        <v>7.4</v>
+      </c>
+      <c r="AB38">
+        <v>1.06</v>
+      </c>
+      <c r="AC38">
+        <v>1.67</v>
+      </c>
+      <c r="AD38">
+        <v>3.5</v>
+      </c>
+      <c r="AE38">
+        <v>4.5</v>
+      </c>
+      <c r="AF38">
+        <v>1.05</v>
+      </c>
+      <c r="AG38">
+        <v>8.5</v>
+      </c>
+      <c r="AH38">
+        <v>1.31</v>
+      </c>
+      <c r="AI38">
+        <v>3.04</v>
+      </c>
+      <c r="AJ38">
+        <v>2</v>
+      </c>
+      <c r="AK38">
+        <v>1.8</v>
+      </c>
+      <c r="AL38">
+        <v>1.9</v>
+      </c>
+      <c r="AM38">
+        <v>1.77</v>
+      </c>
+      <c r="AN38">
+        <v>1.15</v>
+      </c>
+      <c r="AO38">
+        <v>1.25</v>
+      </c>
+      <c r="AP38">
+        <v>2.02</v>
+      </c>
+      <c r="AQ38">
+        <v>2</v>
+      </c>
+      <c r="AR38">
+        <v>1</v>
+      </c>
+      <c r="AS38">
+        <v>1.44</v>
+      </c>
+      <c r="AT38">
+        <v>0.38</v>
+      </c>
+      <c r="AU38">
+        <v>1.43</v>
+      </c>
+      <c r="AV38">
+        <v>1.39</v>
+      </c>
+      <c r="AW38">
+        <v>2.82</v>
+      </c>
+      <c r="AX38">
+        <v>0</v>
+      </c>
+      <c r="AY38">
+        <v>0</v>
+      </c>
+      <c r="AZ38">
+        <v>0</v>
+      </c>
+      <c r="BA38">
+        <v>0</v>
+      </c>
+      <c r="BB38">
+        <v>0</v>
+      </c>
+      <c r="BC38">
         <v>1.95</v>
-      </c>
-      <c r="V38">
-        <v>4.2</v>
-      </c>
-      <c r="W38">
-        <v>1.48</v>
-      </c>
-      <c r="X38">
-        <v>2.47</v>
-      </c>
-      <c r="Y38">
-        <v>3.28</v>
-      </c>
-      <c r="Z38">
-        <v>1.29</v>
-      </c>
-      <c r="AA38">
-        <v>8.5</v>
-      </c>
-      <c r="AB38">
-        <v>1.04</v>
-      </c>
-      <c r="AC38">
-        <v>2.25</v>
-      </c>
-      <c r="AD38">
-        <v>3.1</v>
-      </c>
-      <c r="AE38">
-        <v>2.88</v>
-      </c>
-      <c r="AF38">
-        <v>1.09</v>
-      </c>
-      <c r="AG38">
-        <v>7</v>
-      </c>
-      <c r="AH38">
-        <v>1.4</v>
-      </c>
-      <c r="AI38">
-        <v>2.64</v>
-      </c>
-      <c r="AJ38">
-        <v>2.35</v>
-      </c>
-      <c r="AK38">
-        <v>1.57</v>
-      </c>
-      <c r="AL38">
-        <v>1.95</v>
-      </c>
-      <c r="AM38">
-        <v>1.72</v>
-      </c>
-      <c r="AN38">
-        <v>1.27</v>
-      </c>
-      <c r="AO38">
-        <v>1.3</v>
-      </c>
-      <c r="AP38">
-        <v>1.65</v>
-      </c>
-      <c r="AQ38">
-        <v>1.5</v>
-      </c>
-      <c r="AR38">
-        <v>1.5</v>
-      </c>
-      <c r="AS38">
-        <v>1.75</v>
-      </c>
-      <c r="AT38">
-        <v>1.13</v>
-      </c>
-      <c r="AU38">
-        <v>1.64</v>
-      </c>
-      <c r="AV38">
-        <v>1.31</v>
-      </c>
-      <c r="AW38">
-        <v>2.95</v>
-      </c>
-      <c r="AX38">
-        <v>0</v>
-      </c>
-      <c r="AY38">
-        <v>0</v>
-      </c>
-      <c r="AZ38">
-        <v>0</v>
-      </c>
-      <c r="BA38">
-        <v>0</v>
-      </c>
-      <c r="BB38">
-        <v>0</v>
-      </c>
-      <c r="BC38">
-        <v>1.9</v>
       </c>
       <c r="BD38">
         <v>0</v>
@@ -8197,19 +8206,19 @@
         <v>5</v>
       </c>
       <c r="BG38">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BH38">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BI38">
         <v>6</v>
       </c>
       <c r="BJ38">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BK38">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:63">
@@ -8235,7 +8244,7 @@
         <v>77</v>
       </c>
       <c r="H39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -8346,10 +8355,10 @@
         <v>2</v>
       </c>
       <c r="AS39">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT39">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AU39">
         <v>1.43</v>
@@ -8450,7 +8459,7 @@
         <v>123</v>
       </c>
       <c r="P40" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q40">
         <v>1</v>
@@ -8832,7 +8841,7 @@
         <v>125</v>
       </c>
       <c r="P42" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q42">
         <v>5</v>
@@ -9113,7 +9122,7 @@
         <v>1.36</v>
       </c>
       <c r="AT43">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU43">
         <v>1.59</v>
@@ -9214,7 +9223,7 @@
         <v>126</v>
       </c>
       <c r="P44" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -9304,7 +9313,7 @@
         <v>1.2</v>
       </c>
       <c r="AT44">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AU44">
         <v>2.68</v>
@@ -9381,7 +9390,7 @@
         <v>78</v>
       </c>
       <c r="H45" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -9495,7 +9504,7 @@
         <v>1.13</v>
       </c>
       <c r="AT45">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU45">
         <v>1.09</v>
@@ -9554,7 +9563,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>5137144</v>
+        <v>5137143</v>
       </c>
       <c r="C46" t="s">
         <v>63</v>
@@ -9569,133 +9578,133 @@
         <v>5</v>
       </c>
       <c r="G46" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H46" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J46">
         <v>0</v>
       </c>
       <c r="K46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M46">
         <v>1</v>
       </c>
       <c r="N46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O46" t="s">
         <v>128</v>
       </c>
       <c r="P46" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q46">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R46">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S46">
+        <v>12</v>
+      </c>
+      <c r="T46">
+        <v>2.25</v>
+      </c>
+      <c r="U46">
+        <v>2.1</v>
+      </c>
+      <c r="V46">
         <v>5</v>
       </c>
-      <c r="T46">
+      <c r="W46">
+        <v>1.5</v>
+      </c>
+      <c r="X46">
         <v>2.4</v>
       </c>
-      <c r="U46">
-        <v>2.05</v>
-      </c>
-      <c r="V46">
-        <v>4.5</v>
-      </c>
-      <c r="W46">
-        <v>1.59</v>
-      </c>
-      <c r="X46">
-        <v>2.22</v>
-      </c>
       <c r="Y46">
-        <v>3.34</v>
+        <v>3.3</v>
       </c>
       <c r="Z46">
         <v>1.28</v>
       </c>
       <c r="AA46">
-        <v>9.4</v>
+        <v>7.75</v>
       </c>
       <c r="AB46">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="AC46">
-        <v>1.74</v>
+        <v>1.96</v>
       </c>
       <c r="AD46">
-        <v>3.04</v>
+        <v>2.91</v>
       </c>
       <c r="AE46">
-        <v>5.5</v>
+        <v>4.25</v>
       </c>
       <c r="AF46">
         <v>1.08</v>
       </c>
       <c r="AG46">
-        <v>5.9</v>
+        <v>7.85</v>
       </c>
       <c r="AH46">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="AI46">
-        <v>2.5</v>
+        <v>2.66</v>
       </c>
       <c r="AJ46">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="AK46">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="AL46">
+        <v>2.05</v>
+      </c>
+      <c r="AM46">
+        <v>1.68</v>
+      </c>
+      <c r="AN46">
+        <v>1.18</v>
+      </c>
+      <c r="AO46">
+        <v>1.3</v>
+      </c>
+      <c r="AP46">
         <v>1.95</v>
-      </c>
-      <c r="AM46">
-        <v>1.81</v>
-      </c>
-      <c r="AN46">
-        <v>1.11</v>
-      </c>
-      <c r="AO46">
-        <v>1.33</v>
-      </c>
-      <c r="AP46">
-        <v>1.96</v>
       </c>
       <c r="AQ46">
         <v>1.5</v>
       </c>
       <c r="AR46">
+        <v>2.2</v>
+      </c>
+      <c r="AS46">
+        <v>1.44</v>
+      </c>
+      <c r="AT46">
         <v>1.5</v>
       </c>
-      <c r="AS46">
-        <v>1.13</v>
-      </c>
-      <c r="AT46">
-        <v>1.1</v>
-      </c>
       <c r="AU46">
-        <v>1.97</v>
+        <v>1.27</v>
       </c>
       <c r="AV46">
-        <v>1.5</v>
+        <v>1.07</v>
       </c>
       <c r="AW46">
-        <v>3.47</v>
+        <v>2.34</v>
       </c>
       <c r="AX46">
         <v>0</v>
@@ -9713,7 +9722,7 @@
         <v>0</v>
       </c>
       <c r="BC46">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="BD46">
         <v>0</v>
@@ -9722,22 +9731,22 @@
         <v>0</v>
       </c>
       <c r="BF46">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BG46">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BH46">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BI46">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BJ46">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="BK46">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:63">
@@ -9745,7 +9754,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>5137143</v>
+        <v>5137144</v>
       </c>
       <c r="C47" t="s">
         <v>63</v>
@@ -9760,133 +9769,133 @@
         <v>5</v>
       </c>
       <c r="G47" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H47" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J47">
         <v>0</v>
       </c>
       <c r="K47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M47">
         <v>1</v>
       </c>
       <c r="N47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O47" t="s">
         <v>129</v>
       </c>
       <c r="P47" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q47">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R47">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S47">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="T47">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="U47">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V47">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="W47">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="X47">
-        <v>2.4</v>
+        <v>2.22</v>
       </c>
       <c r="Y47">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="Z47">
         <v>1.28</v>
       </c>
       <c r="AA47">
-        <v>7.75</v>
+        <v>9.4</v>
       </c>
       <c r="AB47">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="AC47">
-        <v>1.96</v>
+        <v>1.74</v>
       </c>
       <c r="AD47">
-        <v>2.91</v>
+        <v>3.04</v>
       </c>
       <c r="AE47">
-        <v>4.25</v>
+        <v>5.5</v>
       </c>
       <c r="AF47">
         <v>1.08</v>
       </c>
       <c r="AG47">
-        <v>7.85</v>
+        <v>5.9</v>
       </c>
       <c r="AH47">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="AI47">
-        <v>2.66</v>
+        <v>2.5</v>
       </c>
       <c r="AJ47">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AK47">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AL47">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AM47">
-        <v>1.68</v>
+        <v>1.81</v>
       </c>
       <c r="AN47">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AO47">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AP47">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="AQ47">
         <v>1.5</v>
       </c>
       <c r="AR47">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="AS47">
-        <v>1.63</v>
+        <v>1.13</v>
       </c>
       <c r="AT47">
+        <v>1.1</v>
+      </c>
+      <c r="AU47">
+        <v>1.97</v>
+      </c>
+      <c r="AV47">
         <v>1.5</v>
       </c>
-      <c r="AU47">
-        <v>1.27</v>
-      </c>
-      <c r="AV47">
-        <v>1.07</v>
-      </c>
       <c r="AW47">
-        <v>2.34</v>
+        <v>3.47</v>
       </c>
       <c r="AX47">
         <v>0</v>
@@ -9904,7 +9913,7 @@
         <v>0</v>
       </c>
       <c r="BC47">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="BD47">
         <v>0</v>
@@ -9913,22 +9922,22 @@
         <v>0</v>
       </c>
       <c r="BF47">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BG47">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BH47">
+        <v>9</v>
+      </c>
+      <c r="BI47">
+        <v>4</v>
+      </c>
+      <c r="BJ47">
         <v>15</v>
       </c>
-      <c r="BI47">
-        <v>2</v>
-      </c>
-      <c r="BJ47">
-        <v>22</v>
-      </c>
       <c r="BK47">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:63">
@@ -9936,7 +9945,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>5119631</v>
+        <v>5137145</v>
       </c>
       <c r="C48" t="s">
         <v>63</v>
@@ -9951,133 +9960,133 @@
         <v>5</v>
       </c>
       <c r="G48" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H48" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L48">
         <v>2</v>
       </c>
       <c r="M48">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N48">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O48" t="s">
         <v>130</v>
       </c>
       <c r="P48" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q48">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="R48">
         <v>7</v>
       </c>
       <c r="S48">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="T48">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U48">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="V48">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="W48">
-        <v>1.25</v>
+        <v>1.43</v>
       </c>
       <c r="X48">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="Y48">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="Z48">
-        <v>1.55</v>
+        <v>1.33</v>
       </c>
       <c r="AA48">
-        <v>4.9</v>
+        <v>8</v>
       </c>
       <c r="AB48">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="AC48">
-        <v>3.28</v>
+        <v>2.14</v>
       </c>
       <c r="AD48">
-        <v>3.68</v>
+        <v>3.48</v>
       </c>
       <c r="AE48">
-        <v>1.95</v>
+        <v>2.98</v>
       </c>
       <c r="AF48">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="AG48">
-        <v>16.75</v>
+        <v>10.5</v>
       </c>
       <c r="AH48">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AI48">
-        <v>4.3</v>
+        <v>3.05</v>
       </c>
       <c r="AJ48">
-        <v>1.6</v>
+        <v>2.01</v>
       </c>
       <c r="AK48">
-        <v>2.2</v>
+        <v>1.72</v>
       </c>
       <c r="AL48">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="AM48">
-        <v>1.98</v>
+        <v>1.88</v>
       </c>
       <c r="AN48">
-        <v>2.16</v>
+        <v>1.41</v>
       </c>
       <c r="AO48">
-        <v>1.19</v>
+        <v>1.32</v>
       </c>
       <c r="AP48">
-        <v>1.15</v>
+        <v>1.52</v>
       </c>
       <c r="AQ48">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR48">
         <v>1.75</v>
       </c>
       <c r="AS48">
-        <v>0.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT48">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AU48">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="AV48">
-        <v>1.51</v>
+        <v>1.24</v>
       </c>
       <c r="AW48">
-        <v>2.52</v>
+        <v>2.77</v>
       </c>
       <c r="AX48">
         <v>0</v>
@@ -10095,31 +10104,31 @@
         <v>0</v>
       </c>
       <c r="BC48">
-        <v>1.83</v>
+        <v>2.38</v>
       </c>
       <c r="BD48">
-        <v>1.93</v>
+        <v>0</v>
       </c>
       <c r="BE48">
         <v>0</v>
       </c>
       <c r="BF48">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BG48">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="BH48">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BI48">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="BJ48">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="BK48">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:63">
@@ -10127,7 +10136,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>5137145</v>
+        <v>5119632</v>
       </c>
       <c r="C49" t="s">
         <v>63</v>
@@ -10142,133 +10151,133 @@
         <v>5</v>
       </c>
       <c r="G49" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H49" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J49">
         <v>0</v>
       </c>
       <c r="K49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L49">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N49">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O49" t="s">
         <v>131</v>
       </c>
       <c r="P49" t="s">
-        <v>176</v>
+        <v>100</v>
       </c>
       <c r="Q49">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="R49">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="S49">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="T49">
         <v>3</v>
       </c>
       <c r="U49">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V49">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="W49">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="X49">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="Y49">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="Z49">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AA49">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB49">
         <v>1.06</v>
       </c>
       <c r="AC49">
-        <v>2.14</v>
+        <v>2.28</v>
       </c>
       <c r="AD49">
-        <v>3.48</v>
+        <v>3.14</v>
       </c>
       <c r="AE49">
-        <v>2.98</v>
+        <v>3.04</v>
       </c>
       <c r="AF49">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="AG49">
-        <v>10.5</v>
+        <v>7</v>
       </c>
       <c r="AH49">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="AI49">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="AJ49">
-        <v>2.01</v>
+        <v>2.2</v>
       </c>
       <c r="AK49">
-        <v>1.72</v>
+        <v>1.6</v>
       </c>
       <c r="AL49">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="AM49">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="AN49">
-        <v>1.41</v>
+        <v>1.3</v>
       </c>
       <c r="AO49">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="AP49">
-        <v>1.52</v>
+        <v>1.37</v>
       </c>
       <c r="AQ49">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AR49">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="AS49">
-        <v>1.36</v>
+        <v>2.44</v>
       </c>
       <c r="AT49">
-        <v>1.75</v>
+        <v>1.13</v>
       </c>
       <c r="AU49">
-        <v>1.53</v>
+        <v>1.12</v>
       </c>
       <c r="AV49">
-        <v>1.24</v>
+        <v>1.68</v>
       </c>
       <c r="AW49">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="AX49">
         <v>0</v>
@@ -10286,31 +10295,31 @@
         <v>0</v>
       </c>
       <c r="BC49">
-        <v>2.38</v>
+        <v>1.91</v>
       </c>
       <c r="BD49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE49">
         <v>0</v>
       </c>
       <c r="BF49">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="BG49">
+        <v>2</v>
+      </c>
+      <c r="BH49">
         <v>7</v>
       </c>
-      <c r="BH49">
-        <v>0</v>
-      </c>
       <c r="BI49">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BJ49">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="BK49">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:63">
@@ -10318,7 +10327,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>5119632</v>
+        <v>5119631</v>
       </c>
       <c r="C50" t="s">
         <v>63</v>
@@ -10333,133 +10342,133 @@
         <v>5</v>
       </c>
       <c r="G50" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H50" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I50">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J50">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K50">
         <v>3</v>
       </c>
       <c r="L50">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M50">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N50">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O50" t="s">
         <v>132</v>
       </c>
       <c r="P50" t="s">
-        <v>100</v>
+        <v>179</v>
       </c>
       <c r="Q50">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R50">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="S50">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="T50">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U50">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="V50">
+        <v>2.2</v>
+      </c>
+      <c r="W50">
+        <v>1.25</v>
+      </c>
+      <c r="X50">
         <v>3.6</v>
       </c>
-      <c r="W50">
-        <v>1.5</v>
-      </c>
-      <c r="X50">
-        <v>2.4</v>
-      </c>
       <c r="Y50">
-        <v>3.15</v>
+        <v>2.3</v>
       </c>
       <c r="Z50">
-        <v>1.31</v>
+        <v>1.55</v>
       </c>
       <c r="AA50">
-        <v>8.5</v>
+        <v>4.9</v>
       </c>
       <c r="AB50">
-        <v>1.06</v>
+        <v>1.14</v>
       </c>
       <c r="AC50">
-        <v>2.28</v>
+        <v>3.28</v>
       </c>
       <c r="AD50">
-        <v>3.14</v>
+        <v>3.68</v>
       </c>
       <c r="AE50">
-        <v>3.04</v>
+        <v>1.95</v>
       </c>
       <c r="AF50">
-        <v>1.07</v>
+        <v>1.02</v>
       </c>
       <c r="AG50">
-        <v>7</v>
+        <v>16.75</v>
       </c>
       <c r="AH50">
-        <v>1.35</v>
+        <v>1.18</v>
       </c>
       <c r="AI50">
-        <v>2.9</v>
+        <v>4.3</v>
       </c>
       <c r="AJ50">
+        <v>1.6</v>
+      </c>
+      <c r="AK50">
         <v>2.2</v>
       </c>
-      <c r="AK50">
-        <v>1.6</v>
-      </c>
       <c r="AL50">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AM50">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="AN50">
-        <v>1.3</v>
+        <v>2.16</v>
       </c>
       <c r="AO50">
-        <v>1.37</v>
+        <v>1.19</v>
       </c>
       <c r="AP50">
-        <v>1.37</v>
+        <v>1.15</v>
       </c>
       <c r="AQ50">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="AR50">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="AS50">
-        <v>2.38</v>
+        <v>0.38</v>
       </c>
       <c r="AT50">
-        <v>1.13</v>
+        <v>2.11</v>
       </c>
       <c r="AU50">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="AV50">
-        <v>1.68</v>
+        <v>1.51</v>
       </c>
       <c r="AW50">
-        <v>2.8</v>
+        <v>2.52</v>
       </c>
       <c r="AX50">
         <v>0</v>
@@ -10477,31 +10486,31 @@
         <v>0</v>
       </c>
       <c r="BC50">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="BD50">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="BE50">
         <v>0</v>
       </c>
       <c r="BF50">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="BG50">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="BH50">
         <v>7</v>
       </c>
       <c r="BI50">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BJ50">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="BK50">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" spans="1:63">
@@ -10527,7 +10536,7 @@
         <v>65</v>
       </c>
       <c r="H51" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I51">
         <v>2</v>
@@ -10551,7 +10560,7 @@
         <v>133</v>
       </c>
       <c r="P51" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q51">
         <v>7</v>
@@ -10641,7 +10650,7 @@
         <v>1.2</v>
       </c>
       <c r="AT51">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU51">
         <v>2.34</v>
@@ -10742,7 +10751,7 @@
         <v>134</v>
       </c>
       <c r="P52" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q52">
         <v>8</v>
@@ -10909,7 +10918,7 @@
         <v>74</v>
       </c>
       <c r="H53" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I53">
         <v>2</v>
@@ -10933,7 +10942,7 @@
         <v>135</v>
       </c>
       <c r="P53" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q53">
         <v>4</v>
@@ -11023,7 +11032,7 @@
         <v>2.33</v>
       </c>
       <c r="AT53">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU53">
         <v>2.24</v>
@@ -11082,7 +11091,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>5119636</v>
+        <v>5137147</v>
       </c>
       <c r="C54" t="s">
         <v>63</v>
@@ -11097,10 +11106,10 @@
         <v>6</v>
       </c>
       <c r="G54" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="H54" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -11115,134 +11124,134 @@
         <v>0</v>
       </c>
       <c r="M54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O54" t="s">
         <v>100</v>
       </c>
       <c r="P54" t="s">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="Q54">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R54">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S54">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="T54">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="U54">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="V54">
-        <v>3.01</v>
+        <v>3.15</v>
       </c>
       <c r="W54">
-        <v>1.51</v>
+        <v>1.58</v>
       </c>
       <c r="X54">
-        <v>2.39</v>
+        <v>2.25</v>
       </c>
       <c r="Y54">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="Z54">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="AA54">
         <v>8.25</v>
       </c>
       <c r="AB54">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="AC54">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="AD54">
         <v>2.88</v>
       </c>
       <c r="AE54">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AF54">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="AG54">
-        <v>8.699999999999999</v>
+        <v>7.1</v>
       </c>
       <c r="AH54">
-        <v>1.33</v>
+        <v>1.48</v>
       </c>
       <c r="AI54">
-        <v>2.85</v>
+        <v>2.48</v>
       </c>
       <c r="AJ54">
+        <v>2.6</v>
+      </c>
+      <c r="AK54">
+        <v>1.48</v>
+      </c>
+      <c r="AL54">
         <v>2.2</v>
       </c>
-      <c r="AK54">
-        <v>1.65</v>
-      </c>
-      <c r="AL54">
-        <v>1.83</v>
-      </c>
       <c r="AM54">
-        <v>1.93</v>
+        <v>1.6</v>
       </c>
       <c r="AN54">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AO54">
-        <v>1.28</v>
+        <v>1.38</v>
       </c>
       <c r="AP54">
         <v>1.3</v>
       </c>
       <c r="AQ54">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR54">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AS54">
-        <v>1.63</v>
+        <v>1.1</v>
       </c>
       <c r="AT54">
+        <v>1.44</v>
+      </c>
+      <c r="AU54">
+        <v>1.29</v>
+      </c>
+      <c r="AV54">
+        <v>1.56</v>
+      </c>
+      <c r="AW54">
+        <v>2.85</v>
+      </c>
+      <c r="AX54">
+        <v>0</v>
+      </c>
+      <c r="AY54">
+        <v>0</v>
+      </c>
+      <c r="AZ54">
+        <v>0</v>
+      </c>
+      <c r="BA54">
+        <v>0</v>
+      </c>
+      <c r="BB54">
+        <v>0</v>
+      </c>
+      <c r="BC54">
         <v>2.38</v>
       </c>
-      <c r="AU54">
-        <v>1.48</v>
-      </c>
-      <c r="AV54">
-        <v>1.71</v>
-      </c>
-      <c r="AW54">
-        <v>3.19</v>
-      </c>
-      <c r="AX54">
-        <v>0</v>
-      </c>
-      <c r="AY54">
-        <v>0</v>
-      </c>
-      <c r="AZ54">
-        <v>0</v>
-      </c>
-      <c r="BA54">
-        <v>0</v>
-      </c>
-      <c r="BB54">
-        <v>0</v>
-      </c>
-      <c r="BC54">
-        <v>2.1</v>
-      </c>
       <c r="BD54">
         <v>0</v>
       </c>
@@ -11253,19 +11262,19 @@
         <v>3</v>
       </c>
       <c r="BG54">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="BH54">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BI54">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="BJ54">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BK54">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:63">
@@ -11273,7 +11282,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>5137149</v>
+        <v>5119636</v>
       </c>
       <c r="C55" t="s">
         <v>63</v>
@@ -11288,175 +11297,175 @@
         <v>6</v>
       </c>
       <c r="G55" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H55" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M55">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N55">
+        <v>2</v>
+      </c>
+      <c r="O55" t="s">
+        <v>100</v>
+      </c>
+      <c r="P55" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q55">
+        <v>6</v>
+      </c>
+      <c r="R55">
         <v>5</v>
       </c>
-      <c r="O55" t="s">
-        <v>136</v>
-      </c>
-      <c r="P55" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q55">
-        <v>3</v>
-      </c>
-      <c r="R55">
-        <v>2</v>
-      </c>
       <c r="S55">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="T55">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="U55">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="V55">
-        <v>3.25</v>
+        <v>3.01</v>
       </c>
       <c r="W55">
-        <v>1.55</v>
+        <v>1.51</v>
       </c>
       <c r="X55">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="Y55">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="Z55">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="AA55">
+        <v>8.25</v>
+      </c>
+      <c r="AB55">
+        <v>1.06</v>
+      </c>
+      <c r="AC55">
+        <v>3.1</v>
+      </c>
+      <c r="AD55">
+        <v>2.88</v>
+      </c>
+      <c r="AE55">
+        <v>2.25</v>
+      </c>
+      <c r="AF55">
+        <v>1.03</v>
+      </c>
+      <c r="AG55">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AH55">
+        <v>1.33</v>
+      </c>
+      <c r="AI55">
+        <v>2.85</v>
+      </c>
+      <c r="AJ55">
+        <v>2.2</v>
+      </c>
+      <c r="AK55">
+        <v>1.65</v>
+      </c>
+      <c r="AL55">
+        <v>1.83</v>
+      </c>
+      <c r="AM55">
+        <v>1.93</v>
+      </c>
+      <c r="AN55">
+        <v>1.47</v>
+      </c>
+      <c r="AO55">
+        <v>1.28</v>
+      </c>
+      <c r="AP55">
+        <v>1.3</v>
+      </c>
+      <c r="AQ55">
+        <v>1.67</v>
+      </c>
+      <c r="AR55">
+        <v>2.25</v>
+      </c>
+      <c r="AS55">
+        <v>1.44</v>
+      </c>
+      <c r="AT55">
+        <v>2.44</v>
+      </c>
+      <c r="AU55">
+        <v>1.48</v>
+      </c>
+      <c r="AV55">
+        <v>1.71</v>
+      </c>
+      <c r="AW55">
+        <v>3.19</v>
+      </c>
+      <c r="AX55">
+        <v>0</v>
+      </c>
+      <c r="AY55">
+        <v>0</v>
+      </c>
+      <c r="AZ55">
+        <v>0</v>
+      </c>
+      <c r="BA55">
+        <v>0</v>
+      </c>
+      <c r="BB55">
+        <v>0</v>
+      </c>
+      <c r="BC55">
+        <v>2.1</v>
+      </c>
+      <c r="BD55">
+        <v>0</v>
+      </c>
+      <c r="BE55">
+        <v>0</v>
+      </c>
+      <c r="BF55">
+        <v>3</v>
+      </c>
+      <c r="BG55">
+        <v>10</v>
+      </c>
+      <c r="BH55">
         <v>8</v>
       </c>
-      <c r="AB55">
-        <v>1.05</v>
-      </c>
-      <c r="AC55">
-        <v>2.45</v>
-      </c>
-      <c r="AD55">
-        <v>2.8</v>
-      </c>
-      <c r="AE55">
-        <v>2.88</v>
-      </c>
-      <c r="AF55">
-        <v>1.1</v>
-      </c>
-      <c r="AG55">
-        <v>7.05</v>
-      </c>
-      <c r="AH55">
-        <v>1.44</v>
-      </c>
-      <c r="AI55">
-        <v>2.59</v>
-      </c>
-      <c r="AJ55">
-        <v>2.4</v>
-      </c>
-      <c r="AK55">
-        <v>1.53</v>
-      </c>
-      <c r="AL55">
-        <v>2</v>
-      </c>
-      <c r="AM55">
-        <v>1.72</v>
-      </c>
-      <c r="AN55">
-        <v>1.45</v>
-      </c>
-      <c r="AO55">
-        <v>1.38</v>
-      </c>
-      <c r="AP55">
-        <v>1.38</v>
-      </c>
-      <c r="AQ55">
-        <v>0.8</v>
-      </c>
-      <c r="AR55">
-        <v>1.29</v>
-      </c>
-      <c r="AS55">
-        <v>1</v>
-      </c>
-      <c r="AT55">
-        <v>1.36</v>
-      </c>
-      <c r="AU55">
-        <v>0.88</v>
-      </c>
-      <c r="AV55">
-        <v>1.1</v>
-      </c>
-      <c r="AW55">
-        <v>1.98</v>
-      </c>
-      <c r="AX55">
-        <v>0</v>
-      </c>
-      <c r="AY55">
-        <v>0</v>
-      </c>
-      <c r="AZ55">
-        <v>0</v>
-      </c>
-      <c r="BA55">
-        <v>0</v>
-      </c>
-      <c r="BB55">
-        <v>0</v>
-      </c>
-      <c r="BC55">
-        <v>2</v>
-      </c>
-      <c r="BD55">
-        <v>0</v>
-      </c>
-      <c r="BE55">
-        <v>0</v>
-      </c>
-      <c r="BF55">
-        <v>6</v>
-      </c>
-      <c r="BG55">
-        <v>9</v>
-      </c>
-      <c r="BH55">
-        <v>10</v>
-      </c>
       <c r="BI55">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BJ55">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="BK55">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" spans="1:63">
@@ -11464,7 +11473,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>5137147</v>
+        <v>5137149</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -11479,133 +11488,133 @@
         <v>6</v>
       </c>
       <c r="G56" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="H56" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M56">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N56">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O56" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="P56" t="s">
-        <v>100</v>
+        <v>184</v>
       </c>
       <c r="Q56">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R56">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S56">
+        <v>5</v>
+      </c>
+      <c r="T56">
+        <v>3.6</v>
+      </c>
+      <c r="U56">
+        <v>1.9</v>
+      </c>
+      <c r="V56">
+        <v>3.25</v>
+      </c>
+      <c r="W56">
+        <v>1.55</v>
+      </c>
+      <c r="X56">
+        <v>2.35</v>
+      </c>
+      <c r="Y56">
+        <v>3.4</v>
+      </c>
+      <c r="Z56">
+        <v>1.27</v>
+      </c>
+      <c r="AA56">
         <v>8</v>
       </c>
-      <c r="T56">
-        <v>4.1</v>
-      </c>
-      <c r="U56">
-        <v>1.82</v>
-      </c>
-      <c r="V56">
-        <v>3.15</v>
-      </c>
-      <c r="W56">
-        <v>1.58</v>
-      </c>
-      <c r="X56">
-        <v>2.25</v>
-      </c>
-      <c r="Y56">
-        <v>3.5</v>
-      </c>
-      <c r="Z56">
-        <v>1.25</v>
-      </c>
-      <c r="AA56">
-        <v>8.25</v>
-      </c>
       <c r="AB56">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AC56">
+        <v>2.45</v>
+      </c>
+      <c r="AD56">
+        <v>2.8</v>
+      </c>
+      <c r="AE56">
         <v>2.88</v>
-      </c>
-      <c r="AD56">
-        <v>2.88</v>
-      </c>
-      <c r="AE56">
-        <v>2.4</v>
       </c>
       <c r="AF56">
         <v>1.1</v>
       </c>
       <c r="AG56">
-        <v>7.1</v>
+        <v>7.05</v>
       </c>
       <c r="AH56">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="AI56">
-        <v>2.48</v>
+        <v>2.59</v>
       </c>
       <c r="AJ56">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="AK56">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="AL56">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AM56">
-        <v>1.6</v>
+        <v>1.72</v>
       </c>
       <c r="AN56">
-        <v>1.55</v>
+        <v>1.45</v>
       </c>
       <c r="AO56">
         <v>1.38</v>
       </c>
       <c r="AP56">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
       <c r="AQ56">
-        <v>1.43</v>
+        <v>0.8</v>
       </c>
       <c r="AR56">
-        <v>1.8</v>
+        <v>1.29</v>
       </c>
       <c r="AS56">
+        <v>1</v>
+      </c>
+      <c r="AT56">
+        <v>1.36</v>
+      </c>
+      <c r="AU56">
+        <v>0.88</v>
+      </c>
+      <c r="AV56">
         <v>1.1</v>
       </c>
-      <c r="AT56">
-        <v>1.63</v>
-      </c>
-      <c r="AU56">
-        <v>1.29</v>
-      </c>
-      <c r="AV56">
-        <v>1.56</v>
-      </c>
       <c r="AW56">
-        <v>2.85</v>
+        <v>1.98</v>
       </c>
       <c r="AX56">
         <v>0</v>
@@ -11623,7 +11632,7 @@
         <v>0</v>
       </c>
       <c r="BC56">
-        <v>2.38</v>
+        <v>2</v>
       </c>
       <c r="BD56">
         <v>0</v>
@@ -11632,22 +11641,22 @@
         <v>0</v>
       </c>
       <c r="BF56">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BG56">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="BH56">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BI56">
+        <v>5</v>
+      </c>
+      <c r="BJ56">
+        <v>16</v>
+      </c>
+      <c r="BK56">
         <v>14</v>
-      </c>
-      <c r="BJ56">
-        <v>14</v>
-      </c>
-      <c r="BK56">
-        <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:63">
@@ -11784,7 +11793,7 @@
         <v>0.6</v>
       </c>
       <c r="AS57">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT57">
         <v>0.75</v>
@@ -11846,7 +11855,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>5119635</v>
+        <v>5137146</v>
       </c>
       <c r="C58" t="s">
         <v>63</v>
@@ -11861,10 +11870,10 @@
         <v>6</v>
       </c>
       <c r="G58" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H58" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="I58">
         <v>1</v>
@@ -11876,160 +11885,160 @@
         <v>2</v>
       </c>
       <c r="L58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M58">
         <v>1</v>
       </c>
       <c r="N58">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O58" t="s">
         <v>138</v>
       </c>
       <c r="P58" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q58">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="R58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S58">
+        <v>10</v>
+      </c>
+      <c r="T58">
+        <v>2.1</v>
+      </c>
+      <c r="U58">
+        <v>2.1</v>
+      </c>
+      <c r="V58">
+        <v>5.5</v>
+      </c>
+      <c r="W58">
+        <v>1.47</v>
+      </c>
+      <c r="X58">
+        <v>2.46</v>
+      </c>
+      <c r="Y58">
+        <v>3.09</v>
+      </c>
+      <c r="Z58">
+        <v>1.26</v>
+      </c>
+      <c r="AA58">
+        <v>7.5</v>
+      </c>
+      <c r="AB58">
+        <v>1.07</v>
+      </c>
+      <c r="AC58">
+        <v>1.71</v>
+      </c>
+      <c r="AD58">
+        <v>3.7</v>
+      </c>
+      <c r="AE58">
+        <v>4.7</v>
+      </c>
+      <c r="AF58">
+        <v>1.04</v>
+      </c>
+      <c r="AG58">
+        <v>10.25</v>
+      </c>
+      <c r="AH58">
+        <v>1.3</v>
+      </c>
+      <c r="AI58">
+        <v>3.1</v>
+      </c>
+      <c r="AJ58">
+        <v>2</v>
+      </c>
+      <c r="AK58">
+        <v>1.73</v>
+      </c>
+      <c r="AL58">
+        <v>2</v>
+      </c>
+      <c r="AM58">
+        <v>1.72</v>
+      </c>
+      <c r="AN58">
+        <v>1.18</v>
+      </c>
+      <c r="AO58">
+        <v>1.25</v>
+      </c>
+      <c r="AP58">
+        <v>2.1</v>
+      </c>
+      <c r="AQ58">
+        <v>0.8</v>
+      </c>
+      <c r="AR58">
+        <v>1.14</v>
+      </c>
+      <c r="AS58">
+        <v>1.13</v>
+      </c>
+      <c r="AT58">
+        <v>1.2</v>
+      </c>
+      <c r="AU58">
+        <v>2.56</v>
+      </c>
+      <c r="AV58">
+        <v>1.36</v>
+      </c>
+      <c r="AW58">
+        <v>3.92</v>
+      </c>
+      <c r="AX58">
+        <v>0</v>
+      </c>
+      <c r="AY58">
+        <v>0</v>
+      </c>
+      <c r="AZ58">
+        <v>0</v>
+      </c>
+      <c r="BA58">
+        <v>0</v>
+      </c>
+      <c r="BB58">
+        <v>0</v>
+      </c>
+      <c r="BC58">
+        <v>1.47</v>
+      </c>
+      <c r="BD58">
+        <v>1.85</v>
+      </c>
+      <c r="BE58">
+        <v>2.33</v>
+      </c>
+      <c r="BF58">
+        <v>6</v>
+      </c>
+      <c r="BG58">
+        <v>5</v>
+      </c>
+      <c r="BH58">
+        <v>9</v>
+      </c>
+      <c r="BI58">
+        <v>7</v>
+      </c>
+      <c r="BJ58">
+        <v>15</v>
+      </c>
+      <c r="BK58">
         <v>12</v>
-      </c>
-      <c r="T58">
-        <v>1.95</v>
-      </c>
-      <c r="U58">
-        <v>2.25</v>
-      </c>
-      <c r="V58">
-        <v>6.5</v>
-      </c>
-      <c r="W58">
-        <v>1.45</v>
-      </c>
-      <c r="X58">
-        <v>2.62</v>
-      </c>
-      <c r="Y58">
-        <v>3.14</v>
-      </c>
-      <c r="Z58">
-        <v>1.33</v>
-      </c>
-      <c r="AA58">
-        <v>7.25</v>
-      </c>
-      <c r="AB58">
-        <v>1.06</v>
-      </c>
-      <c r="AC58">
-        <v>2.02</v>
-      </c>
-      <c r="AD58">
-        <v>3.2</v>
-      </c>
-      <c r="AE58">
-        <v>3.4</v>
-      </c>
-      <c r="AF58">
-        <v>1.06</v>
-      </c>
-      <c r="AG58">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="AH58">
-        <v>1.36</v>
-      </c>
-      <c r="AI58">
-        <v>2.94</v>
-      </c>
-      <c r="AJ58">
-        <v>2.06</v>
-      </c>
-      <c r="AK58">
-        <v>1.63</v>
-      </c>
-      <c r="AL58">
-        <v>2.15</v>
-      </c>
-      <c r="AM58">
-        <v>1.62</v>
-      </c>
-      <c r="AN58">
-        <v>1.23</v>
-      </c>
-      <c r="AO58">
-        <v>1.3</v>
-      </c>
-      <c r="AP58">
-        <v>1.85</v>
-      </c>
-      <c r="AQ58">
-        <v>1.4</v>
-      </c>
-      <c r="AR58">
-        <v>0.4</v>
-      </c>
-      <c r="AS58">
-        <v>1.38</v>
-      </c>
-      <c r="AT58">
-        <v>0.38</v>
-      </c>
-      <c r="AU58">
-        <v>1.65</v>
-      </c>
-      <c r="AV58">
-        <v>1.45</v>
-      </c>
-      <c r="AW58">
-        <v>3.1</v>
-      </c>
-      <c r="AX58">
-        <v>0</v>
-      </c>
-      <c r="AY58">
-        <v>0</v>
-      </c>
-      <c r="AZ58">
-        <v>0</v>
-      </c>
-      <c r="BA58">
-        <v>1.28</v>
-      </c>
-      <c r="BB58">
-        <v>1.52</v>
-      </c>
-      <c r="BC58">
-        <v>1.95</v>
-      </c>
-      <c r="BD58">
-        <v>2.55</v>
-      </c>
-      <c r="BE58">
-        <v>0</v>
-      </c>
-      <c r="BF58">
-        <v>5</v>
-      </c>
-      <c r="BG58">
-        <v>2</v>
-      </c>
-      <c r="BH58">
-        <v>13</v>
-      </c>
-      <c r="BI58">
-        <v>3</v>
-      </c>
-      <c r="BJ58">
-        <v>18</v>
-      </c>
-      <c r="BK58">
-        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:63">
@@ -12037,7 +12046,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>5137146</v>
+        <v>5119635</v>
       </c>
       <c r="C59" t="s">
         <v>63</v>
@@ -12052,10 +12061,10 @@
         <v>6</v>
       </c>
       <c r="G59" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H59" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I59">
         <v>1</v>
@@ -12067,119 +12076,119 @@
         <v>2</v>
       </c>
       <c r="L59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M59">
         <v>1</v>
       </c>
       <c r="N59">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O59" t="s">
         <v>139</v>
       </c>
       <c r="P59" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q59">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="R59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S59">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="T59">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="U59">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="V59">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="W59">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="X59">
-        <v>2.46</v>
+        <v>2.62</v>
       </c>
       <c r="Y59">
-        <v>3.09</v>
+        <v>3.14</v>
       </c>
       <c r="Z59">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="AA59">
-        <v>7.5</v>
+        <v>7.25</v>
       </c>
       <c r="AB59">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AC59">
-        <v>1.71</v>
+        <v>2.02</v>
       </c>
       <c r="AD59">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="AE59">
-        <v>4.7</v>
+        <v>3.4</v>
       </c>
       <c r="AF59">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="AG59">
-        <v>10.25</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AH59">
+        <v>1.36</v>
+      </c>
+      <c r="AI59">
+        <v>2.94</v>
+      </c>
+      <c r="AJ59">
+        <v>2.06</v>
+      </c>
+      <c r="AK59">
+        <v>1.63</v>
+      </c>
+      <c r="AL59">
+        <v>2.15</v>
+      </c>
+      <c r="AM59">
+        <v>1.62</v>
+      </c>
+      <c r="AN59">
+        <v>1.23</v>
+      </c>
+      <c r="AO59">
         <v>1.3</v>
       </c>
-      <c r="AI59">
+      <c r="AP59">
+        <v>1.85</v>
+      </c>
+      <c r="AQ59">
+        <v>1.4</v>
+      </c>
+      <c r="AR59">
+        <v>0.4</v>
+      </c>
+      <c r="AS59">
+        <v>1.22</v>
+      </c>
+      <c r="AT59">
+        <v>0.38</v>
+      </c>
+      <c r="AU59">
+        <v>1.65</v>
+      </c>
+      <c r="AV59">
+        <v>1.45</v>
+      </c>
+      <c r="AW59">
         <v>3.1</v>
       </c>
-      <c r="AJ59">
-        <v>2</v>
-      </c>
-      <c r="AK59">
-        <v>1.73</v>
-      </c>
-      <c r="AL59">
-        <v>2</v>
-      </c>
-      <c r="AM59">
-        <v>1.72</v>
-      </c>
-      <c r="AN59">
-        <v>1.18</v>
-      </c>
-      <c r="AO59">
-        <v>1.25</v>
-      </c>
-      <c r="AP59">
-        <v>2.1</v>
-      </c>
-      <c r="AQ59">
-        <v>0.8</v>
-      </c>
-      <c r="AR59">
-        <v>1.14</v>
-      </c>
-      <c r="AS59">
-        <v>1.13</v>
-      </c>
-      <c r="AT59">
-        <v>1.2</v>
-      </c>
-      <c r="AU59">
-        <v>2.56</v>
-      </c>
-      <c r="AV59">
-        <v>1.36</v>
-      </c>
-      <c r="AW59">
-        <v>3.92</v>
-      </c>
       <c r="AX59">
         <v>0</v>
       </c>
@@ -12190,37 +12199,37 @@
         <v>0</v>
       </c>
       <c r="BA59">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="BB59">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="BC59">
-        <v>1.47</v>
+        <v>1.95</v>
       </c>
       <c r="BD59">
-        <v>1.85</v>
+        <v>2.55</v>
       </c>
       <c r="BE59">
-        <v>2.33</v>
+        <v>0</v>
       </c>
       <c r="BF59">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BG59">
+        <v>2</v>
+      </c>
+      <c r="BH59">
+        <v>13</v>
+      </c>
+      <c r="BI59">
+        <v>3</v>
+      </c>
+      <c r="BJ59">
+        <v>18</v>
+      </c>
+      <c r="BK59">
         <v>5</v>
-      </c>
-      <c r="BH59">
-        <v>9</v>
-      </c>
-      <c r="BI59">
-        <v>7</v>
-      </c>
-      <c r="BJ59">
-        <v>15</v>
-      </c>
-      <c r="BK59">
-        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:63">
@@ -12243,7 +12252,7 @@
         <v>6</v>
       </c>
       <c r="G60" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H60" t="s">
         <v>74</v>
@@ -12357,7 +12366,7 @@
         <v>2.5</v>
       </c>
       <c r="AS60">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT60">
         <v>2.33</v>
@@ -12461,7 +12470,7 @@
         <v>141</v>
       </c>
       <c r="P61" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -12930,10 +12939,10 @@
         <v>1.83</v>
       </c>
       <c r="AS63">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT63">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AU63">
         <v>1.64</v>
@@ -13034,7 +13043,7 @@
         <v>144</v>
       </c>
       <c r="P64" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q64">
         <v>9</v>
@@ -13225,7 +13234,7 @@
         <v>145</v>
       </c>
       <c r="P65" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q65">
         <v>7</v>
@@ -13374,7 +13383,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>5137150</v>
+        <v>5119640</v>
       </c>
       <c r="C66" t="s">
         <v>63</v>
@@ -13389,10 +13398,10 @@
         <v>7</v>
       </c>
       <c r="G66" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="H66" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I66">
         <v>1</v>
@@ -13407,157 +13416,157 @@
         <v>2</v>
       </c>
       <c r="M66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N66">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O66" t="s">
         <v>146</v>
       </c>
       <c r="P66" t="s">
-        <v>100</v>
+        <v>177</v>
       </c>
       <c r="Q66">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R66">
+        <v>5</v>
+      </c>
+      <c r="S66">
+        <v>10</v>
+      </c>
+      <c r="T66">
+        <v>1.83</v>
+      </c>
+      <c r="U66">
+        <v>2.3</v>
+      </c>
+      <c r="V66">
+        <v>7.5</v>
+      </c>
+      <c r="W66">
+        <v>1.39</v>
+      </c>
+      <c r="X66">
+        <v>2.86</v>
+      </c>
+      <c r="Y66">
+        <v>2.84</v>
+      </c>
+      <c r="Z66">
+        <v>1.39</v>
+      </c>
+      <c r="AA66">
+        <v>6.6</v>
+      </c>
+      <c r="AB66">
+        <v>1.08</v>
+      </c>
+      <c r="AC66">
+        <v>1.36</v>
+      </c>
+      <c r="AD66">
+        <v>4.33</v>
+      </c>
+      <c r="AE66">
+        <v>7</v>
+      </c>
+      <c r="AF66">
+        <v>1.03</v>
+      </c>
+      <c r="AG66">
+        <v>9.75</v>
+      </c>
+      <c r="AH66">
+        <v>1.26</v>
+      </c>
+      <c r="AI66">
+        <v>3.3</v>
+      </c>
+      <c r="AJ66">
+        <v>1.85</v>
+      </c>
+      <c r="AK66">
+        <v>1.89</v>
+      </c>
+      <c r="AL66">
+        <v>2.25</v>
+      </c>
+      <c r="AM66">
+        <v>1.55</v>
+      </c>
+      <c r="AN66">
+        <v>1.07</v>
+      </c>
+      <c r="AO66">
+        <v>1.2</v>
+      </c>
+      <c r="AP66">
+        <v>2.7</v>
+      </c>
+      <c r="AQ66">
+        <v>2.4</v>
+      </c>
+      <c r="AR66">
+        <v>1.67</v>
+      </c>
+      <c r="AS66">
+        <v>2.44</v>
+      </c>
+      <c r="AT66">
+        <v>1.22</v>
+      </c>
+      <c r="AU66">
+        <v>2.07</v>
+      </c>
+      <c r="AV66">
+        <v>0.82</v>
+      </c>
+      <c r="AW66">
+        <v>2.89</v>
+      </c>
+      <c r="AX66">
+        <v>0</v>
+      </c>
+      <c r="AY66">
+        <v>0</v>
+      </c>
+      <c r="AZ66">
+        <v>0</v>
+      </c>
+      <c r="BA66">
+        <v>0</v>
+      </c>
+      <c r="BB66">
+        <v>0</v>
+      </c>
+      <c r="BC66">
+        <v>2</v>
+      </c>
+      <c r="BD66">
+        <v>0</v>
+      </c>
+      <c r="BE66">
+        <v>0</v>
+      </c>
+      <c r="BF66">
         <v>6</v>
       </c>
-      <c r="S66">
-        <v>7</v>
-      </c>
-      <c r="T66">
-        <v>3.4</v>
-      </c>
-      <c r="U66">
-        <v>2.1</v>
-      </c>
-      <c r="V66">
-        <v>3</v>
-      </c>
-      <c r="W66">
-        <v>1.42</v>
-      </c>
-      <c r="X66">
-        <v>2.65</v>
-      </c>
-      <c r="Y66">
-        <v>2.85</v>
-      </c>
-      <c r="Z66">
-        <v>1.37</v>
-      </c>
-      <c r="AA66">
-        <v>7</v>
-      </c>
-      <c r="AB66">
-        <v>1.07</v>
-      </c>
-      <c r="AC66">
-        <v>3.1</v>
-      </c>
-      <c r="AD66">
-        <v>3.25</v>
-      </c>
-      <c r="AE66">
-        <v>2.15</v>
-      </c>
-      <c r="AF66">
-        <v>1.04</v>
-      </c>
-      <c r="AG66">
-        <v>9.5</v>
-      </c>
-      <c r="AH66">
-        <v>1.3</v>
-      </c>
-      <c r="AI66">
-        <v>3.2</v>
-      </c>
-      <c r="AJ66">
-        <v>1.99</v>
-      </c>
-      <c r="AK66">
-        <v>1.82</v>
-      </c>
-      <c r="AL66">
-        <v>1.74</v>
-      </c>
-      <c r="AM66">
-        <v>2.04</v>
-      </c>
-      <c r="AN66">
-        <v>1.66</v>
-      </c>
-      <c r="AO66">
-        <v>1.28</v>
-      </c>
-      <c r="AP66">
-        <v>1.29</v>
-      </c>
-      <c r="AQ66">
-        <v>1.13</v>
-      </c>
-      <c r="AR66">
-        <v>2.17</v>
-      </c>
-      <c r="AS66">
-        <v>1.2</v>
-      </c>
-      <c r="AT66">
-        <v>2</v>
-      </c>
-      <c r="AU66">
-        <v>2.29</v>
-      </c>
-      <c r="AV66">
-        <v>2.08</v>
-      </c>
-      <c r="AW66">
-        <v>4.37</v>
-      </c>
-      <c r="AX66">
-        <v>0</v>
-      </c>
-      <c r="AY66">
-        <v>0</v>
-      </c>
-      <c r="AZ66">
-        <v>0</v>
-      </c>
-      <c r="BA66">
-        <v>0</v>
-      </c>
-      <c r="BB66">
-        <v>1.33</v>
-      </c>
-      <c r="BC66">
-        <v>2</v>
-      </c>
-      <c r="BD66">
-        <v>2.02</v>
-      </c>
-      <c r="BE66">
-        <v>2.65</v>
-      </c>
-      <c r="BF66">
-        <v>7</v>
-      </c>
       <c r="BG66">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BH66">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BI66">
+        <v>12</v>
+      </c>
+      <c r="BJ66">
         <v>14</v>
       </c>
-      <c r="BJ66">
-        <v>12</v>
-      </c>
       <c r="BK66">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" spans="1:63">
@@ -13565,7 +13574,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>5119640</v>
+        <v>5137150</v>
       </c>
       <c r="C67" t="s">
         <v>63</v>
@@ -13580,10 +13589,10 @@
         <v>7</v>
       </c>
       <c r="G67" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="H67" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I67">
         <v>1</v>
@@ -13598,157 +13607,157 @@
         <v>2</v>
       </c>
       <c r="M67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O67" t="s">
         <v>147</v>
       </c>
       <c r="P67" t="s">
-        <v>173</v>
+        <v>100</v>
       </c>
       <c r="Q67">
+        <v>1</v>
+      </c>
+      <c r="R67">
+        <v>6</v>
+      </c>
+      <c r="S67">
+        <v>7</v>
+      </c>
+      <c r="T67">
+        <v>3.4</v>
+      </c>
+      <c r="U67">
+        <v>2.1</v>
+      </c>
+      <c r="V67">
+        <v>3</v>
+      </c>
+      <c r="W67">
+        <v>1.42</v>
+      </c>
+      <c r="X67">
+        <v>2.65</v>
+      </c>
+      <c r="Y67">
+        <v>2.85</v>
+      </c>
+      <c r="Z67">
+        <v>1.37</v>
+      </c>
+      <c r="AA67">
+        <v>7</v>
+      </c>
+      <c r="AB67">
+        <v>1.07</v>
+      </c>
+      <c r="AC67">
+        <v>3.1</v>
+      </c>
+      <c r="AD67">
+        <v>3.25</v>
+      </c>
+      <c r="AE67">
+        <v>2.15</v>
+      </c>
+      <c r="AF67">
+        <v>1.04</v>
+      </c>
+      <c r="AG67">
+        <v>9.5</v>
+      </c>
+      <c r="AH67">
+        <v>1.3</v>
+      </c>
+      <c r="AI67">
+        <v>3.2</v>
+      </c>
+      <c r="AJ67">
+        <v>1.99</v>
+      </c>
+      <c r="AK67">
+        <v>1.82</v>
+      </c>
+      <c r="AL67">
+        <v>1.74</v>
+      </c>
+      <c r="AM67">
+        <v>2.04</v>
+      </c>
+      <c r="AN67">
+        <v>1.66</v>
+      </c>
+      <c r="AO67">
+        <v>1.28</v>
+      </c>
+      <c r="AP67">
+        <v>1.29</v>
+      </c>
+      <c r="AQ67">
+        <v>1.13</v>
+      </c>
+      <c r="AR67">
+        <v>2.17</v>
+      </c>
+      <c r="AS67">
+        <v>1.2</v>
+      </c>
+      <c r="AT67">
+        <v>2.11</v>
+      </c>
+      <c r="AU67">
+        <v>2.29</v>
+      </c>
+      <c r="AV67">
+        <v>2.08</v>
+      </c>
+      <c r="AW67">
+        <v>4.37</v>
+      </c>
+      <c r="AX67">
+        <v>0</v>
+      </c>
+      <c r="AY67">
+        <v>0</v>
+      </c>
+      <c r="AZ67">
+        <v>0</v>
+      </c>
+      <c r="BA67">
+        <v>0</v>
+      </c>
+      <c r="BB67">
+        <v>1.33</v>
+      </c>
+      <c r="BC67">
+        <v>2</v>
+      </c>
+      <c r="BD67">
+        <v>2.02</v>
+      </c>
+      <c r="BE67">
+        <v>2.65</v>
+      </c>
+      <c r="BF67">
+        <v>7</v>
+      </c>
+      <c r="BG67">
         <v>5</v>
       </c>
-      <c r="R67">
+      <c r="BH67">
         <v>5</v>
       </c>
-      <c r="S67">
-        <v>10</v>
-      </c>
-      <c r="T67">
-        <v>1.83</v>
-      </c>
-      <c r="U67">
-        <v>2.3</v>
-      </c>
-      <c r="V67">
-        <v>7.5</v>
-      </c>
-      <c r="W67">
-        <v>1.39</v>
-      </c>
-      <c r="X67">
-        <v>2.86</v>
-      </c>
-      <c r="Y67">
-        <v>2.84</v>
-      </c>
-      <c r="Z67">
-        <v>1.39</v>
-      </c>
-      <c r="AA67">
-        <v>6.6</v>
-      </c>
-      <c r="AB67">
-        <v>1.08</v>
-      </c>
-      <c r="AC67">
-        <v>1.36</v>
-      </c>
-      <c r="AD67">
-        <v>4.33</v>
-      </c>
-      <c r="AE67">
-        <v>7</v>
-      </c>
-      <c r="AF67">
-        <v>1.03</v>
-      </c>
-      <c r="AG67">
-        <v>9.75</v>
-      </c>
-      <c r="AH67">
-        <v>1.26</v>
-      </c>
-      <c r="AI67">
-        <v>3.3</v>
-      </c>
-      <c r="AJ67">
-        <v>1.85</v>
-      </c>
-      <c r="AK67">
-        <v>1.89</v>
-      </c>
-      <c r="AL67">
-        <v>2.25</v>
-      </c>
-      <c r="AM67">
-        <v>1.55</v>
-      </c>
-      <c r="AN67">
-        <v>1.07</v>
-      </c>
-      <c r="AO67">
-        <v>1.2</v>
-      </c>
-      <c r="AP67">
-        <v>2.7</v>
-      </c>
-      <c r="AQ67">
-        <v>2.4</v>
-      </c>
-      <c r="AR67">
-        <v>1.67</v>
-      </c>
-      <c r="AS67">
-        <v>2.38</v>
-      </c>
-      <c r="AT67">
-        <v>1.38</v>
-      </c>
-      <c r="AU67">
-        <v>2.07</v>
-      </c>
-      <c r="AV67">
-        <v>0.82</v>
-      </c>
-      <c r="AW67">
-        <v>2.89</v>
-      </c>
-      <c r="AX67">
-        <v>0</v>
-      </c>
-      <c r="AY67">
-        <v>0</v>
-      </c>
-      <c r="AZ67">
-        <v>0</v>
-      </c>
-      <c r="BA67">
-        <v>0</v>
-      </c>
-      <c r="BB67">
-        <v>0</v>
-      </c>
-      <c r="BC67">
-        <v>2</v>
-      </c>
-      <c r="BD67">
-        <v>0</v>
-      </c>
-      <c r="BE67">
-        <v>0</v>
-      </c>
-      <c r="BF67">
-        <v>6</v>
-      </c>
-      <c r="BG67">
-        <v>4</v>
-      </c>
-      <c r="BH67">
-        <v>8</v>
-      </c>
       <c r="BI67">
+        <v>14</v>
+      </c>
+      <c r="BJ67">
         <v>12</v>
       </c>
-      <c r="BJ67">
-        <v>14</v>
-      </c>
       <c r="BK67">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68" spans="1:63">
@@ -13798,7 +13807,7 @@
         <v>148</v>
       </c>
       <c r="P68" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q68">
         <v>3</v>
@@ -14076,7 +14085,7 @@
         <v>1.75</v>
       </c>
       <c r="AS69">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT69">
         <v>1.5</v>
@@ -14138,7 +14147,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>5119647</v>
+        <v>5137155</v>
       </c>
       <c r="C70" t="s">
         <v>63</v>
@@ -14156,130 +14165,130 @@
         <v>80</v>
       </c>
       <c r="H70" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J70">
         <v>0</v>
       </c>
       <c r="K70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L70">
         <v>3</v>
       </c>
       <c r="M70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N70">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O70" t="s">
         <v>149</v>
       </c>
       <c r="P70" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q70">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="R70">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="S70">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T70">
+        <v>2.4</v>
+      </c>
+      <c r="U70">
+        <v>2.1</v>
+      </c>
+      <c r="V70">
+        <v>4.75</v>
+      </c>
+      <c r="W70">
+        <v>1.4</v>
+      </c>
+      <c r="X70">
+        <v>2.73</v>
+      </c>
+      <c r="Y70">
+        <v>2.9</v>
+      </c>
+      <c r="Z70">
+        <v>1.36</v>
+      </c>
+      <c r="AA70">
+        <v>8</v>
+      </c>
+      <c r="AB70">
+        <v>1.06</v>
+      </c>
+      <c r="AC70">
+        <v>1.55</v>
+      </c>
+      <c r="AD70">
+        <v>3.8</v>
+      </c>
+      <c r="AE70">
+        <v>4.62</v>
+      </c>
+      <c r="AF70">
+        <v>1.04</v>
+      </c>
+      <c r="AG70">
+        <v>8.5</v>
+      </c>
+      <c r="AH70">
+        <v>1.3</v>
+      </c>
+      <c r="AI70">
+        <v>3.08</v>
+      </c>
+      <c r="AJ70">
+        <v>1.83</v>
+      </c>
+      <c r="AK70">
+        <v>1.83</v>
+      </c>
+      <c r="AL70">
+        <v>1.85</v>
+      </c>
+      <c r="AM70">
+        <v>1.81</v>
+      </c>
+      <c r="AN70">
+        <v>1.14</v>
+      </c>
+      <c r="AO70">
+        <v>1.24</v>
+      </c>
+      <c r="AP70">
+        <v>2.07</v>
+      </c>
+      <c r="AQ70">
+        <v>1.43</v>
+      </c>
+      <c r="AR70">
         <v>1.67</v>
       </c>
-      <c r="U70">
-        <v>2.5</v>
-      </c>
-      <c r="V70">
-        <v>9.5</v>
-      </c>
-      <c r="W70">
-        <v>1.29</v>
-      </c>
-      <c r="X70">
-        <v>3.32</v>
-      </c>
-      <c r="Y70">
-        <v>2.38</v>
-      </c>
-      <c r="Z70">
-        <v>1.52</v>
-      </c>
-      <c r="AA70">
-        <v>5.25</v>
-      </c>
-      <c r="AB70">
-        <v>1.11</v>
-      </c>
-      <c r="AC70">
-        <v>1.18</v>
-      </c>
-      <c r="AD70">
-        <v>5.85</v>
-      </c>
-      <c r="AE70">
-        <v>9.380000000000001</v>
-      </c>
-      <c r="AF70">
-        <v>1.02</v>
-      </c>
-      <c r="AG70">
-        <v>16.75</v>
-      </c>
-      <c r="AH70">
-        <v>1.17</v>
-      </c>
-      <c r="AI70">
-        <v>4.2</v>
-      </c>
-      <c r="AJ70">
-        <v>1.6</v>
-      </c>
-      <c r="AK70">
-        <v>2.14</v>
-      </c>
-      <c r="AL70">
-        <v>2.35</v>
-      </c>
-      <c r="AM70">
-        <v>1.5</v>
-      </c>
-      <c r="AN70">
-        <v>1</v>
-      </c>
-      <c r="AO70">
-        <v>1.07</v>
-      </c>
-      <c r="AP70">
-        <v>4.55</v>
-      </c>
-      <c r="AQ70">
-        <v>1.86</v>
-      </c>
-      <c r="AR70">
-        <v>0.86</v>
-      </c>
       <c r="AS70">
-        <v>2</v>
+        <v>1.44</v>
       </c>
       <c r="AT70">
-        <v>0.75</v>
+        <v>1.36</v>
       </c>
       <c r="AU70">
-        <v>1.64</v>
+        <v>1.46</v>
       </c>
       <c r="AV70">
-        <v>1.44</v>
+        <v>1.31</v>
       </c>
       <c r="AW70">
-        <v>3.08</v>
+        <v>2.77</v>
       </c>
       <c r="AX70">
         <v>0</v>
@@ -14294,34 +14303,34 @@
         <v>0</v>
       </c>
       <c r="BB70">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="BC70">
-        <v>1.44</v>
+        <v>2.1</v>
       </c>
       <c r="BD70">
+        <v>1.49</v>
+      </c>
+      <c r="BE70">
         <v>1.8</v>
       </c>
-      <c r="BE70">
-        <v>2.25</v>
-      </c>
       <c r="BF70">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BG70">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BH70">
+        <v>5</v>
+      </c>
+      <c r="BI70">
+        <v>7</v>
+      </c>
+      <c r="BJ70">
+        <v>16</v>
+      </c>
+      <c r="BK70">
         <v>13</v>
-      </c>
-      <c r="BI70">
-        <v>3</v>
-      </c>
-      <c r="BJ70">
-        <v>23</v>
-      </c>
-      <c r="BK70">
-        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:63">
@@ -14329,7 +14338,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>5119646</v>
+        <v>5137154</v>
       </c>
       <c r="C71" t="s">
         <v>63</v>
@@ -14344,10 +14353,10 @@
         <v>8</v>
       </c>
       <c r="G71" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="H71" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -14359,160 +14368,160 @@
         <v>1</v>
       </c>
       <c r="L71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M71">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N71">
         <v>4</v>
       </c>
       <c r="O71" t="s">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="P71" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q71">
+        <v>6</v>
+      </c>
+      <c r="R71">
         <v>4</v>
       </c>
-      <c r="R71">
-        <v>3</v>
-      </c>
       <c r="S71">
+        <v>10</v>
+      </c>
+      <c r="T71">
+        <v>5</v>
+      </c>
+      <c r="U71">
+        <v>2.2</v>
+      </c>
+      <c r="V71">
+        <v>2.2</v>
+      </c>
+      <c r="W71">
+        <v>1.43</v>
+      </c>
+      <c r="X71">
+        <v>2.61</v>
+      </c>
+      <c r="Y71">
+        <v>3.15</v>
+      </c>
+      <c r="Z71">
+        <v>1.34</v>
+      </c>
+      <c r="AA71">
+        <v>7.9</v>
+      </c>
+      <c r="AB71">
+        <v>1.05</v>
+      </c>
+      <c r="AC71">
+        <v>4.94</v>
+      </c>
+      <c r="AD71">
+        <v>3.45</v>
+      </c>
+      <c r="AE71">
+        <v>1.58</v>
+      </c>
+      <c r="AF71">
+        <v>1.05</v>
+      </c>
+      <c r="AG71">
+        <v>8.75</v>
+      </c>
+      <c r="AH71">
+        <v>1.31</v>
+      </c>
+      <c r="AI71">
+        <v>2.85</v>
+      </c>
+      <c r="AJ71">
+        <v>2.05</v>
+      </c>
+      <c r="AK71">
+        <v>1.65</v>
+      </c>
+      <c r="AL71">
+        <v>1.86</v>
+      </c>
+      <c r="AM71">
+        <v>1.76</v>
+      </c>
+      <c r="AN71">
+        <v>2.05</v>
+      </c>
+      <c r="AO71">
+        <v>1.29</v>
+      </c>
+      <c r="AP71">
+        <v>1.16</v>
+      </c>
+      <c r="AQ71">
+        <v>1.67</v>
+      </c>
+      <c r="AR71">
+        <v>2.14</v>
+      </c>
+      <c r="AS71">
+        <v>1.5</v>
+      </c>
+      <c r="AT71">
+        <v>2.33</v>
+      </c>
+      <c r="AU71">
+        <v>1.82</v>
+      </c>
+      <c r="AV71">
+        <v>1.7</v>
+      </c>
+      <c r="AW71">
+        <v>3.52</v>
+      </c>
+      <c r="AX71">
+        <v>0</v>
+      </c>
+      <c r="AY71">
+        <v>0</v>
+      </c>
+      <c r="AZ71">
+        <v>0</v>
+      </c>
+      <c r="BA71">
+        <v>0</v>
+      </c>
+      <c r="BB71">
+        <v>1.33</v>
+      </c>
+      <c r="BC71">
+        <v>2</v>
+      </c>
+      <c r="BD71">
+        <v>2.02</v>
+      </c>
+      <c r="BE71">
+        <v>2.65</v>
+      </c>
+      <c r="BF71">
+        <v>6</v>
+      </c>
+      <c r="BG71">
+        <v>8</v>
+      </c>
+      <c r="BH71">
+        <v>5</v>
+      </c>
+      <c r="BI71">
         <v>7</v>
       </c>
-      <c r="T71">
-        <v>2.2</v>
-      </c>
-      <c r="U71">
-        <v>2.1</v>
-      </c>
-      <c r="V71">
-        <v>5.5</v>
-      </c>
-      <c r="W71">
-        <v>1.48</v>
-      </c>
-      <c r="X71">
-        <v>2.59</v>
-      </c>
-      <c r="Y71">
-        <v>3.19</v>
-      </c>
-      <c r="Z71">
-        <v>1.32</v>
-      </c>
-      <c r="AA71">
-        <v>7.25</v>
-      </c>
-      <c r="AB71">
-        <v>1.06</v>
-      </c>
-      <c r="AC71">
-        <v>1.5</v>
-      </c>
-      <c r="AD71">
-        <v>3.7</v>
-      </c>
-      <c r="AE71">
-        <v>5.32</v>
-      </c>
-      <c r="AF71">
-        <v>1.02</v>
-      </c>
-      <c r="AG71">
-        <v>8</v>
-      </c>
-      <c r="AH71">
-        <v>1.32</v>
-      </c>
-      <c r="AI71">
-        <v>2.8</v>
-      </c>
-      <c r="AJ71">
-        <v>1.98</v>
-      </c>
-      <c r="AK71">
-        <v>1.7</v>
-      </c>
-      <c r="AL71">
-        <v>2.05</v>
-      </c>
-      <c r="AM71">
-        <v>1.62</v>
-      </c>
-      <c r="AN71">
-        <v>1.17</v>
-      </c>
-      <c r="AO71">
-        <v>1.28</v>
-      </c>
-      <c r="AP71">
-        <v>2</v>
-      </c>
-      <c r="AQ71">
-        <v>1.43</v>
-      </c>
-      <c r="AR71">
-        <v>1.14</v>
-      </c>
-      <c r="AS71">
-        <v>1.38</v>
-      </c>
-      <c r="AT71">
-        <v>1.13</v>
-      </c>
-      <c r="AU71">
-        <v>1.88</v>
-      </c>
-      <c r="AV71">
-        <v>1.6</v>
-      </c>
-      <c r="AW71">
-        <v>3.48</v>
-      </c>
-      <c r="AX71">
-        <v>0</v>
-      </c>
-      <c r="AY71">
-        <v>0</v>
-      </c>
-      <c r="AZ71">
-        <v>0</v>
-      </c>
-      <c r="BA71">
-        <v>0</v>
-      </c>
-      <c r="BB71">
-        <v>1.46</v>
-      </c>
-      <c r="BC71">
-        <v>2.38</v>
-      </c>
-      <c r="BD71">
-        <v>2.38</v>
-      </c>
-      <c r="BE71">
-        <v>3.25</v>
-      </c>
-      <c r="BF71">
-        <v>4</v>
-      </c>
-      <c r="BG71">
-        <v>3</v>
-      </c>
-      <c r="BH71">
-        <v>1</v>
-      </c>
-      <c r="BI71">
-        <v>5</v>
-      </c>
       <c r="BJ71">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="BK71">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="72" spans="1:63">
@@ -14520,7 +14529,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>5119645</v>
+        <v>5119644</v>
       </c>
       <c r="C72" t="s">
         <v>63</v>
@@ -14535,19 +14544,19 @@
         <v>8</v>
       </c>
       <c r="G72" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H72" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I72">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J72">
         <v>0</v>
       </c>
       <c r="K72">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L72">
         <v>3</v>
@@ -14559,151 +14568,151 @@
         <v>3</v>
       </c>
       <c r="O72" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P72" t="s">
         <v>100</v>
       </c>
       <c r="Q72">
+        <v>6</v>
+      </c>
+      <c r="R72">
+        <v>5</v>
+      </c>
+      <c r="S72">
+        <v>11</v>
+      </c>
+      <c r="T72">
+        <v>1.5</v>
+      </c>
+      <c r="U72">
+        <v>2.75</v>
+      </c>
+      <c r="V72">
+        <v>13</v>
+      </c>
+      <c r="W72">
+        <v>1.27</v>
+      </c>
+      <c r="X72">
+        <v>3.42</v>
+      </c>
+      <c r="Y72">
+        <v>2.32</v>
+      </c>
+      <c r="Z72">
+        <v>1.54</v>
+      </c>
+      <c r="AA72">
+        <v>5.25</v>
+      </c>
+      <c r="AB72">
+        <v>1.13</v>
+      </c>
+      <c r="AC72">
+        <v>1.2</v>
+      </c>
+      <c r="AD72">
+        <v>5.7</v>
+      </c>
+      <c r="AE72">
+        <v>8.6</v>
+      </c>
+      <c r="AF72">
+        <v>1.01</v>
+      </c>
+      <c r="AG72">
+        <v>17</v>
+      </c>
+      <c r="AH72">
+        <v>1.16</v>
+      </c>
+      <c r="AI72">
+        <v>4.4</v>
+      </c>
+      <c r="AJ72">
+        <v>1.57</v>
+      </c>
+      <c r="AK72">
+        <v>2.19</v>
+      </c>
+      <c r="AL72">
+        <v>2.88</v>
+      </c>
+      <c r="AM72">
+        <v>1.34</v>
+      </c>
+      <c r="AN72">
+        <v>1.02</v>
+      </c>
+      <c r="AO72">
+        <v>1.11</v>
+      </c>
+      <c r="AP72">
+        <v>3.52</v>
+      </c>
+      <c r="AQ72">
+        <v>1.57</v>
+      </c>
+      <c r="AR72">
+        <v>0.43</v>
+      </c>
+      <c r="AS72">
+        <v>1.89</v>
+      </c>
+      <c r="AT72">
+        <v>0.38</v>
+      </c>
+      <c r="AU72">
+        <v>1.56</v>
+      </c>
+      <c r="AV72">
+        <v>1.27</v>
+      </c>
+      <c r="AW72">
+        <v>2.83</v>
+      </c>
+      <c r="AX72">
+        <v>0</v>
+      </c>
+      <c r="AY72">
+        <v>0</v>
+      </c>
+      <c r="AZ72">
+        <v>0</v>
+      </c>
+      <c r="BA72">
+        <v>0</v>
+      </c>
+      <c r="BB72">
+        <v>0</v>
+      </c>
+      <c r="BC72">
+        <v>2</v>
+      </c>
+      <c r="BD72">
+        <v>0</v>
+      </c>
+      <c r="BE72">
+        <v>0</v>
+      </c>
+      <c r="BF72">
         <v>4</v>
       </c>
-      <c r="R72">
-        <v>4</v>
-      </c>
-      <c r="S72">
-        <v>8</v>
-      </c>
-      <c r="T72">
-        <v>3.2</v>
-      </c>
-      <c r="U72">
-        <v>2.05</v>
-      </c>
-      <c r="V72">
-        <v>3.25</v>
-      </c>
-      <c r="W72">
-        <v>1.43</v>
-      </c>
-      <c r="X72">
-        <v>2.62</v>
-      </c>
-      <c r="Y72">
-        <v>2.99</v>
-      </c>
-      <c r="Z72">
-        <v>1.34</v>
-      </c>
-      <c r="AA72">
-        <v>7</v>
-      </c>
-      <c r="AB72">
-        <v>1.07</v>
-      </c>
-      <c r="AC72">
-        <v>2.5</v>
-      </c>
-      <c r="AD72">
-        <v>3.25</v>
-      </c>
-      <c r="AE72">
-        <v>2.4</v>
-      </c>
-      <c r="AF72">
-        <v>1.06</v>
-      </c>
-      <c r="AG72">
-        <v>9.9</v>
-      </c>
-      <c r="AH72">
-        <v>1.34</v>
-      </c>
-      <c r="AI72">
-        <v>3</v>
-      </c>
-      <c r="AJ72">
-        <v>1.98</v>
-      </c>
-      <c r="AK72">
-        <v>1.7</v>
-      </c>
-      <c r="AL72">
-        <v>1.81</v>
-      </c>
-      <c r="AM72">
-        <v>1.95</v>
-      </c>
-      <c r="AN72">
-        <v>1.44</v>
-      </c>
-      <c r="AO72">
-        <v>1.31</v>
-      </c>
-      <c r="AP72">
-        <v>1.43</v>
-      </c>
-      <c r="AQ72">
-        <v>0.86</v>
-      </c>
-      <c r="AR72">
-        <v>1.86</v>
-      </c>
-      <c r="AS72">
-        <v>1.13</v>
-      </c>
-      <c r="AT72">
-        <v>1.63</v>
-      </c>
-      <c r="AU72">
-        <v>2.32</v>
-      </c>
-      <c r="AV72">
-        <v>1.64</v>
-      </c>
-      <c r="AW72">
-        <v>3.96</v>
-      </c>
-      <c r="AX72">
-        <v>0</v>
-      </c>
-      <c r="AY72">
-        <v>0</v>
-      </c>
-      <c r="AZ72">
-        <v>0</v>
-      </c>
-      <c r="BA72">
-        <v>0</v>
-      </c>
-      <c r="BB72">
-        <v>1.41</v>
-      </c>
-      <c r="BC72">
-        <v>2.1</v>
-      </c>
-      <c r="BD72">
-        <v>2.23</v>
-      </c>
-      <c r="BE72">
-        <v>3</v>
-      </c>
-      <c r="BF72">
-        <v>9</v>
-      </c>
       <c r="BG72">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BH72">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BI72">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="BJ72">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="BK72">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" spans="1:63">
@@ -14750,7 +14759,7 @@
         <v>3</v>
       </c>
       <c r="O73" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="P73" t="s">
         <v>125</v>
@@ -14902,7 +14911,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>5137153</v>
+        <v>5119647</v>
       </c>
       <c r="C74" t="s">
         <v>63</v>
@@ -14917,133 +14926,133 @@
         <v>8</v>
       </c>
       <c r="G74" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="H74" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I74">
         <v>1</v>
       </c>
       <c r="J74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N74">
         <v>4</v>
       </c>
       <c r="O74" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P74" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q74">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="R74">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="S74">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="T74">
-        <v>7.6</v>
+        <v>1.67</v>
       </c>
       <c r="U74">
+        <v>2.5</v>
+      </c>
+      <c r="V74">
+        <v>9.5</v>
+      </c>
+      <c r="W74">
+        <v>1.29</v>
+      </c>
+      <c r="X74">
+        <v>3.32</v>
+      </c>
+      <c r="Y74">
+        <v>2.38</v>
+      </c>
+      <c r="Z74">
+        <v>1.52</v>
+      </c>
+      <c r="AA74">
+        <v>5.25</v>
+      </c>
+      <c r="AB74">
+        <v>1.11</v>
+      </c>
+      <c r="AC74">
+        <v>1.18</v>
+      </c>
+      <c r="AD74">
+        <v>5.85</v>
+      </c>
+      <c r="AE74">
+        <v>9.380000000000001</v>
+      </c>
+      <c r="AF74">
+        <v>1.02</v>
+      </c>
+      <c r="AG74">
+        <v>16.75</v>
+      </c>
+      <c r="AH74">
+        <v>1.17</v>
+      </c>
+      <c r="AI74">
+        <v>4.2</v>
+      </c>
+      <c r="AJ74">
+        <v>1.6</v>
+      </c>
+      <c r="AK74">
+        <v>2.14</v>
+      </c>
+      <c r="AL74">
+        <v>2.35</v>
+      </c>
+      <c r="AM74">
+        <v>1.5</v>
+      </c>
+      <c r="AN74">
+        <v>1</v>
+      </c>
+      <c r="AO74">
+        <v>1.07</v>
+      </c>
+      <c r="AP74">
+        <v>4.55</v>
+      </c>
+      <c r="AQ74">
+        <v>1.86</v>
+      </c>
+      <c r="AR74">
+        <v>0.86</v>
+      </c>
+      <c r="AS74">
         <v>2.11</v>
       </c>
-      <c r="V74">
-        <v>2</v>
-      </c>
-      <c r="W74">
-        <v>1.46</v>
-      </c>
-      <c r="X74">
-        <v>2.53</v>
-      </c>
-      <c r="Y74">
-        <v>3.15</v>
-      </c>
-      <c r="Z74">
-        <v>1.31</v>
-      </c>
-      <c r="AA74">
-        <v>9</v>
-      </c>
-      <c r="AB74">
-        <v>1.05</v>
-      </c>
-      <c r="AC74">
-        <v>4.77</v>
-      </c>
-      <c r="AD74">
-        <v>3.7</v>
-      </c>
-      <c r="AE74">
-        <v>1.55</v>
-      </c>
-      <c r="AF74">
-        <v>1.07</v>
-      </c>
-      <c r="AG74">
-        <v>8.449999999999999</v>
-      </c>
-      <c r="AH74">
-        <v>1.36</v>
-      </c>
-      <c r="AI74">
-        <v>2.78</v>
-      </c>
-      <c r="AJ74">
-        <v>2.04</v>
-      </c>
-      <c r="AK74">
-        <v>1.66</v>
-      </c>
-      <c r="AL74">
-        <v>2.38</v>
-      </c>
-      <c r="AM74">
-        <v>1.49</v>
-      </c>
-      <c r="AN74">
-        <v>2.21</v>
-      </c>
-      <c r="AO74">
-        <v>1.24</v>
-      </c>
-      <c r="AP74">
-        <v>1.1</v>
-      </c>
-      <c r="AQ74">
-        <v>1.22</v>
-      </c>
-      <c r="AR74">
-        <v>2.29</v>
-      </c>
-      <c r="AS74">
-        <v>1.1</v>
-      </c>
       <c r="AT74">
-        <v>2.38</v>
+        <v>0.75</v>
       </c>
       <c r="AU74">
-        <v>1.36</v>
+        <v>1.64</v>
       </c>
       <c r="AV74">
-        <v>1.91</v>
+        <v>1.44</v>
       </c>
       <c r="AW74">
-        <v>3.27</v>
+        <v>3.08</v>
       </c>
       <c r="AX74">
         <v>0</v>
@@ -15058,34 +15067,34 @@
         <v>0</v>
       </c>
       <c r="BB74">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="BC74">
-        <v>1.83</v>
+        <v>1.44</v>
       </c>
       <c r="BD74">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="BE74">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="BF74">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BG74">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="BH74">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="BI74">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="BJ74">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="BK74">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:63">
@@ -15093,7 +15102,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>5137154</v>
+        <v>5119646</v>
       </c>
       <c r="C75" t="s">
         <v>63</v>
@@ -15108,10 +15117,10 @@
         <v>8</v>
       </c>
       <c r="G75" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="H75" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -15123,160 +15132,160 @@
         <v>1</v>
       </c>
       <c r="L75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M75">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N75">
         <v>4</v>
       </c>
       <c r="O75" t="s">
-        <v>100</v>
+        <v>153</v>
       </c>
       <c r="P75" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q75">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R75">
+        <v>3</v>
+      </c>
+      <c r="S75">
+        <v>7</v>
+      </c>
+      <c r="T75">
+        <v>2.2</v>
+      </c>
+      <c r="U75">
+        <v>2.1</v>
+      </c>
+      <c r="V75">
+        <v>5.5</v>
+      </c>
+      <c r="W75">
+        <v>1.48</v>
+      </c>
+      <c r="X75">
+        <v>2.59</v>
+      </c>
+      <c r="Y75">
+        <v>3.19</v>
+      </c>
+      <c r="Z75">
+        <v>1.32</v>
+      </c>
+      <c r="AA75">
+        <v>7.25</v>
+      </c>
+      <c r="AB75">
+        <v>1.06</v>
+      </c>
+      <c r="AC75">
+        <v>1.5</v>
+      </c>
+      <c r="AD75">
+        <v>3.7</v>
+      </c>
+      <c r="AE75">
+        <v>5.32</v>
+      </c>
+      <c r="AF75">
+        <v>1.02</v>
+      </c>
+      <c r="AG75">
+        <v>8</v>
+      </c>
+      <c r="AH75">
+        <v>1.32</v>
+      </c>
+      <c r="AI75">
+        <v>2.8</v>
+      </c>
+      <c r="AJ75">
+        <v>1.98</v>
+      </c>
+      <c r="AK75">
+        <v>1.7</v>
+      </c>
+      <c r="AL75">
+        <v>2.05</v>
+      </c>
+      <c r="AM75">
+        <v>1.62</v>
+      </c>
+      <c r="AN75">
+        <v>1.17</v>
+      </c>
+      <c r="AO75">
+        <v>1.28</v>
+      </c>
+      <c r="AP75">
+        <v>2</v>
+      </c>
+      <c r="AQ75">
+        <v>1.43</v>
+      </c>
+      <c r="AR75">
+        <v>1.14</v>
+      </c>
+      <c r="AS75">
+        <v>1.22</v>
+      </c>
+      <c r="AT75">
+        <v>1.13</v>
+      </c>
+      <c r="AU75">
+        <v>1.88</v>
+      </c>
+      <c r="AV75">
+        <v>1.6</v>
+      </c>
+      <c r="AW75">
+        <v>3.48</v>
+      </c>
+      <c r="AX75">
+        <v>0</v>
+      </c>
+      <c r="AY75">
+        <v>0</v>
+      </c>
+      <c r="AZ75">
+        <v>0</v>
+      </c>
+      <c r="BA75">
+        <v>0</v>
+      </c>
+      <c r="BB75">
+        <v>1.46</v>
+      </c>
+      <c r="BC75">
+        <v>2.38</v>
+      </c>
+      <c r="BD75">
+        <v>2.38</v>
+      </c>
+      <c r="BE75">
+        <v>3.25</v>
+      </c>
+      <c r="BF75">
         <v>4</v>
       </c>
-      <c r="S75">
-        <v>10</v>
-      </c>
-      <c r="T75">
+      <c r="BG75">
+        <v>3</v>
+      </c>
+      <c r="BH75">
+        <v>1</v>
+      </c>
+      <c r="BI75">
         <v>5</v>
       </c>
-      <c r="U75">
-        <v>2.2</v>
-      </c>
-      <c r="V75">
-        <v>2.2</v>
-      </c>
-      <c r="W75">
-        <v>1.43</v>
-      </c>
-      <c r="X75">
-        <v>2.61</v>
-      </c>
-      <c r="Y75">
-        <v>3.15</v>
-      </c>
-      <c r="Z75">
-        <v>1.34</v>
-      </c>
-      <c r="AA75">
-        <v>7.9</v>
-      </c>
-      <c r="AB75">
-        <v>1.05</v>
-      </c>
-      <c r="AC75">
-        <v>4.94</v>
-      </c>
-      <c r="AD75">
-        <v>3.45</v>
-      </c>
-      <c r="AE75">
-        <v>1.58</v>
-      </c>
-      <c r="AF75">
-        <v>1.05</v>
-      </c>
-      <c r="AG75">
-        <v>8.75</v>
-      </c>
-      <c r="AH75">
-        <v>1.31</v>
-      </c>
-      <c r="AI75">
-        <v>2.85</v>
-      </c>
-      <c r="AJ75">
-        <v>2.05</v>
-      </c>
-      <c r="AK75">
-        <v>1.65</v>
-      </c>
-      <c r="AL75">
-        <v>1.86</v>
-      </c>
-      <c r="AM75">
-        <v>1.76</v>
-      </c>
-      <c r="AN75">
-        <v>2.05</v>
-      </c>
-      <c r="AO75">
-        <v>1.29</v>
-      </c>
-      <c r="AP75">
-        <v>1.16</v>
-      </c>
-      <c r="AQ75">
-        <v>1.67</v>
-      </c>
-      <c r="AR75">
-        <v>2.14</v>
-      </c>
-      <c r="AS75">
-        <v>1.5</v>
-      </c>
-      <c r="AT75">
-        <v>2.33</v>
-      </c>
-      <c r="AU75">
-        <v>1.82</v>
-      </c>
-      <c r="AV75">
-        <v>1.7</v>
-      </c>
-      <c r="AW75">
-        <v>3.52</v>
-      </c>
-      <c r="AX75">
-        <v>0</v>
-      </c>
-      <c r="AY75">
-        <v>0</v>
-      </c>
-      <c r="AZ75">
-        <v>0</v>
-      </c>
-      <c r="BA75">
-        <v>0</v>
-      </c>
-      <c r="BB75">
-        <v>1.33</v>
-      </c>
-      <c r="BC75">
-        <v>2</v>
-      </c>
-      <c r="BD75">
-        <v>2.02</v>
-      </c>
-      <c r="BE75">
-        <v>2.65</v>
-      </c>
-      <c r="BF75">
-        <v>6</v>
-      </c>
-      <c r="BG75">
+      <c r="BJ75">
+        <v>5</v>
+      </c>
+      <c r="BK75">
         <v>8</v>
-      </c>
-      <c r="BH75">
-        <v>5</v>
-      </c>
-      <c r="BI75">
-        <v>7</v>
-      </c>
-      <c r="BJ75">
-        <v>11</v>
-      </c>
-      <c r="BK75">
-        <v>15</v>
       </c>
     </row>
     <row r="76" spans="1:63">
@@ -15284,7 +15293,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>5137155</v>
+        <v>5119645</v>
       </c>
       <c r="C76" t="s">
         <v>63</v>
@@ -15299,10 +15308,10 @@
         <v>8</v>
       </c>
       <c r="G76" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H76" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="I76">
         <v>2</v>
@@ -15317,115 +15326,115 @@
         <v>3</v>
       </c>
       <c r="M76">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N76">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O76" t="s">
         <v>154</v>
       </c>
       <c r="P76" t="s">
-        <v>190</v>
+        <v>100</v>
       </c>
       <c r="Q76">
         <v>4</v>
       </c>
       <c r="R76">
+        <v>4</v>
+      </c>
+      <c r="S76">
+        <v>8</v>
+      </c>
+      <c r="T76">
+        <v>3.2</v>
+      </c>
+      <c r="U76">
+        <v>2.05</v>
+      </c>
+      <c r="V76">
+        <v>3.25</v>
+      </c>
+      <c r="W76">
+        <v>1.43</v>
+      </c>
+      <c r="X76">
+        <v>2.62</v>
+      </c>
+      <c r="Y76">
+        <v>2.99</v>
+      </c>
+      <c r="Z76">
+        <v>1.34</v>
+      </c>
+      <c r="AA76">
         <v>7</v>
       </c>
-      <c r="S76">
-        <v>11</v>
-      </c>
-      <c r="T76">
+      <c r="AB76">
+        <v>1.07</v>
+      </c>
+      <c r="AC76">
+        <v>2.5</v>
+      </c>
+      <c r="AD76">
+        <v>3.25</v>
+      </c>
+      <c r="AE76">
         <v>2.4</v>
       </c>
-      <c r="U76">
-        <v>2.1</v>
-      </c>
-      <c r="V76">
-        <v>4.75</v>
-      </c>
-      <c r="W76">
-        <v>1.4</v>
-      </c>
-      <c r="X76">
-        <v>2.73</v>
-      </c>
-      <c r="Y76">
-        <v>2.9</v>
-      </c>
-      <c r="Z76">
-        <v>1.36</v>
-      </c>
-      <c r="AA76">
-        <v>8</v>
-      </c>
-      <c r="AB76">
+      <c r="AF76">
         <v>1.06</v>
       </c>
-      <c r="AC76">
-        <v>1.55</v>
-      </c>
-      <c r="AD76">
-        <v>3.8</v>
-      </c>
-      <c r="AE76">
-        <v>4.62</v>
-      </c>
-      <c r="AF76">
-        <v>1.04</v>
-      </c>
       <c r="AG76">
-        <v>8.5</v>
+        <v>9.9</v>
       </c>
       <c r="AH76">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="AI76">
-        <v>3.08</v>
+        <v>3</v>
       </c>
       <c r="AJ76">
-        <v>1.83</v>
+        <v>1.98</v>
       </c>
       <c r="AK76">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="AL76">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="AM76">
-        <v>1.81</v>
+        <v>1.95</v>
       </c>
       <c r="AN76">
-        <v>1.14</v>
+        <v>1.44</v>
       </c>
       <c r="AO76">
-        <v>1.24</v>
+        <v>1.31</v>
       </c>
       <c r="AP76">
-        <v>2.07</v>
+        <v>1.43</v>
       </c>
       <c r="AQ76">
-        <v>1.43</v>
+        <v>0.86</v>
       </c>
       <c r="AR76">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AS76">
-        <v>1.63</v>
+        <v>1.13</v>
       </c>
       <c r="AT76">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="AU76">
-        <v>1.46</v>
+        <v>2.32</v>
       </c>
       <c r="AV76">
-        <v>1.31</v>
+        <v>1.64</v>
       </c>
       <c r="AW76">
-        <v>2.77</v>
+        <v>3.96</v>
       </c>
       <c r="AX76">
         <v>0</v>
@@ -15440,34 +15449,34 @@
         <v>0</v>
       </c>
       <c r="BB76">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="BC76">
         <v>2.1</v>
       </c>
       <c r="BD76">
-        <v>1.49</v>
+        <v>2.23</v>
       </c>
       <c r="BE76">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="BF76">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BG76">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BH76">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BI76">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BJ76">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BK76">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:63">
@@ -15475,7 +15484,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>5119644</v>
+        <v>5137153</v>
       </c>
       <c r="C77" t="s">
         <v>63</v>
@@ -15490,175 +15499,175 @@
         <v>8</v>
       </c>
       <c r="G77" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="H77" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K77">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M77">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N77">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O77" t="s">
         <v>155</v>
       </c>
       <c r="P77" t="s">
-        <v>100</v>
+        <v>193</v>
       </c>
       <c r="Q77">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R77">
+        <v>12</v>
+      </c>
+      <c r="S77">
+        <v>19</v>
+      </c>
+      <c r="T77">
+        <v>7.6</v>
+      </c>
+      <c r="U77">
+        <v>2.11</v>
+      </c>
+      <c r="V77">
+        <v>2</v>
+      </c>
+      <c r="W77">
+        <v>1.46</v>
+      </c>
+      <c r="X77">
+        <v>2.53</v>
+      </c>
+      <c r="Y77">
+        <v>3.15</v>
+      </c>
+      <c r="Z77">
+        <v>1.31</v>
+      </c>
+      <c r="AA77">
+        <v>9</v>
+      </c>
+      <c r="AB77">
+        <v>1.05</v>
+      </c>
+      <c r="AC77">
+        <v>4.77</v>
+      </c>
+      <c r="AD77">
+        <v>3.7</v>
+      </c>
+      <c r="AE77">
+        <v>1.55</v>
+      </c>
+      <c r="AF77">
+        <v>1.07</v>
+      </c>
+      <c r="AG77">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="AH77">
+        <v>1.36</v>
+      </c>
+      <c r="AI77">
+        <v>2.78</v>
+      </c>
+      <c r="AJ77">
+        <v>2.04</v>
+      </c>
+      <c r="AK77">
+        <v>1.66</v>
+      </c>
+      <c r="AL77">
+        <v>2.38</v>
+      </c>
+      <c r="AM77">
+        <v>1.49</v>
+      </c>
+      <c r="AN77">
+        <v>2.21</v>
+      </c>
+      <c r="AO77">
+        <v>1.24</v>
+      </c>
+      <c r="AP77">
+        <v>1.1</v>
+      </c>
+      <c r="AQ77">
+        <v>1.22</v>
+      </c>
+      <c r="AR77">
+        <v>2.29</v>
+      </c>
+      <c r="AS77">
+        <v>1.1</v>
+      </c>
+      <c r="AT77">
+        <v>2.44</v>
+      </c>
+      <c r="AU77">
+        <v>1.36</v>
+      </c>
+      <c r="AV77">
+        <v>1.91</v>
+      </c>
+      <c r="AW77">
+        <v>3.27</v>
+      </c>
+      <c r="AX77">
+        <v>0</v>
+      </c>
+      <c r="AY77">
+        <v>0</v>
+      </c>
+      <c r="AZ77">
+        <v>0</v>
+      </c>
+      <c r="BA77">
+        <v>0</v>
+      </c>
+      <c r="BB77">
+        <v>1.3</v>
+      </c>
+      <c r="BC77">
+        <v>1.83</v>
+      </c>
+      <c r="BD77">
+        <v>1.95</v>
+      </c>
+      <c r="BE77">
+        <v>2.5</v>
+      </c>
+      <c r="BF77">
         <v>5</v>
       </c>
-      <c r="S77">
-        <v>11</v>
-      </c>
-      <c r="T77">
-        <v>1.5</v>
-      </c>
-      <c r="U77">
-        <v>2.75</v>
-      </c>
-      <c r="V77">
-        <v>13</v>
-      </c>
-      <c r="W77">
-        <v>1.27</v>
-      </c>
-      <c r="X77">
-        <v>3.42</v>
-      </c>
-      <c r="Y77">
-        <v>2.32</v>
-      </c>
-      <c r="Z77">
-        <v>1.54</v>
-      </c>
-      <c r="AA77">
-        <v>5.25</v>
-      </c>
-      <c r="AB77">
-        <v>1.13</v>
-      </c>
-      <c r="AC77">
-        <v>1.2</v>
-      </c>
-      <c r="AD77">
-        <v>5.7</v>
-      </c>
-      <c r="AE77">
-        <v>8.6</v>
-      </c>
-      <c r="AF77">
-        <v>1.01</v>
-      </c>
-      <c r="AG77">
-        <v>17</v>
-      </c>
-      <c r="AH77">
-        <v>1.16</v>
-      </c>
-      <c r="AI77">
-        <v>4.4</v>
-      </c>
-      <c r="AJ77">
-        <v>1.57</v>
-      </c>
-      <c r="AK77">
-        <v>2.19</v>
-      </c>
-      <c r="AL77">
-        <v>2.88</v>
-      </c>
-      <c r="AM77">
-        <v>1.34</v>
-      </c>
-      <c r="AN77">
-        <v>1.02</v>
-      </c>
-      <c r="AO77">
-        <v>1.11</v>
-      </c>
-      <c r="AP77">
-        <v>3.52</v>
-      </c>
-      <c r="AQ77">
-        <v>1.57</v>
-      </c>
-      <c r="AR77">
-        <v>0.43</v>
-      </c>
-      <c r="AS77">
-        <v>1.75</v>
-      </c>
-      <c r="AT77">
-        <v>0.38</v>
-      </c>
-      <c r="AU77">
-        <v>1.56</v>
-      </c>
-      <c r="AV77">
-        <v>1.27</v>
-      </c>
-      <c r="AW77">
-        <v>2.83</v>
-      </c>
-      <c r="AX77">
-        <v>0</v>
-      </c>
-      <c r="AY77">
-        <v>0</v>
-      </c>
-      <c r="AZ77">
-        <v>0</v>
-      </c>
-      <c r="BA77">
-        <v>0</v>
-      </c>
-      <c r="BB77">
-        <v>0</v>
-      </c>
-      <c r="BC77">
-        <v>2</v>
-      </c>
-      <c r="BD77">
-        <v>0</v>
-      </c>
-      <c r="BE77">
-        <v>0</v>
-      </c>
-      <c r="BF77">
-        <v>4</v>
-      </c>
       <c r="BG77">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BH77">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BI77">
         <v>11</v>
       </c>
       <c r="BJ77">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BK77">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" spans="1:63">
@@ -15850,6 +15859,579 @@
       </c>
       <c r="BK78">
         <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="1:63">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>5701885</v>
+      </c>
+      <c r="C79" t="s">
+        <v>63</v>
+      </c>
+      <c r="D79" t="s">
+        <v>64</v>
+      </c>
+      <c r="E79" s="2">
+        <v>45011.64583333334</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79" t="s">
+        <v>81</v>
+      </c>
+      <c r="H79" t="s">
+        <v>80</v>
+      </c>
+      <c r="I79">
+        <v>2</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>2</v>
+      </c>
+      <c r="L79">
+        <v>3</v>
+      </c>
+      <c r="M79">
+        <v>1</v>
+      </c>
+      <c r="N79">
+        <v>4</v>
+      </c>
+      <c r="O79" t="s">
+        <v>157</v>
+      </c>
+      <c r="P79" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q79">
+        <v>11</v>
+      </c>
+      <c r="R79">
+        <v>5</v>
+      </c>
+      <c r="S79">
+        <v>16</v>
+      </c>
+      <c r="T79">
+        <v>2.63</v>
+      </c>
+      <c r="U79">
+        <v>2.05</v>
+      </c>
+      <c r="V79">
+        <v>4</v>
+      </c>
+      <c r="W79">
+        <v>1.45</v>
+      </c>
+      <c r="X79">
+        <v>2.4</v>
+      </c>
+      <c r="Y79">
+        <v>3.3</v>
+      </c>
+      <c r="Z79">
+        <v>1.33</v>
+      </c>
+      <c r="AA79">
+        <v>7.75</v>
+      </c>
+      <c r="AB79">
+        <v>1.08</v>
+      </c>
+      <c r="AC79">
+        <v>1.91</v>
+      </c>
+      <c r="AD79">
+        <v>3.25</v>
+      </c>
+      <c r="AE79">
+        <v>3.5</v>
+      </c>
+      <c r="AF79">
+        <v>1.03</v>
+      </c>
+      <c r="AG79">
+        <v>8.1</v>
+      </c>
+      <c r="AH79">
+        <v>1.42</v>
+      </c>
+      <c r="AI79">
+        <v>2.65</v>
+      </c>
+      <c r="AJ79">
+        <v>2.14</v>
+      </c>
+      <c r="AK79">
+        <v>1.64</v>
+      </c>
+      <c r="AL79">
+        <v>2.05</v>
+      </c>
+      <c r="AM79">
+        <v>1.87</v>
+      </c>
+      <c r="AN79">
+        <v>1.24</v>
+      </c>
+      <c r="AO79">
+        <v>1.32</v>
+      </c>
+      <c r="AP79">
+        <v>1.7</v>
+      </c>
+      <c r="AQ79">
+        <v>1.75</v>
+      </c>
+      <c r="AR79">
+        <v>1.63</v>
+      </c>
+      <c r="AS79">
+        <v>1.89</v>
+      </c>
+      <c r="AT79">
+        <v>1.44</v>
+      </c>
+      <c r="AU79">
+        <v>1.52</v>
+      </c>
+      <c r="AV79">
+        <v>1.19</v>
+      </c>
+      <c r="AW79">
+        <v>2.71</v>
+      </c>
+      <c r="AX79">
+        <v>0</v>
+      </c>
+      <c r="AY79">
+        <v>0</v>
+      </c>
+      <c r="AZ79">
+        <v>0</v>
+      </c>
+      <c r="BA79">
+        <v>0</v>
+      </c>
+      <c r="BB79">
+        <v>0</v>
+      </c>
+      <c r="BC79">
+        <v>0</v>
+      </c>
+      <c r="BD79">
+        <v>0</v>
+      </c>
+      <c r="BE79">
+        <v>0</v>
+      </c>
+      <c r="BF79">
+        <v>12</v>
+      </c>
+      <c r="BG79">
+        <v>2</v>
+      </c>
+      <c r="BH79">
+        <v>10</v>
+      </c>
+      <c r="BI79">
+        <v>8</v>
+      </c>
+      <c r="BJ79">
+        <v>22</v>
+      </c>
+      <c r="BK79">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:63">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>5701884</v>
+      </c>
+      <c r="C80" t="s">
+        <v>63</v>
+      </c>
+      <c r="D80" t="s">
+        <v>64</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45011.75</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80" t="s">
+        <v>75</v>
+      </c>
+      <c r="H80" t="s">
+        <v>77</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
+      <c r="L80">
+        <v>4</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>4</v>
+      </c>
+      <c r="O80" t="s">
+        <v>158</v>
+      </c>
+      <c r="P80" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q80">
+        <v>8</v>
+      </c>
+      <c r="R80">
+        <v>9</v>
+      </c>
+      <c r="S80">
+        <v>17</v>
+      </c>
+      <c r="T80">
+        <v>2.2</v>
+      </c>
+      <c r="U80">
+        <v>2.2</v>
+      </c>
+      <c r="V80">
+        <v>5.5</v>
+      </c>
+      <c r="W80">
+        <v>1.41</v>
+      </c>
+      <c r="X80">
+        <v>2.76</v>
+      </c>
+      <c r="Y80">
+        <v>2.95</v>
+      </c>
+      <c r="Z80">
+        <v>1.37</v>
+      </c>
+      <c r="AA80">
+        <v>6.5</v>
+      </c>
+      <c r="AB80">
+        <v>1.08</v>
+      </c>
+      <c r="AC80">
+        <v>1.5</v>
+      </c>
+      <c r="AD80">
+        <v>3.55</v>
+      </c>
+      <c r="AE80">
+        <v>6</v>
+      </c>
+      <c r="AF80">
+        <v>1.04</v>
+      </c>
+      <c r="AG80">
+        <v>10</v>
+      </c>
+      <c r="AH80">
+        <v>1.28</v>
+      </c>
+      <c r="AI80">
+        <v>3.25</v>
+      </c>
+      <c r="AJ80">
+        <v>1.94</v>
+      </c>
+      <c r="AK80">
+        <v>1.78</v>
+      </c>
+      <c r="AL80">
+        <v>2</v>
+      </c>
+      <c r="AM80">
+        <v>1.72</v>
+      </c>
+      <c r="AN80">
+        <v>1.12</v>
+      </c>
+      <c r="AO80">
+        <v>1.18</v>
+      </c>
+      <c r="AP80">
+        <v>2.3</v>
+      </c>
+      <c r="AQ80">
+        <v>2.38</v>
+      </c>
+      <c r="AR80">
+        <v>1.63</v>
+      </c>
+      <c r="AS80">
+        <v>2.44</v>
+      </c>
+      <c r="AT80">
+        <v>1.44</v>
+      </c>
+      <c r="AU80">
+        <v>2.06</v>
+      </c>
+      <c r="AV80">
+        <v>1.51</v>
+      </c>
+      <c r="AW80">
+        <v>3.57</v>
+      </c>
+      <c r="AX80">
+        <v>0</v>
+      </c>
+      <c r="AY80">
+        <v>0</v>
+      </c>
+      <c r="AZ80">
+        <v>0</v>
+      </c>
+      <c r="BA80">
+        <v>0</v>
+      </c>
+      <c r="BB80">
+        <v>0</v>
+      </c>
+      <c r="BC80">
+        <v>2.38</v>
+      </c>
+      <c r="BD80">
+        <v>0</v>
+      </c>
+      <c r="BE80">
+        <v>0</v>
+      </c>
+      <c r="BF80">
+        <v>10</v>
+      </c>
+      <c r="BG80">
+        <v>0</v>
+      </c>
+      <c r="BH80">
+        <v>7</v>
+      </c>
+      <c r="BI80">
+        <v>4</v>
+      </c>
+      <c r="BJ80">
+        <v>17</v>
+      </c>
+      <c r="BK80">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:63">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>5701886</v>
+      </c>
+      <c r="C81" t="s">
+        <v>63</v>
+      </c>
+      <c r="D81" t="s">
+        <v>64</v>
+      </c>
+      <c r="E81" s="2">
+        <v>45011.75</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81" t="s">
+        <v>79</v>
+      </c>
+      <c r="H81" t="s">
+        <v>83</v>
+      </c>
+      <c r="I81">
+        <v>2</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+      <c r="K81">
+        <v>3</v>
+      </c>
+      <c r="L81">
+        <v>3</v>
+      </c>
+      <c r="M81">
+        <v>1</v>
+      </c>
+      <c r="N81">
+        <v>4</v>
+      </c>
+      <c r="O81" t="s">
+        <v>159</v>
+      </c>
+      <c r="P81" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q81">
+        <v>4</v>
+      </c>
+      <c r="R81">
+        <v>6</v>
+      </c>
+      <c r="S81">
+        <v>10</v>
+      </c>
+      <c r="T81">
+        <v>1.91</v>
+      </c>
+      <c r="U81">
+        <v>2.3</v>
+      </c>
+      <c r="V81">
+        <v>6.5</v>
+      </c>
+      <c r="W81">
+        <v>1.32</v>
+      </c>
+      <c r="X81">
+        <v>3.1</v>
+      </c>
+      <c r="Y81">
+        <v>2.36</v>
+      </c>
+      <c r="Z81">
+        <v>1.54</v>
+      </c>
+      <c r="AA81">
+        <v>6</v>
+      </c>
+      <c r="AB81">
+        <v>1.11</v>
+      </c>
+      <c r="AC81">
+        <v>1.33</v>
+      </c>
+      <c r="AD81">
+        <v>4.25</v>
+      </c>
+      <c r="AE81">
+        <v>7.5</v>
+      </c>
+      <c r="AF81">
+        <v>0</v>
+      </c>
+      <c r="AG81">
+        <v>16</v>
+      </c>
+      <c r="AH81">
+        <v>1.2</v>
+      </c>
+      <c r="AI81">
+        <v>4.1</v>
+      </c>
+      <c r="AJ81">
+        <v>1.73</v>
+      </c>
+      <c r="AK81">
+        <v>2</v>
+      </c>
+      <c r="AL81">
+        <v>2</v>
+      </c>
+      <c r="AM81">
+        <v>1.7</v>
+      </c>
+      <c r="AN81">
+        <v>1.08</v>
+      </c>
+      <c r="AO81">
+        <v>1.15</v>
+      </c>
+      <c r="AP81">
+        <v>3.2</v>
+      </c>
+      <c r="AQ81">
+        <v>2</v>
+      </c>
+      <c r="AR81">
+        <v>1.38</v>
+      </c>
+      <c r="AS81">
+        <v>2.11</v>
+      </c>
+      <c r="AT81">
+        <v>1.22</v>
+      </c>
+      <c r="AU81">
+        <v>1.93</v>
+      </c>
+      <c r="AV81">
+        <v>1.09</v>
+      </c>
+      <c r="AW81">
+        <v>3.02</v>
+      </c>
+      <c r="AX81">
+        <v>0</v>
+      </c>
+      <c r="AY81">
+        <v>0</v>
+      </c>
+      <c r="AZ81">
+        <v>0</v>
+      </c>
+      <c r="BA81">
+        <v>0</v>
+      </c>
+      <c r="BB81">
+        <v>1.34</v>
+      </c>
+      <c r="BC81">
+        <v>2</v>
+      </c>
+      <c r="BD81">
+        <v>2.02</v>
+      </c>
+      <c r="BE81">
+        <v>2.65</v>
+      </c>
+      <c r="BF81">
+        <v>7</v>
+      </c>
+      <c r="BG81">
+        <v>6</v>
+      </c>
+      <c r="BH81">
+        <v>6</v>
+      </c>
+      <c r="BI81">
+        <v>10</v>
+      </c>
+      <c r="BJ81">
+        <v>13</v>
+      </c>
+      <c r="BK81">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Brazil Copa do Nordeste_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Brazil Copa do Nordeste_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK82"/>
+  <dimension ref="A1:BK83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -5569,7 +5569,7 @@
         <v>3</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT25" t="n">
         <v>2.1</v>
@@ -6384,7 +6384,7 @@
         <v>1</v>
       </c>
       <c r="AT29" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AU29" t="n">
         <v>0</v>
@@ -7399,7 +7399,7 @@
         <v>2.2</v>
       </c>
       <c r="AT34" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AU34" t="n">
         <v>2.17</v>
@@ -8005,7 +8005,7 @@
         <v>1.5</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT37" t="n">
         <v>1.13</v>
@@ -9429,7 +9429,7 @@
         <v>1.2</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AU44" t="n">
         <v>2.68</v>
@@ -10241,7 +10241,7 @@
         <v>1.36</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AU48" t="n">
         <v>1.53</v>
@@ -10441,7 +10441,7 @@
         <v>1</v>
       </c>
       <c r="AS49" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT49" t="n">
         <v>1.13</v>
@@ -11662,7 +11662,7 @@
         <v>1.44</v>
       </c>
       <c r="AT55" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AU55" t="n">
         <v>1.48</v>
@@ -12065,7 +12065,7 @@
         <v>0.6</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT57" t="n">
         <v>0.75</v>
@@ -13286,7 +13286,7 @@
         <v>1.44</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AU63" t="n">
         <v>1.64</v>
@@ -13892,7 +13892,7 @@
         <v>1.67</v>
       </c>
       <c r="AS66" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT66" t="n">
         <v>1.22</v>
@@ -14501,7 +14501,7 @@
         <v>1.75</v>
       </c>
       <c r="AS69" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT69" t="n">
         <v>1.5</v>
@@ -14969,7 +14969,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="n">
-        <v>5119644</v>
+        <v>5119645</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -14989,22 +14989,22 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Fluminense PI</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J72" t="n">
         <v>0</v>
       </c>
       <c r="K72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L72" t="n">
         <v>3</v>
@@ -15017,7 +15017,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>['47', '49', '69']</t>
+          <t>['3', '29', '90+1']</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
@@ -15026,145 +15026,145 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S72" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="T72" t="n">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="U72" t="n">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="V72" t="n">
-        <v>13</v>
+        <v>3.25</v>
       </c>
       <c r="W72" t="n">
-        <v>1.27</v>
+        <v>1.43</v>
       </c>
       <c r="X72" t="n">
-        <v>3.42</v>
+        <v>2.62</v>
       </c>
       <c r="Y72" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB72" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC72" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE72" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AF72" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG72" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AH72" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AI72" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ72" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AK72" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL72" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AM72" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN72" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO72" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP72" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AQ72" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AR72" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AS72" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT72" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AU72" t="n">
         <v>2.32</v>
       </c>
-      <c r="Z72" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AA72" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="AB72" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AC72" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AD72" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AE72" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AF72" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AG72" t="n">
+      <c r="AV72" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AW72" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="AX72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB72" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BC72" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD72" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE72" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF72" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG72" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH72" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI72" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ72" t="n">
         <v>17</v>
       </c>
-      <c r="AH72" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="AI72" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AJ72" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AK72" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="AL72" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="AM72" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AN72" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AO72" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AP72" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="AQ72" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AR72" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AS72" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="AT72" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="AU72" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="AV72" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AW72" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="AX72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC72" t="n">
-        <v>2</v>
-      </c>
-      <c r="BD72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF72" t="n">
+      <c r="BK72" t="n">
         <v>4</v>
-      </c>
-      <c r="BG72" t="n">
-        <v>5</v>
-      </c>
-      <c r="BH72" t="n">
-        <v>6</v>
-      </c>
-      <c r="BI72" t="n">
-        <v>11</v>
-      </c>
-      <c r="BJ72" t="n">
-        <v>10</v>
-      </c>
-      <c r="BK72" t="n">
-        <v>16</v>
       </c>
     </row>
     <row r="73">
@@ -15781,7 +15781,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="n">
-        <v>5119645</v>
+        <v>5119644</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -15801,22 +15801,22 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Fluminense PI</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
         <v>0</v>
       </c>
       <c r="K76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L76" t="n">
         <v>3</v>
@@ -15829,7 +15829,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>['3', '29', '90+1']</t>
+          <t>['47', '49', '69']</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
@@ -15838,145 +15838,145 @@
         </is>
       </c>
       <c r="Q76" t="n">
+        <v>6</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>11</v>
+      </c>
+      <c r="T76" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U76" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V76" t="n">
+        <v>13</v>
+      </c>
+      <c r="W76" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X76" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AA76" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AB76" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC76" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AD76" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AE76" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AF76" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG76" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH76" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AI76" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AJ76" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK76" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AL76" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AM76" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AN76" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AO76" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AP76" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="AQ76" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AR76" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AS76" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AT76" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AU76" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AV76" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW76" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AX76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC76" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF76" t="n">
         <v>4</v>
       </c>
-      <c r="R76" t="n">
-        <v>4</v>
-      </c>
-      <c r="S76" t="n">
-        <v>8</v>
-      </c>
-      <c r="T76" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="U76" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="V76" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="W76" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="X76" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="Y76" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="Z76" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AA76" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB76" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AC76" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AD76" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AE76" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AF76" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AG76" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="AH76" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AI76" t="n">
-        <v>3</v>
-      </c>
-      <c r="AJ76" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="AK76" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AL76" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="AM76" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AN76" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AO76" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AP76" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AQ76" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="AR76" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="AS76" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AT76" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AU76" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="AV76" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AW76" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="AX76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ76" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA76" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB76" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="BC76" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="BD76" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="BE76" t="n">
-        <v>3</v>
-      </c>
-      <c r="BF76" t="n">
-        <v>9</v>
-      </c>
       <c r="BG76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BH76" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BI76" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="BJ76" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="BK76" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77">
@@ -16128,7 +16128,7 @@
         <v>1.1</v>
       </c>
       <c r="AT77" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AU77" t="n">
         <v>1.36</v>
@@ -16531,7 +16531,7 @@
         <v>1.63</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT79" t="n">
         <v>1.44</v>
@@ -16734,7 +16734,7 @@
         <v>1.63</v>
       </c>
       <c r="AS80" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT80" t="n">
         <v>1.44</v>
@@ -17195,6 +17195,209 @@
       </c>
       <c r="BK82" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="n">
+        <v>5731456</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Brazil Copa do Nordeste</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>45015.79166666666</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Sport Recife</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>1</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0</v>
+      </c>
+      <c r="N83" t="n">
+        <v>1</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>['2']</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q83" t="n">
+        <v>8</v>
+      </c>
+      <c r="R83" t="n">
+        <v>2</v>
+      </c>
+      <c r="S83" t="n">
+        <v>10</v>
+      </c>
+      <c r="T83" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U83" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V83" t="n">
+        <v>5</v>
+      </c>
+      <c r="W83" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X83" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z83" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AA83" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB83" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC83" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD83" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE83" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AF83" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG83" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH83" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI83" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AJ83" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK83" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL83" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AM83" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN83" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AO83" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP83" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AQ83" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AR83" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AS83" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AT83" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AU83" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AV83" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW83" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AX83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC83" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF83" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG83" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH83" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI83" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ83" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK83" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
